--- a/sheet.xlsx
+++ b/sheet.xlsx
@@ -28,20 +28,20 @@
     <sheet state="visible" name="Credits" sheetId="23" r:id="rId25"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="Z_E862327B_85EF_4C3B_B3C4_5BE0490CA3B0_.wvu.FilterData">StoryText1!$B$1:$H$105</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_F35CD725_A175_42A1_8559_ACF7DFCE6881_.wvu.FilterData">StoryText1!$E$1:$E$105</definedName>
-    <definedName hidden="1" localSheetId="2" name="Z_205A6D3E_11A9_4340_983F_5BA7FED43E71_.wvu.FilterData">StoryText2!$B$1:$H$485</definedName>
-    <definedName hidden="1" localSheetId="3" name="Z_205A6D3E_11A9_4340_983F_5BA7FED43E71_.wvu.FilterData">StoryText3!$B$1:$H$532</definedName>
-    <definedName hidden="1" localSheetId="4" name="Z_205A6D3E_11A9_4340_983F_5BA7FED43E71_.wvu.FilterData">Snippet1!$B$1:$H$35</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_C46F569E_AF90_4926_819D_552287A45EEE_.wvu.FilterData">StoryText1!$E$1:$E$105</definedName>
-    <definedName hidden="1" localSheetId="2" name="Z_C46F569E_AF90_4926_819D_552287A45EEE_.wvu.FilterData">StoryText2!$B$1:$H$485</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_F809E1CB_56BE_4503_A575_DF9C7F7E01BA_.wvu.FilterData">StoryText1!$E$1:$E$105</definedName>
+    <definedName hidden="1" localSheetId="2" name="Z_F809E1CB_56BE_4503_A575_DF9C7F7E01BA_.wvu.FilterData">StoryText2!$B$1:$H$485</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_841ADE9F_C1A2_48DA_A5D8_B90BBF5ED91C_.wvu.FilterData">StoryText1!$B$1:$H$105</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_E3CAD23F_CF90_445C_89AC_3077DDE3EC91_.wvu.FilterData">StoryText1!$E$1:$E$105</definedName>
+    <definedName hidden="1" localSheetId="2" name="Z_CDE21143_29F8_4EAA_9BD8_57A9B40E72D2_.wvu.FilterData">StoryText2!$B$1:$H$485</definedName>
+    <definedName hidden="1" localSheetId="3" name="Z_CDE21143_29F8_4EAA_9BD8_57A9B40E72D2_.wvu.FilterData">StoryText3!$B$1:$H$532</definedName>
+    <definedName hidden="1" localSheetId="4" name="Z_CDE21143_29F8_4EAA_9BD8_57A9B40E72D2_.wvu.FilterData">Snippet1!$B$1:$H$35</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{C46F569E-AF90-4926-819D-552287A45EEE}" name="Chapter 0 (Prologue)"/>
-    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{205A6D3E-11A9-4340-983F-5BA7FED43E71}" name="Sorted by location"/>
-    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{F35CD725-A175-42A1-8559-ACF7DFCE6881}" name="Unidentified strings"/>
-    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{E862327B-85EF-4C3B-B3C4-5BE0490CA3B0}" name="Chapter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{F809E1CB-56BE-4503-A575-DF9C7F7E01BA}" name="Chapter 0 (Prologue)"/>
+    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{CDE21143-29F8-4EAA-9BD8-57A9B40E72D2}" name="Sorted by location"/>
+    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{E3CAD23F-CF90-445C-89AC-3077DDE3EC91}" name="Unidentified strings"/>
+    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{841ADE9F-C1A2-48DA-A5D8-B90BBF5ED91C}" name="Chapter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -64,7 +64,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10437" uniqueCount="7715">
   <si>
-    <t>rev. 7</t>
+    <t>rev. 8</t>
   </si>
   <si>
     <t>Translation Status</t>
@@ -8303,10 +8303,10 @@
 おたがい ベストをつくしましょう</t>
   </si>
   <si>
-    <t>Huh? I feel like I've seen you before...who are you?
-Heh heh, what's wrong? You're staring pretty hard.
-No, it's not what you think...I was...
-In any case, let's both do our best!</t>
+    <t>&lt;@Hikaru&gt;Huh? I feel like I've seen you before...who are you?
+&lt;@Beauty&gt;Heh heh, what's wrong? You're staring pretty hard.
+&lt;@Hikaru&gt;No, it's not what you think...I was...
+&lt;@Beauty&gt;In any case, let's both do our best!</t>
   </si>
   <si>
     <t>6 - inside medarotsha - regional tourney beauty</t>
@@ -8322,7 +8322,7 @@
 また どこかで あいましょう♥</t>
   </si>
   <si>
-    <t>You've become very strong! 'Til we meet again!♥</t>
+    <t>&lt;@Beauty&gt;You've become very strong! 'Til we meet again!♥</t>
   </si>
   <si>
     <t>6 - inside medarotsha - regional tourney beauty -&gt; win</t>
@@ -8339,7 +8339,7 @@
 まちがっても きみには まけないよ</t>
   </si>
   <si>
-    <t>This place is like a garden to me..
+    <t>&lt;@Yuuki&gt;This place is like a garden to me..
 Which is why, I won't lose to you, no matter what!</t>
   </si>
   <si>
@@ -8356,7 +8356,7 @@
 まけるなんて・・・</t>
   </si>
   <si>
-    <t>I can't believe it... To lose now of all times...</t>
+    <t>&lt;@YuukiSad&gt;I can't believe it... To lose now of all times...</t>
   </si>
   <si>
     <t>6 - inside medarotsha - regional tourney yuuki -&gt; win</t>
@@ -8371,7 +8371,7 @@
     <t>さいこうの しあいだったよ</t>
   </si>
   <si>
-    <t>That was a great match.</t>
+    <t>&lt;@Yuuki&gt;That was a great match.</t>
   </si>
   <si>
     <t>6 - inside medarotsha - regional tourney yuuki -&gt; lose</t>
@@ -8679,7 +8679,7 @@
 あるのかい？</t>
   </si>
   <si>
-    <t>What is it? Is there something you want?</t>
+    <t>&lt;@Yuuki&gt;What is it? Is there something you want?</t>
   </si>
   <si>
     <t>3 - medarotsha area - yuuki's house yuuki</t>
@@ -8698,7 +8698,7 @@
 きみにも 1セット わけてあげよう</t>
   </si>
   <si>
-    <t>I'm gonna try out a new product in the next tournament.
+    <t>&lt;@Yuuki&gt;I'm gonna try out a new product in the next tournament.
 It's not good to blame your parts if you lose. Here, I'll give you a set too.</t>
   </si>
   <si>
@@ -8719,7 +8719,7 @@
 けっちゃくを つけよう</t>
   </si>
   <si>
-    <t>Listen, in the final tournament, you and I are gonna fight in the semifinals.
+    <t>&lt;@Yuuki&gt;Listen, in the final tournament, you and I are gonna fight in the semifinals.
 You better not lose 'til then.
 We'll finally settle it there.</t>
   </si>
@@ -8742,7 +8742,7 @@
 きょうは まんげつじゃないのか？</t>
   </si>
   <si>
-    <t>You want to fix a broken Medal?
+    <t>&lt;@Yuuki&gt;You want to fix a broken Medal?
 Well, a long time ago, my grandpa told me a story that if you place a Medal in the fountain at the Ruins on the night of a full moon, the Medal will be revived.
 Isn't tonight a full moon?</t>
   </si>
@@ -8758,7 +8758,8 @@
 みても うれしくないからな</t>
   </si>
   <si>
-    <t>You should hurry and fix your Medal. It bums me out when you're depressed.</t>
+    <t>&lt;@Yuuki&gt;You should hurry and fix your Medal.
+It bums me out when you're depressed.</t>
   </si>
   <si>
     <t>B-371</t>
@@ -8774,7 +8775,9 @@
 あいてをしてあげても いいよ</t>
   </si>
   <si>
-    <t>Your Medarot has grown. ...I guess it's expected.
+    <t>&lt;@Yuuki&gt;Your Medarot has grown.
+...
+I guess it's expected.
 Feel free to ask for a match anytime.</t>
   </si>
   <si>
@@ -8788,7 +8791,7 @@
 さあ うけとリたまえ</t>
   </si>
   <si>
-    <t>Hey, don't look so sad! Take it.</t>
+    <t>&lt;@Yuuki&gt;Hey, don't look so sad! Take it.</t>
   </si>
   <si>
     <t>B-373</t>
@@ -8800,7 +8803,7 @@
     <t>ボクは ライバルとして なさけないよ</t>
   </si>
   <si>
-    <t>Don't make me regret calling you my rival.</t>
+    <t>&lt;@Yuuki&gt;Don't make me regret calling you my rival.</t>
   </si>
   <si>
     <t>B-374</t>
@@ -49304,14 +49307,14 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F35CD725-A175-42A1-8559-ACF7DFCE6881}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{E3CAD23F-CF90-445C-89AC-3077DDE3EC91}" filter="1" showAutoFilter="1">
       <autoFilter ref="$E$1:$E$105">
         <filterColumn colId="0">
           <filters blank="1"/>
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{C46F569E-AF90-4926-819D-552287A45EEE}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{F809E1CB-56BE-4503-A575-DF9C7F7E01BA}" filter="1" showAutoFilter="1">
       <autoFilter ref="$E$1:$E$105">
         <filterColumn colId="0">
           <customFilters>
@@ -49320,7 +49323,7 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{E862327B-85EF-4C3B-B3C4-5BE0490CA3B0}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{841ADE9F-C1A2-48DA-A5D8-B90BBF5ED91C}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$1:$H$105">
         <filterColumn colId="3">
           <customFilters>
@@ -62759,7 +62762,7 @@
       <c r="C377" s="17" t="s">
         <v>2143</v>
       </c>
-      <c r="D377" s="17" t="s">
+      <c r="D377" s="16" t="s">
         <v>2144</v>
       </c>
       <c r="E377" s="16" t="s">
@@ -62789,7 +62792,7 @@
       <c r="C378" s="17" t="s">
         <v>2148</v>
       </c>
-      <c r="D378" s="17" t="s">
+      <c r="D378" s="16" t="s">
         <v>2149</v>
       </c>
       <c r="E378" s="16" t="s">
@@ -62863,7 +62866,7 @@
       <c r="C381" s="17" t="s">
         <v>2163</v>
       </c>
-      <c r="D381" s="17" t="s">
+      <c r="D381" s="16" t="s">
         <v>2164</v>
       </c>
       <c r="E381" s="16" t="s">
@@ -63293,7 +63296,7 @@
       <c r="C398" s="17" t="s">
         <v>2246</v>
       </c>
-      <c r="D398" s="17" t="s">
+      <c r="D398" s="16" t="s">
         <v>2247</v>
       </c>
       <c r="E398" s="16" t="s">
@@ -63321,7 +63324,7 @@
       <c r="C399" s="17" t="s">
         <v>2251</v>
       </c>
-      <c r="D399" s="17" t="s">
+      <c r="D399" s="16" t="s">
         <v>2252</v>
       </c>
       <c r="E399" s="16" t="s">
@@ -63348,7 +63351,7 @@
       <c r="C400" s="17" t="s">
         <v>2256</v>
       </c>
-      <c r="D400" s="17" t="s">
+      <c r="D400" s="16" t="s">
         <v>2257</v>
       </c>
       <c r="E400" s="18"/>
@@ -63377,7 +63380,7 @@
       <c r="C401" s="17" t="s">
         <v>2260</v>
       </c>
-      <c r="D401" s="17" t="s">
+      <c r="D401" s="16" t="s">
         <v>2261</v>
       </c>
       <c r="E401" s="18"/>
@@ -63385,8 +63388,9 @@
       <c r="G401" s="18" t="str">
         <f t="shared" si="1"/>
         <v>You should hurry and fix your
-Medal. It bums me out when
-you're depressed. </v>
+Medal. 
+It bums me out when you're
+depressed. </v>
       </c>
       <c r="H401" s="18"/>
     </row>
@@ -63400,15 +63404,16 @@
       <c r="C402" s="17" t="s">
         <v>2264</v>
       </c>
-      <c r="D402" s="17" t="s">
+      <c r="D402" s="16" t="s">
         <v>2265</v>
       </c>
       <c r="E402" s="18"/>
       <c r="F402" s="18"/>
       <c r="G402" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>Your Medarot has grown. ...I
-guess it's expected. 
+        <v>Your Medarot has grown. 
+... 
+I guess it's expected. 
 Feel free to ask for a match
 anytime. </v>
       </c>
@@ -63424,7 +63429,7 @@
       <c r="C403" s="17" t="s">
         <v>2268</v>
       </c>
-      <c r="D403" s="17" t="s">
+      <c r="D403" s="16" t="s">
         <v>2269</v>
       </c>
       <c r="E403" s="18"/>
@@ -63445,7 +63450,7 @@
       <c r="C404" s="17" t="s">
         <v>2272</v>
       </c>
-      <c r="D404" s="17" t="s">
+      <c r="D404" s="16" t="s">
         <v>2273</v>
       </c>
       <c r="E404" s="18"/>
@@ -65460,7 +65465,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C46F569E-AF90-4926-819D-552287A45EEE}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{F809E1CB-56BE-4503-A575-DF9C7F7E01BA}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$1:$H$485">
         <filterColumn colId="3">
           <customFilters>
@@ -65469,7 +65474,7 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{205A6D3E-11A9-4340-983F-5BA7FED43E71}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{CDE21143-29F8-4EAA-9BD8-57A9B40E72D2}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$1:$H$485">
         <sortState ref="B1:H485">
           <sortCondition ref="E1:E485"/>
@@ -78368,7 +78373,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{205A6D3E-11A9-4340-983F-5BA7FED43E71}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{CDE21143-29F8-4EAA-9BD8-57A9B40E72D2}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$1:$H$532">
         <sortState ref="B1:H532">
           <sortCondition ref="E1:E532"/>
@@ -79269,7 +79274,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{205A6D3E-11A9-4340-983F-5BA7FED43E71}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{CDE21143-29F8-4EAA-9BD8-57A9B40E72D2}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$1:$H$35">
         <sortState ref="B1:H35">
           <sortCondition ref="E1:E35"/>

--- a/sheet.xlsx
+++ b/sheet.xlsx
@@ -28,20 +28,20 @@
     <sheet state="visible" name="Credits" sheetId="23" r:id="rId25"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="Z_42ACBEE9_9723_412C_AFD4_EEE36BB9DEB9_.wvu.FilterData">StoryText1!$E$1:$E$105</definedName>
-    <definedName hidden="1" localSheetId="2" name="Z_42ACBEE9_9723_412C_AFD4_EEE36BB9DEB9_.wvu.FilterData">StoryText2!$B$1:$H$485</definedName>
-    <definedName hidden="1" localSheetId="2" name="Z_82262917_3688_4057_ABEE_DC8AF9B7255A_.wvu.FilterData">StoryText2!$B$1:$H$485</definedName>
-    <definedName hidden="1" localSheetId="3" name="Z_82262917_3688_4057_ABEE_DC8AF9B7255A_.wvu.FilterData">StoryText3!$B$1:$H$532</definedName>
-    <definedName hidden="1" localSheetId="4" name="Z_82262917_3688_4057_ABEE_DC8AF9B7255A_.wvu.FilterData">Snippet1!$B$1:$H$35</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_4CDE152C_C3C5_472D_8122_8A8385BCBB65_.wvu.FilterData">StoryText1!$B$1:$H$105</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_E31B94E6_7CDA_4947_8BAD_A9195C7E9B8D_.wvu.FilterData">StoryText1!$E$1:$E$105</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_E3773B10_3D88_450E_B5D5_124693DBC50B_.wvu.FilterData">StoryText1!$B$1:$H$105</definedName>
+    <definedName hidden="1" localSheetId="2" name="Z_D5336419_E3CB_4F64_960A_EB6668FC55E7_.wvu.FilterData">StoryText2!$B$1:$H$485</definedName>
+    <definedName hidden="1" localSheetId="3" name="Z_D5336419_E3CB_4F64_960A_EB6668FC55E7_.wvu.FilterData">StoryText3!$B$1:$H$532</definedName>
+    <definedName hidden="1" localSheetId="4" name="Z_D5336419_E3CB_4F64_960A_EB6668FC55E7_.wvu.FilterData">Snippet1!$B$1:$H$35</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_31D3E495_9170_4B76_AF56_78EFA880F7C9_.wvu.FilterData">StoryText1!$E$1:$E$105</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_7B92790E_0727_4944_9A1B_CE3A277EC056_.wvu.FilterData">StoryText1!$E$1:$E$105</definedName>
+    <definedName hidden="1" localSheetId="2" name="Z_7B92790E_0727_4944_9A1B_CE3A277EC056_.wvu.FilterData">StoryText2!$B$1:$H$485</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{42ACBEE9-9723-412C-AFD4-EEE36BB9DEB9}" name="Chapter 0 (Prologue)"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{82262917-3688-4057-ABEE-DC8AF9B7255A}" name="Sorted by location"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E31B94E6-7CDA-4947-8BAD-A9195C7E9B8D}" name="Unidentified strings"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4CDE152C-C3C5-472D-8122-8A8385BCBB65}" name="Chapter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{7B92790E-0727-4944-9A1B-CE3A277EC056}" name="Chapter 0 (Prologue)"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D5336419-E3CB-4F64-960A-EB6668FC55E7}" name="Sorted by location"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{31D3E495-9170-4B76-AF56-78EFA880F7C9}" name="Unidentified strings"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E3773B10-3D88-450E-B5D5-124693DBC50B}" name="Chapter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -64,7 +64,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10554" uniqueCount="7795">
   <si>
-    <t>rev. 8</t>
+    <t>rev. 9</t>
   </si>
   <si>
     <t>Translation Status</t>
@@ -11650,7 +11650,7 @@
 あんまリ あぶないことしちゃ だめよ</t>
   </si>
   <si>
-    <t>Medarots can quickly repair themselves after a Robottle, but it won't be so easy if one of you children gets hurt.
+    <t>&lt;@Nurse&gt;Medarots can quickly repair themselves after a Robottle, but it won't be so easy if one of you children gets hurt.
 Be sure to stay safe, alright?</t>
   </si>
   <si>
@@ -11669,7 +11669,7 @@
 いつか おあいて してくれる？</t>
   </si>
   <si>
-    <t>You may not have guessed it, but even I have a Medarot of my own.
+    <t>&lt;@Nurse&gt;You may not have guessed it, but even I have a Medarot of my own.
 She's a real cutie! ♥
 My Medarot is a type that specializes in repairs.
 Perhaps I'll bring her in sometime?</t>
@@ -11691,7 +11691,7 @@
 してくれって たのまれてるの</t>
   </si>
   <si>
-    <t>Oh, &lt;&amp;NAME&gt;! Hello.
+    <t>&lt;@Nurse&gt;Oh, &lt;&amp;NAME&gt;! Hello.
 Congratulations on winning the tournament.
 Your teacher would like to do some special training with you and Yuuki.</t>
   </si>
@@ -11711,7 +11711,7 @@
 こころの じゅんびは いい？&lt;*4&gt;</t>
   </si>
   <si>
-    <t>I'm not sure if I'll be of any help but I'd be glad to.
+    <t>&lt;@Nurse&gt;I'm not sure if I'll be of any help but I'd be glad to.
 So, are you ready?&lt;*4&gt;</t>
   </si>
   <si>
@@ -11726,7 +11726,7 @@
 でも ムチャだけは しちゃだめよ</t>
   </si>
   <si>
-    <t>If you like, I could lend you my Medal.
+    <t>&lt;@Nurse&gt;If you like, I could lend you my Medal.
 But don't do anything reckless with it!</t>
   </si>
   <si>
@@ -28349,7 +28349,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28377,7 +28377,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image7.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28405,7 +28405,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28433,7 +28433,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image9.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28461,7 +28461,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28489,7 +28489,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png"/>
+        <xdr:cNvPr id="0" name="image5.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28545,7 +28545,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image15.png"/>
+        <xdr:cNvPr id="0" name="image14.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28573,7 +28573,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png"/>
+        <xdr:cNvPr id="0" name="image18.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28601,7 +28601,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image16.png"/>
+        <xdr:cNvPr id="0" name="image8.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28629,7 +28629,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image21.png"/>
+        <xdr:cNvPr id="0" name="image15.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28657,7 +28657,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image19.png"/>
+        <xdr:cNvPr id="0" name="image22.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28685,7 +28685,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image18.png"/>
+        <xdr:cNvPr id="0" name="image19.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28713,7 +28713,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image23.png"/>
+        <xdr:cNvPr id="0" name="image24.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28741,7 +28741,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png"/>
+        <xdr:cNvPr id="0" name="image13.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28769,7 +28769,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png"/>
+        <xdr:cNvPr id="0" name="image11.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28825,7 +28825,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image22.png"/>
+        <xdr:cNvPr id="0" name="image16.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28853,7 +28853,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png"/>
+        <xdr:cNvPr id="0" name="image10.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28881,7 +28881,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image20.png"/>
+        <xdr:cNvPr id="0" name="image23.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28909,7 +28909,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png"/>
+        <xdr:cNvPr id="0" name="image6.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28937,7 +28937,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png"/>
+        <xdr:cNvPr id="0" name="image12.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28965,7 +28965,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image24.png"/>
+        <xdr:cNvPr id="0" name="image21.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28993,7 +28993,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png"/>
+        <xdr:cNvPr id="0" name="image20.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -51030,14 +51030,14 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{E31B94E6-7CDA-4947-8BAD-A9195C7E9B8D}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{31D3E495-9170-4B76-AF56-78EFA880F7C9}" filter="1" showAutoFilter="1">
       <autoFilter ref="$E$1:$E$105">
         <filterColumn colId="0">
           <filters blank="1"/>
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{42ACBEE9-9723-412C-AFD4-EEE36BB9DEB9}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{7B92790E-0727-4944-9A1B-CE3A277EC056}" filter="1" showAutoFilter="1">
       <autoFilter ref="$E$1:$E$105">
         <filterColumn colId="0">
           <customFilters>
@@ -51046,7 +51046,7 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{4CDE152C-C3C5-472D-8122-8A8385BCBB65}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{E3773B10-3D88-450E-B5D5-124693DBC50B}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$1:$H$105">
         <filterColumn colId="3">
           <customFilters>
@@ -67188,7 +67188,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{42ACBEE9-9723-412C-AFD4-EEE36BB9DEB9}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{7B92790E-0727-4944-9A1B-CE3A277EC056}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$1:$H$485">
         <filterColumn colId="3">
           <customFilters>
@@ -67197,7 +67197,7 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{82262917-3688-4057-ABEE-DC8AF9B7255A}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D5336419-E3CB-4F64-960A-EB6668FC55E7}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$1:$H$485">
         <sortState ref="B1:H485">
           <sortCondition ref="E1:E485"/>
@@ -69445,7 +69445,7 @@
       <c r="C89" s="19" t="s">
         <v>3038</v>
       </c>
-      <c r="D89" s="19" t="s">
+      <c r="D89" s="18" t="s">
         <v>3039</v>
       </c>
       <c r="E89" s="18" t="s">
@@ -69504,7 +69504,7 @@
       <c r="C91" s="19" t="s">
         <v>3047</v>
       </c>
-      <c r="D91" s="19" t="s">
+      <c r="D91" s="18" t="s">
         <v>3048</v>
       </c>
       <c r="E91" s="18" t="s">
@@ -69532,7 +69532,7 @@
       <c r="C92" s="19" t="s">
         <v>3052</v>
       </c>
-      <c r="D92" s="19" t="s">
+      <c r="D92" s="18" t="s">
         <v>3053</v>
       </c>
       <c r="E92" s="18" t="s">
@@ -69557,7 +69557,7 @@
       <c r="C93" s="19" t="s">
         <v>3056</v>
       </c>
-      <c r="D93" s="19" t="s">
+      <c r="D93" s="18" t="s">
         <v>3057</v>
       </c>
       <c r="E93" s="18" t="s">
@@ -80098,7 +80098,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{82262917-3688-4057-ABEE-DC8AF9B7255A}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D5336419-E3CB-4F64-960A-EB6668FC55E7}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$1:$H$532">
         <sortState ref="B1:H532">
           <sortCondition ref="E1:E532"/>
@@ -80995,7 +80995,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{82262917-3688-4057-ABEE-DC8AF9B7255A}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D5336419-E3CB-4F64-960A-EB6668FC55E7}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$1:$H$35">
         <sortState ref="B1:H35">
           <sortCondition ref="E1:E35"/>

--- a/sheet.xlsx
+++ b/sheet.xlsx
@@ -28,20 +28,20 @@
     <sheet state="visible" name="Credits" sheetId="23" r:id="rId25"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="Z_0E145B76_2136_4C14_995B_EA4F767742F8_.wvu.FilterData">StoryText1!$E$1:$E$105</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_E5F0296A_86A4_471D_8455_1294AE72CAB4_.wvu.FilterData">StoryText1!$B$1:$H$105</definedName>
-    <definedName hidden="1" localSheetId="2" name="Z_DFF92B95_7C86_4DC7_A56A_2FBF6472CDEE_.wvu.FilterData">StoryText2!$B$1:$H$485</definedName>
-    <definedName hidden="1" localSheetId="3" name="Z_DFF92B95_7C86_4DC7_A56A_2FBF6472CDEE_.wvu.FilterData">StoryText3!$B$1:$H$532</definedName>
-    <definedName hidden="1" localSheetId="4" name="Z_DFF92B95_7C86_4DC7_A56A_2FBF6472CDEE_.wvu.FilterData">Snippet1!$B$1:$H$35</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_3FA84059_40DC_436B_9978_74DA36EFD166_.wvu.FilterData">StoryText1!$E$1:$E$105</definedName>
-    <definedName hidden="1" localSheetId="2" name="Z_3FA84059_40DC_436B_9978_74DA36EFD166_.wvu.FilterData">StoryText2!$B$1:$H$485</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_099C57BE_893F_4950_B0B5_993A63932B30_.wvu.FilterData">StoryText1!$E$1:$E$105</definedName>
+    <definedName hidden="1" localSheetId="2" name="Z_099C57BE_893F_4950_B0B5_993A63932B30_.wvu.FilterData">StoryText2!$B$1:$H$485</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_585373CF_EA9A_467E_8C7B_FB81F14BC17D_.wvu.FilterData">StoryText1!$E$1:$E$105</definedName>
+    <definedName hidden="1" localSheetId="2" name="Z_28273F8B_3E17_4AC2_8273_8CD6B409C35F_.wvu.FilterData">StoryText2!$B$1:$H$485</definedName>
+    <definedName hidden="1" localSheetId="3" name="Z_28273F8B_3E17_4AC2_8273_8CD6B409C35F_.wvu.FilterData">StoryText3!$B$1:$H$532</definedName>
+    <definedName hidden="1" localSheetId="4" name="Z_28273F8B_3E17_4AC2_8273_8CD6B409C35F_.wvu.FilterData">Snippet1!$B$1:$H$35</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_1540C16D_1267_4B2C_8430_31D16AC78496_.wvu.FilterData">StoryText1!$B$1:$H$105</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3FA84059-40DC-436B-9978-74DA36EFD166}" name="Chapter 0 (Prologue)"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{DFF92B95-7C86-4DC7-A56A-2FBF6472CDEE}" name="Sorted by location"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0E145B76-2136-4C14-995B-EA4F767742F8}" name="Unidentified strings"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E5F0296A-86A4-471D-8455-1294AE72CAB4}" name="Chapter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{099C57BE-893F-4950-B0B5-993A63932B30}" name="Chapter 0 (Prologue)"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{28273F8B-3E17-4AC2-8273-8CD6B409C35F}" name="Sorted by location"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{585373CF-EA9A-467E-8C7B-FB81F14BC17D}" name="Unidentified strings"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{1540C16D-1267-4B2C-8430-31D16AC78496}" name="Chapter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -64,7 +64,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10555" uniqueCount="7797">
   <si>
-    <t>rev. 11</t>
+    <t>rev. 12</t>
   </si>
   <si>
     <t>Translation Status</t>
@@ -20188,7 +20188,7 @@
 よろしいですか？&lt;*4&gt;</t>
   </si>
   <si>
-    <t>Are you sure you want to throw it away?</t>
+    <t>Are you sure you want to throw it away? &lt;*4&gt;</t>
   </si>
   <si>
     <t>Tossing items confirmation</t>
@@ -28366,7 +28366,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28394,7 +28394,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28422,7 +28422,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28450,7 +28450,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image16.png"/>
+        <xdr:cNvPr id="0" name="image22.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28478,7 +28478,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png"/>
+        <xdr:cNvPr id="0" name="image5.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28506,7 +28506,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="0" name="image19.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28534,7 +28534,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image29.png"/>
+        <xdr:cNvPr id="0" name="image20.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28562,7 +28562,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png"/>
+        <xdr:cNvPr id="0" name="image9.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28590,7 +28590,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image20.png"/>
+        <xdr:cNvPr id="0" name="image13.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28618,7 +28618,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image22.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28646,7 +28646,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image17.png"/>
+        <xdr:cNvPr id="0" name="image23.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28674,7 +28674,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image21.png"/>
+        <xdr:cNvPr id="0" name="image17.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28730,7 +28730,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image15.png"/>
+        <xdr:cNvPr id="0" name="image12.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28758,7 +28758,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png"/>
+        <xdr:cNvPr id="0" name="image24.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28786,7 +28786,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png"/>
+        <xdr:cNvPr id="0" name="image14.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28814,7 +28814,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image23.png"/>
+        <xdr:cNvPr id="0" name="image21.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28842,7 +28842,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image27.png"/>
+        <xdr:cNvPr id="0" name="image25.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28870,7 +28870,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image26.png"/>
+        <xdr:cNvPr id="0" name="image11.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28898,7 +28898,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png"/>
+        <xdr:cNvPr id="0" name="image10.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28926,7 +28926,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png"/>
+        <xdr:cNvPr id="0" name="image7.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28954,7 +28954,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png"/>
+        <xdr:cNvPr id="0" name="image8.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28982,7 +28982,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png"/>
+        <xdr:cNvPr id="0" name="image6.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29010,7 +29010,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png"/>
+        <xdr:cNvPr id="0" name="image16.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29038,7 +29038,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image24.png"/>
+        <xdr:cNvPr id="0" name="image15.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29066,7 +29066,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png"/>
+        <xdr:cNvPr id="0" name="image26.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29094,7 +29094,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image25.png"/>
+        <xdr:cNvPr id="0" name="image31.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29122,7 +29122,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image19.png"/>
+        <xdr:cNvPr id="0" name="image29.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29150,7 +29150,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image28.png"/>
+        <xdr:cNvPr id="0" name="image33.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29178,7 +29178,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image30.png"/>
+        <xdr:cNvPr id="0" name="image28.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29206,7 +29206,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image49.png"/>
+        <xdr:cNvPr id="0" name="image38.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29234,7 +29234,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image40.png"/>
+        <xdr:cNvPr id="0" name="image30.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29262,7 +29262,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image37.png"/>
+        <xdr:cNvPr id="0" name="image45.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29290,7 +29290,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image34.png"/>
+        <xdr:cNvPr id="0" name="image35.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29318,7 +29318,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image32.png"/>
+        <xdr:cNvPr id="0" name="image36.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29346,7 +29346,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image31.png"/>
+        <xdr:cNvPr id="0" name="image32.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29374,7 +29374,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image42.png"/>
+        <xdr:cNvPr id="0" name="image27.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29402,7 +29402,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image33.png"/>
+        <xdr:cNvPr id="0" name="image51.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29430,7 +29430,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image53.png"/>
+        <xdr:cNvPr id="0" name="image41.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29486,7 +29486,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image38.png"/>
+        <xdr:cNvPr id="0" name="image46.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29514,7 +29514,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image35.png"/>
+        <xdr:cNvPr id="0" name="image39.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29542,7 +29542,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image41.png"/>
+        <xdr:cNvPr id="0" name="image48.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29570,7 +29570,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image45.png"/>
+        <xdr:cNvPr id="0" name="image40.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29598,7 +29598,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image36.png"/>
+        <xdr:cNvPr id="0" name="image37.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29626,7 +29626,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image46.png"/>
+        <xdr:cNvPr id="0" name="image34.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29654,7 +29654,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image52.png"/>
+        <xdr:cNvPr id="0" name="image49.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29682,7 +29682,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image48.png"/>
+        <xdr:cNvPr id="0" name="image47.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29710,7 +29710,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image39.png"/>
+        <xdr:cNvPr id="0" name="image42.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29738,7 +29738,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image47.png"/>
+        <xdr:cNvPr id="0" name="image43.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29766,7 +29766,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image43.png"/>
+        <xdr:cNvPr id="0" name="image50.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29794,7 +29794,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image51.png"/>
+        <xdr:cNvPr id="0" name="image94.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29822,7 +29822,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image50.png"/>
+        <xdr:cNvPr id="0" name="image53.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29850,7 +29850,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image56.png"/>
+        <xdr:cNvPr id="0" name="image55.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29878,7 +29878,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image54.png"/>
+        <xdr:cNvPr id="0" name="image58.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29906,7 +29906,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image60.png"/>
+        <xdr:cNvPr id="0" name="image63.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29934,7 +29934,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image55.png"/>
+        <xdr:cNvPr id="0" name="image65.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29962,7 +29962,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image65.png"/>
+        <xdr:cNvPr id="0" name="image57.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30018,7 +30018,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image63.png"/>
+        <xdr:cNvPr id="0" name="image69.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30046,7 +30046,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image70.png"/>
+        <xdr:cNvPr id="0" name="image52.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30074,7 +30074,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image68.png"/>
+        <xdr:cNvPr id="0" name="image56.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30102,7 +30102,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image72.png"/>
+        <xdr:cNvPr id="0" name="image71.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30130,7 +30130,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image62.png"/>
+        <xdr:cNvPr id="0" name="image68.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30158,7 +30158,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image67.png"/>
+        <xdr:cNvPr id="0" name="image54.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30186,7 +30186,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image57.png"/>
+        <xdr:cNvPr id="0" name="image66.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30214,7 +30214,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image58.png"/>
+        <xdr:cNvPr id="0" name="image79.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30242,7 +30242,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image61.png"/>
+        <xdr:cNvPr id="0" name="image64.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30270,7 +30270,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image64.png"/>
+        <xdr:cNvPr id="0" name="image61.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30298,7 +30298,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image69.png"/>
+        <xdr:cNvPr id="0" name="image62.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30326,7 +30326,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image71.png"/>
+        <xdr:cNvPr id="0" name="image60.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30354,7 +30354,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image76.png"/>
+        <xdr:cNvPr id="0" name="image70.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30410,7 +30410,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image66.png"/>
+        <xdr:cNvPr id="0" name="image72.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30438,7 +30438,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image74.png"/>
+        <xdr:cNvPr id="0" name="image67.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30466,7 +30466,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image81.png"/>
+        <xdr:cNvPr id="0" name="image75.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30494,7 +30494,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image78.png"/>
+        <xdr:cNvPr id="0" name="image80.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30522,7 +30522,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image79.png"/>
+        <xdr:cNvPr id="0" name="image74.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30550,7 +30550,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image75.png"/>
+        <xdr:cNvPr id="0" name="image77.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30578,7 +30578,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image77.png"/>
+        <xdr:cNvPr id="0" name="image92.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30606,7 +30606,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image82.png"/>
+        <xdr:cNvPr id="0" name="image76.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30634,7 +30634,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image96.png"/>
+        <xdr:cNvPr id="0" name="image85.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30662,7 +30662,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image80.png"/>
+        <xdr:cNvPr id="0" name="image89.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30690,7 +30690,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image88.png"/>
+        <xdr:cNvPr id="0" name="image81.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30718,7 +30718,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image83.png"/>
+        <xdr:cNvPr id="0" name="image84.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30746,7 +30746,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image90.png"/>
+        <xdr:cNvPr id="0" name="image83.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30774,7 +30774,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image92.png"/>
+        <xdr:cNvPr id="0" name="image86.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30802,7 +30802,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image87.png"/>
+        <xdr:cNvPr id="0" name="image78.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30830,7 +30830,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image91.png"/>
+        <xdr:cNvPr id="0" name="image88.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30858,7 +30858,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image94.png"/>
+        <xdr:cNvPr id="0" name="image82.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30886,7 +30886,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image93.png"/>
+        <xdr:cNvPr id="0" name="image98.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30914,7 +30914,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image89.png"/>
+        <xdr:cNvPr id="0" name="image93.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30942,7 +30942,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image84.png"/>
+        <xdr:cNvPr id="0" name="image87.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30970,7 +30970,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image95.png"/>
+        <xdr:cNvPr id="0" name="image91.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30998,7 +30998,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image86.png"/>
+        <xdr:cNvPr id="0" name="image96.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31026,7 +31026,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image85.png"/>
+        <xdr:cNvPr id="0" name="image103.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31054,7 +31054,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image98.png"/>
+        <xdr:cNvPr id="0" name="image107.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31082,7 +31082,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image99.png"/>
+        <xdr:cNvPr id="0" name="image97.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31110,7 +31110,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image108.png"/>
+        <xdr:cNvPr id="0" name="image100.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31138,7 +31138,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image104.png"/>
+        <xdr:cNvPr id="0" name="image90.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31166,7 +31166,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image100.png"/>
+        <xdr:cNvPr id="0" name="image105.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31194,7 +31194,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image97.png"/>
+        <xdr:cNvPr id="0" name="image95.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31222,7 +31222,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image101.png"/>
+        <xdr:cNvPr id="0" name="image110.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31250,7 +31250,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image102.png"/>
+        <xdr:cNvPr id="0" name="image104.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31278,7 +31278,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image114.png"/>
+        <xdr:cNvPr id="0" name="image108.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31306,7 +31306,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image107.png"/>
+        <xdr:cNvPr id="0" name="image101.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31334,7 +31334,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image103.png"/>
+        <xdr:cNvPr id="0" name="image99.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31390,7 +31390,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image109.png"/>
+        <xdr:cNvPr id="0" name="image111.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31418,7 +31418,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image110.png"/>
+        <xdr:cNvPr id="0" name="image112.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31446,7 +31446,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image112.png"/>
+        <xdr:cNvPr id="0" name="image109.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31474,7 +31474,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image111.png"/>
+        <xdr:cNvPr id="0" name="image102.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31502,7 +31502,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image105.png"/>
+        <xdr:cNvPr id="0" name="image114.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -36112,7 +36112,7 @@
       <c r="B131" s="22" t="s">
         <v>5377</v>
       </c>
-      <c r="C131" s="22" t="s">
+      <c r="C131" s="21" t="s">
         <v>5378</v>
       </c>
       <c r="D131" s="21" t="s">
@@ -36122,7 +36122,7 @@
       <c r="F131" s="21" t="str">
         <f t="shared" si="4"/>
         <v>Are you sure you want to
-throw it away? </v>
+throw it away?  </v>
       </c>
       <c r="G131" s="23"/>
     </row>
@@ -53939,14 +53939,14 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{0E145B76-2136-4C14-995B-EA4F767742F8}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{585373CF-EA9A-467E-8C7B-FB81F14BC17D}" filter="1" showAutoFilter="1">
       <autoFilter ref="$E$1:$E$105">
         <filterColumn colId="0">
           <filters blank="1"/>
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{3FA84059-40DC-436B-9978-74DA36EFD166}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{099C57BE-893F-4950-B0B5-993A63932B30}" filter="1" showAutoFilter="1">
       <autoFilter ref="$E$1:$E$105">
         <filterColumn colId="0">
           <customFilters>
@@ -53955,7 +53955,7 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{E5F0296A-86A4-471D-8455-1294AE72CAB4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{1540C16D-1267-4B2C-8430-31D16AC78496}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$1:$H$105">
         <filterColumn colId="3">
           <customFilters>
@@ -70097,7 +70097,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3FA84059-40DC-436B-9978-74DA36EFD166}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{099C57BE-893F-4950-B0B5-993A63932B30}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$1:$H$485">
         <filterColumn colId="3">
           <customFilters>
@@ -70106,7 +70106,7 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{DFF92B95-7C86-4DC7-A56A-2FBF6472CDEE}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{28273F8B-3E17-4AC2-8273-8CD6B409C35F}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$1:$H$485">
         <sortState ref="B1:H485">
           <sortCondition ref="E1:E485"/>
@@ -83007,7 +83007,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{DFF92B95-7C86-4DC7-A56A-2FBF6472CDEE}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{28273F8B-3E17-4AC2-8273-8CD6B409C35F}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$1:$H$532">
         <sortState ref="B1:H532">
           <sortCondition ref="E1:E532"/>
@@ -83904,7 +83904,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{DFF92B95-7C86-4DC7-A56A-2FBF6472CDEE}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{28273F8B-3E17-4AC2-8273-8CD6B409C35F}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$1:$H$35">
         <sortState ref="B1:H35">
           <sortCondition ref="E1:E35"/>

--- a/sheet.xlsx
+++ b/sheet.xlsx
@@ -28,20 +28,20 @@
     <sheet state="visible" name="Credits" sheetId="23" r:id="rId25"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="2" name="Z_8F4EFED8_5C6D_4FE5_9A87_0E0BEDC2408C_.wvu.FilterData">StoryText2!$B$1:$H$485</definedName>
-    <definedName hidden="1" localSheetId="3" name="Z_8F4EFED8_5C6D_4FE5_9A87_0E0BEDC2408C_.wvu.FilterData">StoryText3!$B$1:$H$532</definedName>
-    <definedName hidden="1" localSheetId="4" name="Z_8F4EFED8_5C6D_4FE5_9A87_0E0BEDC2408C_.wvu.FilterData">Snippet1!$B$1:$H$35</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_D023DA63_30A0_4607_A58A_20E6C468781E_.wvu.FilterData">StoryText1!$E$1:$E$105</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_5A3BA6FB_990B_41E1_8D9C_D681052C57BE_.wvu.FilterData">StoryText1!$E$1:$E$105</definedName>
-    <definedName hidden="1" localSheetId="2" name="Z_5A3BA6FB_990B_41E1_8D9C_D681052C57BE_.wvu.FilterData">StoryText2!$B$1:$H$485</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_6F3AA518_8828_4641_AA33_229AEBF9D49B_.wvu.FilterData">StoryText1!$B$1:$H$105</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_C303733D_C89D_44DD_A8FF_D92EBEA68217_.wvu.FilterData">StoryText1!$E$1:$E$105</definedName>
+    <definedName hidden="1" localSheetId="2" name="Z_C303733D_C89D_44DD_A8FF_D92EBEA68217_.wvu.FilterData">StoryText2!$B$1:$H$485</definedName>
+    <definedName hidden="1" localSheetId="2" name="Z_8965EAC8_BDD4_47FB_B5E5_FE9CD8CE2B54_.wvu.FilterData">StoryText2!$B$1:$H$485</definedName>
+    <definedName hidden="1" localSheetId="3" name="Z_8965EAC8_BDD4_47FB_B5E5_FE9CD8CE2B54_.wvu.FilterData">StoryText3!$B$1:$H$532</definedName>
+    <definedName hidden="1" localSheetId="4" name="Z_8965EAC8_BDD4_47FB_B5E5_FE9CD8CE2B54_.wvu.FilterData">Snippet1!$B$1:$H$35</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_BAA2026B_AF34_45E4_95A4_56139A306514_.wvu.FilterData">StoryText1!$E$1:$E$105</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_DD480565_081A_43E3_AC80_C3E2727E6934_.wvu.FilterData">StoryText1!$B$1:$H$105</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{5A3BA6FB-990B-41E1-8D9C-D681052C57BE}" name="Chapter 0 (Prologue)"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8F4EFED8-5C6D-4FE5-9A87-0E0BEDC2408C}" name="Sorted by location"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D023DA63-30A0-4607-A58A-20E6C468781E}" name="Unidentified strings"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{6F3AA518-8828-4641-AA33-229AEBF9D49B}" name="Chapter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C303733D-C89D-44DD-A8FF-D92EBEA68217}" name="Chapter 0 (Prologue)"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8965EAC8-BDD4-47FB-B5E5-FE9CD8CE2B54}" name="Sorted by location"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{BAA2026B-AF34-45E4-95A4-56139A306514}" name="Unidentified strings"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{DD480565-081A-43E3-AC80-C3E2727E6934}" name="Chapter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -28533,7 +28533,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image16.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28561,7 +28561,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png"/>
+        <xdr:cNvPr id="0" name="image48.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28589,7 +28589,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28617,7 +28617,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image21.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28645,7 +28645,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image16.png"/>
+        <xdr:cNvPr id="0" name="image18.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28673,7 +28673,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image25.png"/>
+        <xdr:cNvPr id="0" name="image6.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28701,7 +28701,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image17.png"/>
+        <xdr:cNvPr id="0" name="image9.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28729,7 +28729,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png"/>
+        <xdr:cNvPr id="0" name="image10.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28757,7 +28757,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png"/>
+        <xdr:cNvPr id="0" name="image23.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28785,7 +28785,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image24.png"/>
+        <xdr:cNvPr id="0" name="image21.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28813,7 +28813,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image19.png"/>
+        <xdr:cNvPr id="0" name="image22.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28841,7 +28841,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image15.png"/>
+        <xdr:cNvPr id="0" name="image20.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28869,7 +28869,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png"/>
+        <xdr:cNvPr id="0" name="image7.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28897,7 +28897,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28925,7 +28925,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png"/>
+        <xdr:cNvPr id="0" name="image14.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28953,7 +28953,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image23.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28981,7 +28981,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image5.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29009,7 +29009,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png"/>
+        <xdr:cNvPr id="0" name="image25.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29037,7 +29037,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="0" name="image19.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29065,7 +29065,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image22.png"/>
+        <xdr:cNvPr id="0" name="image15.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29093,7 +29093,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png"/>
+        <xdr:cNvPr id="0" name="image17.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29121,7 +29121,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png"/>
+        <xdr:cNvPr id="0" name="image13.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29149,7 +29149,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image18.png"/>
+        <xdr:cNvPr id="0" name="image12.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29177,7 +29177,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image20.png"/>
+        <xdr:cNvPr id="0" name="image8.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29205,7 +29205,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png"/>
+        <xdr:cNvPr id="0" name="image11.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29233,7 +29233,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image28.png"/>
+        <xdr:cNvPr id="0" name="image24.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29261,7 +29261,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image26.png"/>
+        <xdr:cNvPr id="0" name="image33.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29289,7 +29289,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image27.png"/>
+        <xdr:cNvPr id="0" name="image31.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29317,7 +29317,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image29.png"/>
+        <xdr:cNvPr id="0" name="image27.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29373,7 +29373,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image31.png"/>
+        <xdr:cNvPr id="0" name="image29.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29401,7 +29401,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image33.png"/>
+        <xdr:cNvPr id="0" name="image28.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29429,7 +29429,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image34.png"/>
+        <xdr:cNvPr id="0" name="image47.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29457,7 +29457,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image49.png"/>
+        <xdr:cNvPr id="0" name="image36.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29485,7 +29485,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image37.png"/>
+        <xdr:cNvPr id="0" name="image26.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29513,7 +29513,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image35.png"/>
+        <xdr:cNvPr id="0" name="image30.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29541,7 +29541,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image46.png"/>
+        <xdr:cNvPr id="0" name="image35.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29569,7 +29569,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image36.png"/>
+        <xdr:cNvPr id="0" name="image45.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29597,7 +29597,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image40.png"/>
+        <xdr:cNvPr id="0" name="image53.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29625,7 +29625,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image38.png"/>
+        <xdr:cNvPr id="0" name="image41.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29653,7 +29653,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image43.png"/>
+        <xdr:cNvPr id="0" name="image40.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29681,7 +29681,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image30.png"/>
+        <xdr:cNvPr id="0" name="image34.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29709,7 +29709,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image41.png"/>
+        <xdr:cNvPr id="0" name="image42.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29737,7 +29737,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image47.png"/>
+        <xdr:cNvPr id="0" name="image55.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29765,7 +29765,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image39.png"/>
+        <xdr:cNvPr id="0" name="image37.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29793,7 +29793,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image42.png"/>
+        <xdr:cNvPr id="0" name="image39.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29821,7 +29821,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image44.png"/>
+        <xdr:cNvPr id="0" name="image38.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29849,7 +29849,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image48.png"/>
+        <xdr:cNvPr id="0" name="image43.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29877,7 +29877,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image45.png"/>
+        <xdr:cNvPr id="0" name="image44.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29905,7 +29905,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image53.png"/>
+        <xdr:cNvPr id="0" name="image46.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29933,7 +29933,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image50.png"/>
+        <xdr:cNvPr id="0" name="image49.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29961,7 +29961,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image56.png"/>
+        <xdr:cNvPr id="0" name="image59.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29989,7 +29989,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image52.png"/>
+        <xdr:cNvPr id="0" name="image50.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30017,7 +30017,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image60.png"/>
+        <xdr:cNvPr id="0" name="image65.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30045,7 +30045,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image55.png"/>
+        <xdr:cNvPr id="0" name="image51.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30073,7 +30073,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image57.png"/>
+        <xdr:cNvPr id="0" name="image56.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30101,7 +30101,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image54.png"/>
+        <xdr:cNvPr id="0" name="image58.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30129,7 +30129,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image51.png"/>
+        <xdr:cNvPr id="0" name="image54.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30157,7 +30157,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image58.png"/>
+        <xdr:cNvPr id="0" name="image57.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30185,7 +30185,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image59.png"/>
+        <xdr:cNvPr id="0" name="image52.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30213,7 +30213,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image61.png"/>
+        <xdr:cNvPr id="0" name="image60.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30241,7 +30241,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image65.png"/>
+        <xdr:cNvPr id="0" name="image62.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30269,7 +30269,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image68.png"/>
+        <xdr:cNvPr id="0" name="image61.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30297,7 +30297,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image69.png"/>
+        <xdr:cNvPr id="0" name="image63.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30325,7 +30325,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image62.png"/>
+        <xdr:cNvPr id="0" name="image85.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30353,7 +30353,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image87.png"/>
+        <xdr:cNvPr id="0" name="image70.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30381,7 +30381,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image63.png"/>
+        <xdr:cNvPr id="0" name="image64.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30409,7 +30409,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image73.png"/>
+        <xdr:cNvPr id="0" name="image67.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30437,7 +30437,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image67.png"/>
+        <xdr:cNvPr id="0" name="image66.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30465,7 +30465,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image64.png"/>
+        <xdr:cNvPr id="0" name="image72.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30493,7 +30493,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image66.png"/>
+        <xdr:cNvPr id="0" name="image71.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30521,7 +30521,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image70.png"/>
+        <xdr:cNvPr id="0" name="image69.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30549,7 +30549,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image81.png"/>
+        <xdr:cNvPr id="0" name="image84.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30577,7 +30577,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image84.png"/>
+        <xdr:cNvPr id="0" name="image73.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30605,7 +30605,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image71.png"/>
+        <xdr:cNvPr id="0" name="image68.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30633,7 +30633,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image79.png"/>
+        <xdr:cNvPr id="0" name="image94.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30661,7 +30661,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image88.png"/>
+        <xdr:cNvPr id="0" name="image76.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30689,7 +30689,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image72.png"/>
+        <xdr:cNvPr id="0" name="image74.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30717,7 +30717,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image82.png"/>
+        <xdr:cNvPr id="0" name="image83.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30745,7 +30745,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image92.png"/>
+        <xdr:cNvPr id="0" name="image79.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30773,7 +30773,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image80.png"/>
+        <xdr:cNvPr id="0" name="image88.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30801,7 +30801,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image89.png"/>
+        <xdr:cNvPr id="0" name="image75.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30829,7 +30829,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image93.png"/>
+        <xdr:cNvPr id="0" name="image78.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30857,7 +30857,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image78.png"/>
+        <xdr:cNvPr id="0" name="image77.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30885,7 +30885,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image94.png"/>
+        <xdr:cNvPr id="0" name="image80.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30913,7 +30913,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image74.png"/>
+        <xdr:cNvPr id="0" name="image91.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30941,7 +30941,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image97.png"/>
+        <xdr:cNvPr id="0" name="image82.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30969,7 +30969,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image77.png"/>
+        <xdr:cNvPr id="0" name="image81.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30997,7 +30997,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image85.png"/>
+        <xdr:cNvPr id="0" name="image96.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31025,7 +31025,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image83.png"/>
+        <xdr:cNvPr id="0" name="image89.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31053,7 +31053,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image76.png"/>
+        <xdr:cNvPr id="0" name="image87.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31109,7 +31109,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image75.png"/>
+        <xdr:cNvPr id="0" name="image90.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31137,7 +31137,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image98.png"/>
+        <xdr:cNvPr id="0" name="image102.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31165,7 +31165,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image96.png"/>
+        <xdr:cNvPr id="0" name="image105.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31193,7 +31193,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image91.png"/>
+        <xdr:cNvPr id="0" name="image93.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31221,7 +31221,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image95.png"/>
+        <xdr:cNvPr id="0" name="image92.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31249,7 +31249,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image90.png"/>
+        <xdr:cNvPr id="0" name="image100.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31277,7 +31277,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image102.png"/>
+        <xdr:cNvPr id="0" name="image101.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31305,7 +31305,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image112.png"/>
+        <xdr:cNvPr id="0" name="image95.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31333,7 +31333,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image109.png"/>
+        <xdr:cNvPr id="0" name="image97.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31389,7 +31389,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image110.png"/>
+        <xdr:cNvPr id="0" name="image104.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31417,7 +31417,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image100.png"/>
+        <xdr:cNvPr id="0" name="image99.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31445,7 +31445,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image103.png"/>
+        <xdr:cNvPr id="0" name="image106.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31473,7 +31473,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image107.png"/>
+        <xdr:cNvPr id="0" name="image98.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31501,7 +31501,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image106.png"/>
+        <xdr:cNvPr id="0" name="image103.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31529,7 +31529,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image105.png"/>
+        <xdr:cNvPr id="0" name="image112.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31557,7 +31557,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image101.png"/>
+        <xdr:cNvPr id="0" name="image114.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31585,7 +31585,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image104.png"/>
+        <xdr:cNvPr id="0" name="image107.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31613,7 +31613,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image113.png"/>
+        <xdr:cNvPr id="0" name="image110.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31669,7 +31669,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image99.png"/>
+        <xdr:cNvPr id="0" name="image109.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31697,7 +31697,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image114.png"/>
+        <xdr:cNvPr id="0" name="image113.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -33654,7 +33654,8 @@
       <c r="E4" s="23"/>
       <c r="F4" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Inflicted ◆Stop ◇status! 
+Unable to move! </v>
       </c>
       <c r="G4" s="21" t="s">
         <v>87</v>
@@ -33750,7 +33751,8 @@
       <c r="E9" s="23"/>
       <c r="F9" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>────────'s ◆Bind◇ wore
+off! </v>
       </c>
       <c r="G9" s="23"/>
     </row>
@@ -33786,7 +33788,8 @@
       <c r="E11" s="23"/>
       <c r="F11" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>There are no status effects
+to clear! </v>
       </c>
       <c r="G11" s="23"/>
     </row>
@@ -33842,7 +33845,8 @@
       <c r="E14" s="23"/>
       <c r="F14" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>──────── cleared all
+◆Stop ◇status! </v>
       </c>
       <c r="G14" s="23"/>
     </row>
@@ -33898,7 +33902,8 @@
       <c r="E17" s="23"/>
       <c r="F17" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>...But it took damage from the
+blast! </v>
       </c>
       <c r="G17" s="23"/>
     </row>
@@ -33946,7 +33951,7 @@
       <c r="E20" s="27"/>
       <c r="F20" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>Loading...</v>
+        <v>=0x7401e</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>92</v>
@@ -34108,7 +34113,7 @@
       <c r="E28" s="23"/>
       <c r="F28" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>Loading...</v>
+        <v>Medal Museum </v>
       </c>
       <c r="G28" s="23"/>
     </row>
@@ -34148,7 +34153,7 @@
       <c r="E30" s="23"/>
       <c r="F30" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>Loading...</v>
+        <v>Lottery Shop </v>
       </c>
       <c r="G30" s="23"/>
     </row>
@@ -34228,7 +34233,7 @@
       <c r="E34" s="23"/>
       <c r="F34" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>Loading...</v>
+        <v>Medarot Company </v>
       </c>
       <c r="G34" s="23"/>
     </row>
@@ -34248,7 +34253,7 @@
       <c r="E35" s="23"/>
       <c r="F35" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>Loading...</v>
+        <v>Yuuki's House </v>
       </c>
       <c r="G35" s="23"/>
     </row>
@@ -34328,7 +34333,7 @@
       <c r="E39" s="23"/>
       <c r="F39" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>Loading...</v>
+        <v>Iseki's House </v>
       </c>
       <c r="G39" s="23"/>
     </row>
@@ -34368,7 +34373,7 @@
       <c r="E41" s="23"/>
       <c r="F41" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>Loading...</v>
+        <v>Yanma's House </v>
       </c>
       <c r="G41" s="23"/>
     </row>
@@ -34388,7 +34393,7 @@
       <c r="E42" s="23"/>
       <c r="F42" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>Loading...</v>
+        <v>Antiques </v>
       </c>
       <c r="G42" s="23"/>
     </row>
@@ -34448,7 +34453,7 @@
       <c r="E45" s="23"/>
       <c r="F45" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>Loading...</v>
+        <v>Mayor's House </v>
       </c>
       <c r="G45" s="23"/>
     </row>
@@ -34508,7 +34513,8 @@
       <c r="E48" s="23"/>
       <c r="F48" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>Loading...</v>
+        <v>It's a bug I've never seen
+before. </v>
       </c>
       <c r="G48" s="23"/>
     </row>
@@ -34528,7 +34534,8 @@
       <c r="E49" s="23"/>
       <c r="F49" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>Loading...</v>
+        <v>The newest parts are on
+display. </v>
       </c>
       <c r="G49" s="21"/>
     </row>
@@ -34548,7 +34555,7 @@
       <c r="E50" s="23"/>
       <c r="F50" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>Loading...</v>
+        <v>W-Whoa! This Medal is amazing! </v>
       </c>
       <c r="G50" s="21"/>
     </row>
@@ -34608,7 +34615,9 @@
       <c r="E53" s="23"/>
       <c r="F53" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>Loading...</v>
+        <v>It's a vending machine for
+parts! 
+...But everything's sold out. </v>
       </c>
       <c r="G53" s="23"/>
     </row>
@@ -34628,7 +34637,8 @@
       <c r="E54" s="23"/>
       <c r="F54" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>Loading...</v>
+        <v>◆Please do not feed the
+Medarots◇ </v>
       </c>
       <c r="G54" s="21" t="s">
         <v>89</v>
@@ -34698,7 +34708,7 @@
       <c r="E58" s="27"/>
       <c r="F58" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>Loading...</v>
+        <v>=0x74068</v>
       </c>
       <c r="G58" s="24" t="s">
         <v>92</v>
@@ -34896,7 +34906,7 @@
       <c r="E67" s="27"/>
       <c r="F67" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>Loading...</v>
+        <v>=0x74068</v>
       </c>
       <c r="G67" s="24" t="s">
         <v>92</v>
@@ -34962,7 +34972,7 @@
       <c r="E70" s="27"/>
       <c r="F70" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>Loading...</v>
+        <v>=0x74068</v>
       </c>
       <c r="G70" s="24" t="s">
         <v>92</v>
@@ -34984,7 +34994,7 @@
       <c r="E71" s="27"/>
       <c r="F71" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>Loading...</v>
+        <v>=0x74068</v>
       </c>
       <c r="G71" s="24" t="s">
         <v>92</v>
@@ -35006,7 +35016,7 @@
       <c r="E72" s="27"/>
       <c r="F72" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>Loading...</v>
+        <v>=0x74068</v>
       </c>
       <c r="G72" s="24" t="s">
         <v>92</v>
@@ -35116,7 +35126,7 @@
       <c r="E77" s="27"/>
       <c r="F77" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>Loading...</v>
+        <v>=0x74068</v>
       </c>
       <c r="G77" s="24" t="s">
         <v>92</v>
@@ -35226,7 +35236,7 @@
       <c r="E82" s="27"/>
       <c r="F82" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>Loading...</v>
+        <v>=0x74068</v>
       </c>
       <c r="G82" s="24" t="s">
         <v>92</v>
@@ -35248,7 +35258,7 @@
       <c r="E83" s="27"/>
       <c r="F83" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>Loading...</v>
+        <v>=0x74068</v>
       </c>
       <c r="G83" s="24" t="s">
         <v>92</v>
@@ -35270,7 +35280,7 @@
       <c r="E84" s="27"/>
       <c r="F84" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>Loading...</v>
+        <v>=0x74068</v>
       </c>
       <c r="G84" s="24" t="s">
         <v>92</v>
@@ -35348,7 +35358,9 @@
       <c r="E88" s="23"/>
       <c r="F88" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>Loading...</v>
+        <v>Shoot skill increased by
+────────! 
+ </v>
       </c>
       <c r="G88" s="23"/>
     </row>
@@ -35384,7 +35396,9 @@
       <c r="E90" s="23"/>
       <c r="F90" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>Loading...</v>
+        <v>Support skill increased by
+────────! 
+ </v>
       </c>
       <c r="G90" s="23"/>
     </row>
@@ -35508,7 +35522,7 @@
       <c r="E97" s="27"/>
       <c r="F97" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>Loading...</v>
+        <v>=0x740b4</v>
       </c>
       <c r="G97" s="24" t="s">
         <v>92</v>
@@ -35530,7 +35544,7 @@
       <c r="E98" s="27"/>
       <c r="F98" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>Loading...</v>
+        <v>=0x740b4</v>
       </c>
       <c r="G98" s="24" t="s">
         <v>92</v>
@@ -35574,7 +35588,7 @@
       <c r="E100" s="27"/>
       <c r="F100" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>Loading...</v>
+        <v>=0x740b4</v>
       </c>
       <c r="G100" s="24" t="s">
         <v>92</v>
@@ -35596,7 +35610,7 @@
       <c r="E101" s="27"/>
       <c r="F101" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>Loading...</v>
+        <v>=0x740b4</v>
       </c>
       <c r="G101" s="24" t="s">
         <v>92</v>
@@ -35640,7 +35654,7 @@
       <c r="E103" s="27"/>
       <c r="F103" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>Loading...</v>
+        <v>=0x740b4</v>
       </c>
       <c r="G103" s="24" t="s">
         <v>92</v>
@@ -35750,7 +35764,7 @@
       <c r="E108" s="27"/>
       <c r="F108" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>Loading...</v>
+        <v>=0x740b4</v>
       </c>
       <c r="G108" s="24" t="s">
         <v>92</v>
@@ -35794,7 +35808,7 @@
       <c r="E110" s="27"/>
       <c r="F110" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>Loading...</v>
+        <v>=0x740b4</v>
       </c>
       <c r="G110" s="24" t="s">
         <v>92</v>
@@ -35816,7 +35830,7 @@
       <c r="E111" s="27"/>
       <c r="F111" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>Loading...</v>
+        <v>=0x740b4</v>
       </c>
       <c r="G111" s="24" t="s">
         <v>92</v>
@@ -35948,7 +35962,7 @@
       <c r="E117" s="27"/>
       <c r="F117" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>Loading...</v>
+        <v>=0x740b4</v>
       </c>
       <c r="G117" s="24" t="s">
         <v>92</v>
@@ -35992,7 +36006,7 @@
       <c r="E119" s="27"/>
       <c r="F119" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>Loading...</v>
+        <v>=0x740b4</v>
       </c>
       <c r="G119" s="24" t="s">
         <v>92</v>
@@ -36036,7 +36050,7 @@
       <c r="E121" s="27"/>
       <c r="F121" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>Loading...</v>
+        <v>=0x740b4</v>
       </c>
       <c r="G121" s="24" t="s">
         <v>92</v>
@@ -36168,7 +36182,7 @@
       <c r="E127" s="23"/>
       <c r="F127" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>Loading...</v>
+        <v>The link Robottle will now begin! </v>
       </c>
       <c r="G127" s="23"/>
     </row>
@@ -36188,7 +36202,7 @@
       <c r="E128" s="23"/>
       <c r="F128" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>Loading...</v>
+        <v>You can't use that!! </v>
       </c>
       <c r="G128" s="23"/>
     </row>
@@ -36248,7 +36262,8 @@
       <c r="E131" s="23"/>
       <c r="F131" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>Loading...</v>
+        <v>Are you sure you want to
+throw it away? </v>
       </c>
       <c r="G131" s="23"/>
     </row>
@@ -36356,7 +36371,8 @@
       </c>
       <c r="F137" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>Loading...</v>
+        <v>────────'s Strike
+attack! ────────! </v>
       </c>
       <c r="G137" s="23"/>
     </row>
@@ -36376,7 +36392,8 @@
       </c>
       <c r="F138" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>Loading...</v>
+        <v>────────'s Berserk
+attack! ────────! </v>
       </c>
       <c r="G138" s="23"/>
     </row>
@@ -36522,7 +36539,8 @@
       <c r="E146" s="23"/>
       <c r="F146" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>Loading...</v>
+        <v>────────'s legs were
+destroyed. </v>
       </c>
       <c r="G146" s="23"/>
     </row>
@@ -36560,7 +36578,8 @@
       <c r="E148" s="23"/>
       <c r="F148" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>Loading...</v>
+        <v>──────── dodged the
+attack! </v>
       </c>
       <c r="G148" s="23"/>
     </row>
@@ -36618,7 +36637,8 @@
       <c r="E151" s="23"/>
       <c r="F151" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>Loading...</v>
+        <v>──────── used a support
+action! </v>
       </c>
       <c r="G151" s="21" t="s">
         <v>87</v>
@@ -36682,7 +36702,8 @@
       </c>
       <c r="F154" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>Loading...</v>
+        <v>Cooldown succeeded. 
+ </v>
       </c>
       <c r="G154" s="23"/>
     </row>
@@ -36702,7 +36723,8 @@
       </c>
       <c r="F155" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>Loading...</v>
+        <v>Cooldown failed. 
+ </v>
       </c>
       <c r="G155" s="23"/>
     </row>
@@ -36742,7 +36764,8 @@
       <c r="E157" s="23"/>
       <c r="F157" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>Loading...</v>
+        <v>Defeated the enemy leader! 
+ </v>
       </c>
       <c r="G157" s="23"/>
     </row>
@@ -36782,7 +36805,8 @@
       <c r="E159" s="23"/>
       <c r="F159" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>Loading...</v>
+        <v>The guard Medarot took the
+hit! </v>
       </c>
       <c r="G159" s="21" t="s">
         <v>87</v>
@@ -36824,7 +36848,7 @@
       <c r="E161" s="23"/>
       <c r="F161" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>Loading...</v>
+        <v>──────── shut down! </v>
       </c>
       <c r="G161" s="23"/>
     </row>
@@ -36844,7 +36868,8 @@
       </c>
       <c r="F162" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>Loading...</v>
+        <v>────────'s defense was
+successful! </v>
       </c>
       <c r="G162" s="23"/>
     </row>
@@ -36884,7 +36909,8 @@
       <c r="E164" s="23"/>
       <c r="F164" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>Loading...</v>
+        <v>The target has already shut
+down! </v>
       </c>
       <c r="G164" s="23"/>
     </row>
@@ -36904,7 +36930,8 @@
       <c r="E165" s="23"/>
       <c r="F165" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>Loading...</v>
+        <v>The targeted part is already
+broken! </v>
       </c>
       <c r="G165" s="23"/>
     </row>
@@ -36944,7 +36971,8 @@
       <c r="E167" s="23"/>
       <c r="F167" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>Loading...</v>
+        <v>────────'s trap failed to
+set! </v>
       </c>
       <c r="G167" s="23"/>
     </row>
@@ -36964,7 +36992,7 @@
       <c r="E168" s="23"/>
       <c r="F168" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>Loading...</v>
+        <v>────────'s trap was set! </v>
       </c>
       <c r="G168" s="23"/>
     </row>
@@ -37024,7 +37052,7 @@
       <c r="E171" s="23"/>
       <c r="F171" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>Loading...</v>
+        <v>The trap was cleared! </v>
       </c>
       <c r="G171" s="21" t="s">
         <v>87</v>
@@ -37062,7 +37090,7 @@
       <c r="E173" s="23"/>
       <c r="F173" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>Loading...</v>
+        <v>────────'s clear failed! </v>
       </c>
       <c r="G173" s="23"/>
     </row>
@@ -37100,7 +37128,8 @@
       <c r="E175" s="23"/>
       <c r="F175" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>Loading...</v>
+        <v>──────── cleared the
+barrier! </v>
       </c>
       <c r="G175" s="23"/>
     </row>
@@ -37140,7 +37169,7 @@
       </c>
       <c r="F177" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>Loading...</v>
+        <v>────────'s clear failed! </v>
       </c>
       <c r="G177" s="23"/>
     </row>
@@ -37272,7 +37301,8 @@
       <c r="E184" s="23"/>
       <c r="F184" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>Loading...</v>
+        <v>────────'s left arm was
+repaired! </v>
       </c>
       <c r="G184" s="23"/>
     </row>
@@ -37308,7 +37338,8 @@
       <c r="E186" s="23"/>
       <c r="F186" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>Loading...</v>
+        <v>──────── scanned the
+area! </v>
       </c>
       <c r="G186" s="23"/>
     </row>
@@ -37368,7 +37399,7 @@
       <c r="E189" s="23"/>
       <c r="F189" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>Loading...</v>
+        <v>But it remained visible! </v>
       </c>
       <c r="G189" s="23"/>
     </row>
@@ -37386,7 +37417,7 @@
       <c r="E190" s="23"/>
       <c r="F190" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>Loading...</v>
+        <v>Evasion increased! </v>
       </c>
       <c r="G190" s="23"/>
     </row>
@@ -37424,7 +37455,7 @@
       <c r="E192" s="23"/>
       <c r="F192" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>Loading...</v>
+        <v>There was no effect! </v>
       </c>
       <c r="G192" s="23"/>
     </row>
@@ -37618,7 +37649,7 @@
       <c r="E203" s="23"/>
       <c r="F203" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Loading...</v>
+        <v>I shall be your opponent! </v>
       </c>
       <c r="G203" s="23"/>
     </row>
@@ -37698,7 +37729,7 @@
       <c r="E207" s="23"/>
       <c r="F207" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Loading...</v>
+        <v>Will you Borottle with me? </v>
       </c>
       <c r="G207" s="21" t="s">
         <v>87</v>
@@ -37740,7 +37771,7 @@
       <c r="E209" s="23"/>
       <c r="F209" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Loading...</v>
+        <v>Like, let's Robottle, y'know? </v>
       </c>
       <c r="G209" s="23"/>
     </row>
@@ -37780,7 +37811,7 @@
       <c r="E211" s="23"/>
       <c r="F211" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Loading...</v>
+        <v>Bring it on, youngster! </v>
       </c>
       <c r="G211" s="23"/>
     </row>
@@ -37800,7 +37831,8 @@
       <c r="E212" s="23"/>
       <c r="F212" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Loading...</v>
+        <v>Mind if I take a photo of our
+Robottle? </v>
       </c>
       <c r="G212" s="23"/>
     </row>
@@ -37860,7 +37892,7 @@
       <c r="E215" s="23"/>
       <c r="F215" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Loading...</v>
+        <v>You'll be caught in my net! </v>
       </c>
       <c r="G215" s="21" t="s">
         <v>87</v>
@@ -37922,7 +37954,7 @@
       <c r="E218" s="23"/>
       <c r="F218" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Loading...</v>
+        <v>A stray Medarot appeared! </v>
       </c>
       <c r="G218" s="23"/>
     </row>
@@ -37964,7 +37996,7 @@
       <c r="E220" s="23"/>
       <c r="F220" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Loading...</v>
+        <v>Let's go! </v>
       </c>
       <c r="G220" s="23"/>
     </row>
@@ -38046,7 +38078,7 @@
       <c r="E224" s="23"/>
       <c r="F224" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Loading...</v>
+        <v>You're a real pain in the neck! </v>
       </c>
       <c r="G224" s="23"/>
     </row>
@@ -38088,7 +38120,7 @@
       <c r="E226" s="23"/>
       <c r="F226" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Loading...</v>
+        <v>I'll beat you to a pulp! </v>
       </c>
       <c r="G226" s="23"/>
     </row>
@@ -38130,7 +38162,7 @@
       <c r="E228" s="23"/>
       <c r="F228" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Loading...</v>
+        <v>Hrm...come at me. </v>
       </c>
       <c r="G228" s="21" t="s">
         <v>87</v>
@@ -38174,7 +38206,8 @@
       <c r="E230" s="23"/>
       <c r="F230" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Loading...</v>
+        <v>You're 53 years too early to
+face me! </v>
       </c>
       <c r="G230" s="21" t="s">
         <v>87</v>
@@ -38216,7 +38249,8 @@
       <c r="E232" s="23"/>
       <c r="F232" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Loading...</v>
+        <v>The RoboRobo Gang will rule
+the world. </v>
       </c>
       <c r="G232" s="21" t="s">
         <v>87</v>
@@ -38260,7 +38294,8 @@
       <c r="E234" s="23"/>
       <c r="F234" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Loading...</v>
+        <v>Those who get in our way will
+be dealt with. </v>
       </c>
       <c r="G234" s="21" t="s">
         <v>87</v>
@@ -38304,7 +38339,7 @@
       <c r="E236" s="23"/>
       <c r="F236" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Loading...</v>
+        <v>Come on now, don't hold back! </v>
       </c>
       <c r="G236" s="21"/>
     </row>
@@ -38324,7 +38359,8 @@
       <c r="E237" s="23"/>
       <c r="F237" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Loading...</v>
+        <v>Time to see how my grandson is
+coming along. </v>
       </c>
       <c r="G237" s="21"/>
     </row>
@@ -38536,7 +38572,8 @@
       <c r="E247" s="23"/>
       <c r="F247" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Loading...</v>
+        <v>I defeat you. I become
+champion. </v>
       </c>
       <c r="G247" s="21"/>
     </row>
@@ -38578,7 +38615,8 @@
       <c r="E249" s="23"/>
       <c r="F249" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Loading...</v>
+        <v>A-AwooOOooo! Medals... look
+like... the moon! </v>
       </c>
       <c r="G249" s="21" t="s">
         <v>87</v>
@@ -38648,7 +38686,7 @@
       </c>
       <c r="F252" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Loading...</v>
+        <v>▰DES... TROY... ▱ </v>
       </c>
       <c r="G252" s="21" t="s">
         <v>89</v>
@@ -38668,7 +38706,7 @@
       <c r="E253" s="27"/>
       <c r="F253" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Loading...</v>
+        <v> </v>
       </c>
       <c r="G253" s="21" t="s">
         <v>92</v>
@@ -38748,7 +38786,7 @@
       <c r="E257" s="27"/>
       <c r="F257" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Loading...</v>
+        <v> </v>
       </c>
       <c r="G257" s="21" t="s">
         <v>92</v>
@@ -38848,7 +38886,7 @@
       <c r="E262" s="27"/>
       <c r="F262" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Loading...</v>
+        <v> </v>
       </c>
       <c r="G262" s="21" t="s">
         <v>92</v>
@@ -38868,7 +38906,7 @@
       <c r="E263" s="27"/>
       <c r="F263" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Loading...</v>
+        <v> </v>
       </c>
       <c r="G263" s="21" t="s">
         <v>92</v>
@@ -38888,7 +38926,7 @@
       <c r="E264" s="27"/>
       <c r="F264" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Loading...</v>
+        <v> </v>
       </c>
       <c r="G264" s="21" t="s">
         <v>92</v>
@@ -39262,7 +39300,7 @@
       <c r="E283" s="23"/>
       <c r="F283" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>Loading...</v>
+        <v>The stray Medarot fled! </v>
       </c>
       <c r="G283" s="23"/>
     </row>
@@ -39304,7 +39342,8 @@
       <c r="E285" s="23"/>
       <c r="F285" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>Loading...</v>
+        <v>I knew you'd do well,
+────────. </v>
       </c>
       <c r="G285" s="21" t="s">
         <v>87</v>
@@ -39326,7 +39365,8 @@
       <c r="E286" s="23"/>
       <c r="F286" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>Loading...</v>
+        <v>You're stronger than I
+expected ♥! </v>
       </c>
       <c r="G286" s="21" t="s">
         <v>87</v>
@@ -39370,7 +39410,7 @@
       <c r="E288" s="23"/>
       <c r="F288" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>Loading...</v>
+        <v>Ah I lost-! </v>
       </c>
       <c r="G288" s="21" t="s">
         <v>87</v>
@@ -39392,7 +39432,7 @@
       <c r="E289" s="23"/>
       <c r="F289" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>Loading...</v>
+        <v>How could I lose? </v>
       </c>
       <c r="G289" s="21" t="s">
         <v>84</v>
@@ -39414,7 +39454,7 @@
       <c r="E290" s="23"/>
       <c r="F290" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>Loading...</v>
+        <v>...... </v>
       </c>
       <c r="G290" s="21" t="s">
         <v>89</v>
@@ -39522,7 +39562,7 @@
       <c r="E295" s="23"/>
       <c r="F295" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>Loading...</v>
+        <v>Nurgh...it can't end like this! </v>
       </c>
       <c r="G295" s="21" t="s">
         <v>87</v>
@@ -39544,7 +39584,7 @@
       <c r="E296" s="23"/>
       <c r="F296" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>Loading...</v>
+        <v>Uuurgh this is bad! </v>
       </c>
       <c r="G296" s="21" t="s">
         <v>87</v>
@@ -39654,7 +39694,8 @@
       <c r="E301" s="23"/>
       <c r="F301" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>Loading...</v>
+        <v>You've gotten very good! I'm
+proud of you! </v>
       </c>
       <c r="G301" s="21" t="s">
         <v>87</v>
@@ -39720,7 +39761,8 @@
       <c r="E304" s="23"/>
       <c r="F304" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>Loading...</v>
+        <v>Times really have changed,
+haven't they? </v>
       </c>
       <c r="G304" s="21" t="s">
         <v>87</v>
@@ -39742,7 +39784,7 @@
       <c r="E305" s="23"/>
       <c r="F305" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>Loading...</v>
+        <v>That was an interesting fight. </v>
       </c>
       <c r="G305" s="21" t="s">
         <v>87</v>
@@ -39808,7 +39850,7 @@
       <c r="E308" s="23"/>
       <c r="F308" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>Loading...</v>
+        <v>That's it! Looking good! </v>
       </c>
       <c r="G308" s="21" t="s">
         <v>87</v>
@@ -39874,7 +39916,7 @@
       <c r="E311" s="23"/>
       <c r="F311" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>Loading...</v>
+        <v>I lost to you~? </v>
       </c>
       <c r="G311" s="21" t="s">
         <v>87</v>
@@ -39938,7 +39980,7 @@
       <c r="E314" s="23"/>
       <c r="F314" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>Loading...</v>
+        <v>Hah... Hah... I lost! </v>
       </c>
       <c r="G314" s="21" t="s">
         <v>87</v>
@@ -39962,7 +40004,7 @@
       </c>
       <c r="F315" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>Loading...</v>
+        <v>▰Will you be my friend?▱ </v>
       </c>
       <c r="G315" s="21" t="s">
         <v>84</v>
@@ -40046,7 +40088,7 @@
       <c r="E319" s="27"/>
       <c r="F319" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>Loading...</v>
+        <v>=0x74268</v>
       </c>
       <c r="G319" s="24" t="s">
         <v>92</v>
@@ -40106,7 +40148,7 @@
       <c r="E322" s="27"/>
       <c r="F322" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>Loading...</v>
+        <v>=0x74268</v>
       </c>
       <c r="G322" s="24" t="s">
         <v>92</v>
@@ -40126,7 +40168,7 @@
       <c r="E323" s="27"/>
       <c r="F323" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>Loading...</v>
+        <v>=0x74268</v>
       </c>
       <c r="G323" s="24" t="s">
         <v>92</v>
@@ -40206,7 +40248,7 @@
       <c r="E327" s="27"/>
       <c r="F327" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>Loading...</v>
+        <v>=0x74268</v>
       </c>
       <c r="G327" s="24" t="s">
         <v>92</v>
@@ -40226,7 +40268,7 @@
       <c r="E328" s="27"/>
       <c r="F328" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>Loading...</v>
+        <v>=0x74268</v>
       </c>
       <c r="G328" s="24" t="s">
         <v>92</v>
@@ -40374,7 +40416,7 @@
       <c r="E336" s="27"/>
       <c r="F336" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>Loading...</v>
+        <v>=0x74280</v>
       </c>
       <c r="G336" s="24" t="s">
         <v>92</v>
@@ -40474,7 +40516,7 @@
       <c r="E341" s="27"/>
       <c r="F341" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>Loading...</v>
+        <v>=0x74280</v>
       </c>
       <c r="G341" s="24" t="s">
         <v>92</v>
@@ -40594,7 +40636,7 @@
       <c r="E347" s="27"/>
       <c r="F347" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>Loading...</v>
+        <v>=0x74280</v>
       </c>
       <c r="G347" s="24" t="s">
         <v>92</v>
@@ -40634,7 +40676,7 @@
       <c r="E349" s="27"/>
       <c r="F349" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>Loading...</v>
+        <v>=0x74280</v>
       </c>
       <c r="G349" s="24" t="s">
         <v>92</v>
@@ -40714,7 +40756,7 @@
       <c r="E353" s="27"/>
       <c r="F353" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>Loading...</v>
+        <v>=0x74280</v>
       </c>
       <c r="G353" s="24" t="s">
         <v>92</v>
@@ -40754,7 +40796,7 @@
       <c r="E355" s="27"/>
       <c r="F355" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>Loading...</v>
+        <v>=0x74280</v>
       </c>
       <c r="G355" s="24" t="s">
         <v>92</v>
@@ -40794,7 +40836,7 @@
       <c r="E357" s="27"/>
       <c r="F357" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>Loading...</v>
+        <v>=0x74280</v>
       </c>
       <c r="G357" s="24" t="s">
         <v>92</v>
@@ -40814,7 +40856,7 @@
       <c r="E358" s="27"/>
       <c r="F358" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>Loading...</v>
+        <v>=0x74280</v>
       </c>
       <c r="G358" s="24" t="s">
         <v>92</v>
@@ -40834,7 +40876,7 @@
       <c r="E359" s="27"/>
       <c r="F359" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>Loading...</v>
+        <v>=0x74280</v>
       </c>
       <c r="G359" s="24" t="s">
         <v>92</v>
@@ -40934,7 +40976,7 @@
       <c r="E364" s="27"/>
       <c r="F364" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>Loading...</v>
+        <v>=0x74280</v>
       </c>
       <c r="G364" s="24" t="s">
         <v>92</v>
@@ -40954,7 +40996,7 @@
       <c r="E365" s="27"/>
       <c r="F365" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>Loading...</v>
+        <v>=0x74280</v>
       </c>
       <c r="G365" s="24" t="s">
         <v>92</v>
@@ -41014,7 +41056,7 @@
       <c r="E368" s="27"/>
       <c r="F368" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>Loading...</v>
+        <v>=0x74280</v>
       </c>
       <c r="G368" s="24" t="s">
         <v>92</v>
@@ -41074,7 +41116,7 @@
       <c r="E371" s="27"/>
       <c r="F371" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>Loading...</v>
+        <v>=0x74280</v>
       </c>
       <c r="G371" s="24" t="s">
         <v>92</v>
@@ -41114,7 +41156,7 @@
       <c r="E373" s="27"/>
       <c r="F373" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>Loading...</v>
+        <v>=0x74280</v>
       </c>
       <c r="G373" s="24" t="s">
         <v>92</v>
@@ -41234,7 +41276,7 @@
       <c r="E379" s="27"/>
       <c r="F379" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>Loading...</v>
+        <v>=0x74280</v>
       </c>
       <c r="G379" s="24" t="s">
         <v>92</v>
@@ -41314,7 +41356,7 @@
       <c r="E383" s="27"/>
       <c r="F383" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>Loading...</v>
+        <v>=0x74280</v>
       </c>
       <c r="G383" s="24" t="s">
         <v>92</v>
@@ -41374,7 +41416,7 @@
       <c r="E386" s="27"/>
       <c r="F386" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>Loading...</v>
+        <v>=0x74280</v>
       </c>
       <c r="G386" s="24" t="s">
         <v>92</v>
@@ -41394,7 +41436,7 @@
       <c r="E387" s="27"/>
       <c r="F387" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>Loading...</v>
+        <v>=0x74280</v>
       </c>
       <c r="G387" s="24" t="s">
         <v>92</v>
@@ -41414,7 +41456,7 @@
       <c r="E388" s="27"/>
       <c r="F388" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>Loading...</v>
+        <v>=0x74280</v>
       </c>
       <c r="G388" s="24" t="s">
         <v>92</v>
@@ -41454,7 +41496,7 @@
       <c r="E390" s="27"/>
       <c r="F390" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>Loading...</v>
+        <v>=0x74280</v>
       </c>
       <c r="G390" s="24" t="s">
         <v>92</v>
@@ -41494,7 +41536,7 @@
       <c r="E392" s="27"/>
       <c r="F392" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>Loading...</v>
+        <v>=0x74280</v>
       </c>
       <c r="G392" s="24" t="s">
         <v>92</v>
@@ -41534,7 +41576,7 @@
       <c r="E394" s="27"/>
       <c r="F394" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>Loading...</v>
+        <v>=0x74280</v>
       </c>
       <c r="G394" s="24" t="s">
         <v>92</v>
@@ -41588,7 +41630,10 @@
       <c r="E397" s="23"/>
       <c r="F397" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>Loading...</v>
+        <v>Ding ding ding! Time is up! 
+Now to determine the winner! 
+It looks like... ────────'s
+match! </v>
       </c>
       <c r="G397" s="21" t="s">
         <v>87</v>
@@ -41610,7 +41655,8 @@
       <c r="E398" s="23"/>
       <c r="F398" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>Loading...</v>
+        <v>──────── handed over
+◆────────◇. </v>
       </c>
       <c r="G398" s="21" t="s">
         <v>84</v>
@@ -41654,7 +41700,8 @@
       <c r="E400" s="23"/>
       <c r="F400" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>Loading...</v>
+        <v>──────── got a
+◆RoboRobo Medal◇! </v>
       </c>
       <c r="G400" s="21" t="s">
         <v>89</v>
@@ -41786,7 +41833,8 @@
       <c r="E408" s="23"/>
       <c r="F408" s="23" t="str">
         <f t="shared" si="12"/>
-        <v>Loading...</v>
+        <v> 
+Accessing Robottle HQ... </v>
       </c>
       <c r="G408" s="21" t="s">
         <v>89</v>
@@ -41806,7 +41854,7 @@
       <c r="E409" s="23"/>
       <c r="F409" s="23" t="str">
         <f t="shared" si="12"/>
-        <v>Loading...</v>
+        <v>Connecting! </v>
       </c>
       <c r="G409" s="23"/>
     </row>
@@ -41860,7 +41908,7 @@
       <c r="E412" s="23"/>
       <c r="F412" s="23" t="str">
         <f t="shared" si="12"/>
-        <v>Loading...</v>
+        <v>You have no parts to trade. </v>
       </c>
       <c r="G412" s="23"/>
     </row>
@@ -41878,7 +41926,7 @@
       <c r="E413" s="23"/>
       <c r="F413" s="23" t="str">
         <f t="shared" si="12"/>
-        <v>Loading...</v>
+        <v>Waiting on connection! </v>
       </c>
       <c r="G413" s="23"/>
     </row>
@@ -41914,7 +41962,9 @@
       <c r="E415" s="23"/>
       <c r="F415" s="23" t="str">
         <f t="shared" si="12"/>
-        <v>Loading...</v>
+        <v>──────── lost the battle! 
+That's too bad! 
+Train hard and go for the win! </v>
       </c>
       <c r="G415" s="23"/>
     </row>
@@ -41932,7 +41982,8 @@
       <c r="E416" s="23"/>
       <c r="F416" s="23" t="str">
         <f t="shared" si="12"/>
-        <v>Loading...</v>
+        <v>As the winner of the Robottle,
+you get to play ◆Robo-Toll◇! </v>
       </c>
       <c r="G416" s="23"/>
     </row>
@@ -41950,7 +42001,9 @@
       <c r="E417" s="23"/>
       <c r="F417" s="23" t="str">
         <f t="shared" si="12"/>
-        <v>Loading...</v>
+        <v>As the loser of the Robottle,
+one of your parts will be
+taken. </v>
       </c>
       <c r="G417" s="23"/>
     </row>
@@ -42080,7 +42133,8 @@
       <c r="E424" s="21"/>
       <c r="F424" s="23" t="str">
         <f t="shared" si="12"/>
-        <v>Loading...</v>
+        <v>Despite winning, you could not
+get a part! </v>
       </c>
       <c r="G424" s="21" t="s">
         <v>84</v>
@@ -42154,7 +42208,8 @@
       <c r="E428" s="23"/>
       <c r="F428" s="23" t="str">
         <f t="shared" si="12"/>
-        <v>Loading...</v>
+        <v>You can't carry any more of
+that part! </v>
       </c>
       <c r="G428" s="23"/>
     </row>
@@ -42190,7 +42245,7 @@
       <c r="E430" s="27"/>
       <c r="F430" s="23" t="str">
         <f t="shared" si="12"/>
-        <v>Loading...</v>
+        <v>=0x7433e</v>
       </c>
       <c r="G430" s="24" t="s">
         <v>92</v>
@@ -42246,7 +42301,8 @@
       <c r="E433" s="23"/>
       <c r="F433" s="23" t="str">
         <f t="shared" si="12"/>
-        <v>Loading...</v>
+        <v>◆────────◇ will be traded
+for ◆────────◇. </v>
       </c>
       <c r="G433" s="23"/>
     </row>
@@ -42436,7 +42492,7 @@
       <c r="E444" s="23"/>
       <c r="F444" s="23" t="str">
         <f t="shared" si="14"/>
-        <v>Loading...</v>
+        <v>Ranged attack detected! </v>
       </c>
       <c r="G444" s="21" t="s">
         <v>84</v>
@@ -42498,7 +42554,7 @@
       <c r="E447" s="27"/>
       <c r="F447" s="23" t="str">
         <f t="shared" si="14"/>
-        <v>Loading...</v>
+        <v>=0x7435c</v>
       </c>
       <c r="G447" s="24" t="s">
         <v>92</v>
@@ -42520,7 +42576,7 @@
       <c r="E448" s="27"/>
       <c r="F448" s="23" t="str">
         <f t="shared" si="14"/>
-        <v>Loading...</v>
+        <v>=0x7435c</v>
       </c>
       <c r="G448" s="24" t="s">
         <v>92</v>
@@ -42606,7 +42662,8 @@
       <c r="E452" s="23"/>
       <c r="F452" s="23" t="str">
         <f t="shared" si="14"/>
-        <v>Loading...</v>
+        <v>The targeted part is not
+damaged! </v>
       </c>
       <c r="G452" s="23"/>
     </row>
@@ -42736,7 +42793,8 @@
       <c r="E459" s="23"/>
       <c r="F459" s="23" t="str">
         <f t="shared" si="14"/>
-        <v>Loading...</v>
+        <v>Attempted to clear Flux
+status! </v>
       </c>
       <c r="G459" s="23"/>
     </row>
@@ -42754,7 +42812,8 @@
       <c r="E460" s="23"/>
       <c r="F460" s="23" t="str">
         <f t="shared" si="14"/>
-        <v>Loading...</v>
+        <v>Attempted to clear Stop
+status! </v>
       </c>
       <c r="G460" s="23"/>
     </row>
@@ -42808,7 +42867,8 @@
       <c r="E463" s="23"/>
       <c r="F463" s="23" t="str">
         <f t="shared" si="14"/>
-        <v>Loading...</v>
+        <v>Attempted to clear status
+effects! </v>
       </c>
       <c r="G463" s="23"/>
     </row>
@@ -42854,7 +42914,9 @@
       <c r="E466" s="23"/>
       <c r="F466" s="23" t="str">
         <f t="shared" si="15"/>
-        <v>Loading...</v>
+        <v>────────'s
+◆────────◇ Medal was
+taken! </v>
       </c>
       <c r="G466" s="23"/>
     </row>
@@ -42872,7 +42934,8 @@
       <c r="E467" s="23"/>
       <c r="F467" s="23" t="str">
         <f t="shared" si="15"/>
-        <v>Loading...</v>
+        <v>──────── defended with
+its legs! </v>
       </c>
       <c r="G467" s="23"/>
     </row>
@@ -42908,7 +42971,10 @@
       <c r="E469" s="23"/>
       <c r="F469" s="23" t="str">
         <f t="shared" si="15"/>
-        <v>Loading...</v>
+        <v>...But you already have that
+Medal! 
+The ◆────────◇ Medal
+wasn't taken. </v>
       </c>
       <c r="G469" s="23"/>
     </row>
@@ -42946,7 +43012,9 @@
       <c r="E471" s="23"/>
       <c r="F471" s="23" t="str">
         <f t="shared" si="15"/>
-        <v>Loading...</v>
+        <v>You need at least one
+battle-ready Medarot to use
+this mode. </v>
       </c>
       <c r="G471" s="21" t="s">
         <v>87</v>
@@ -42996,7 +43064,15 @@
       <c r="E474" s="21"/>
       <c r="F474" s="23" t="str">
         <f t="shared" si="16"/>
-        <v>Loading...</v>
+        <v>The loser of the battle will
+have one of their parts or
+Medals taken by the winner. 
+For experienced players only! 
+--- Trading Parts --- 
+In this mode, you can trade
+spare parts with your friends. 
+That ends the explanation! 
+Have fun! </v>
       </c>
       <c r="G474" s="21"/>
     </row>
@@ -51214,7 +51290,9 @@
       <c r="F6" s="23"/>
       <c r="G6" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>If you try to go near the
+cave, you'll be attacked by a
+shark! </v>
       </c>
       <c r="H6" s="21" t="s">
         <v>89</v>
@@ -51239,7 +51317,8 @@
       <c r="F7" s="23"/>
       <c r="G7" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>They say there's some kind of
+treasure in the cave. </v>
       </c>
       <c r="H7" s="21" t="s">
         <v>89</v>
@@ -51414,7 +51493,8 @@
       <c r="F14" s="23"/>
       <c r="G14" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>A monkey took my Medal. 
+I hope I can get it back... </v>
       </c>
       <c r="H14" s="21" t="s">
         <v>89</v>
@@ -51439,7 +51519,9 @@
       <c r="F15" s="23"/>
       <c r="G15" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The monkeys come down the
+mountain from time to time to
+cause mischief. </v>
       </c>
       <c r="H15" s="21" t="s">
         <v>87</v>
@@ -51489,7 +51571,11 @@
       <c r="F17" s="23"/>
       <c r="G17" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Anyway have you gone to the
+Ruins yet?  
+The Ruins are great. 
+They have an adventurous
+feeling to them. </v>
       </c>
       <c r="H17" s="21" t="s">
         <v>87</v>
@@ -51610,7 +51696,7 @@
       <c r="F22" s="27"/>
       <c r="G22" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x5a024</v>
       </c>
       <c r="H22" s="24" t="s">
         <v>92</v>
@@ -51635,7 +51721,7 @@
       <c r="F23" s="27"/>
       <c r="G23" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x5a024</v>
       </c>
       <c r="H23" s="24" t="s">
         <v>92</v>
@@ -51660,7 +51746,7 @@
       <c r="F24" s="27"/>
       <c r="G24" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x5a024</v>
       </c>
       <c r="H24" s="24" t="s">
         <v>92</v>
@@ -51685,7 +51771,7 @@
       <c r="F25" s="27"/>
       <c r="G25" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x5a024</v>
       </c>
       <c r="H25" s="24" t="s">
         <v>92</v>
@@ -51735,7 +51821,7 @@
       <c r="F27" s="27"/>
       <c r="G27" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x5a024</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>92</v>
@@ -51760,7 +51846,7 @@
       <c r="F28" s="27"/>
       <c r="G28" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x5a024</v>
       </c>
       <c r="H28" s="24" t="s">
         <v>92</v>
@@ -51810,7 +51896,7 @@
       <c r="F30" s="27"/>
       <c r="G30" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x5a036</v>
       </c>
       <c r="H30" s="24" t="s">
         <v>92</v>
@@ -51885,7 +51971,15 @@
       <c r="F33" s="23"/>
       <c r="G33" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>There's a lot of fishermen on
+the outskirts of town. 
+Anything they caught for the
+day, they would bring back to
+town. 
+However, ever since the
+sharks came, they haven't
+been able to catch anything. 
+A lot of them are furious. </v>
       </c>
       <c r="H33" s="21" t="s">
         <v>84</v>
@@ -51910,7 +52004,10 @@
       <c r="F34" s="23"/>
       <c r="G34" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>I can't swim because of the
+sharks! 
+After all the trouble I went
+through to come here... </v>
       </c>
       <c r="H34" s="21" t="s">
         <v>87</v>
@@ -52010,7 +52107,8 @@
       <c r="F38" s="23"/>
       <c r="G38" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>It's not fair...  
+I want a female Tinpet too... </v>
       </c>
       <c r="H38" s="21" t="s">
         <v>87</v>
@@ -52060,7 +52158,7 @@
       <c r="F40" s="27"/>
       <c r="G40" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x5a04a</v>
       </c>
       <c r="H40" s="24" t="s">
         <v>92</v>
@@ -52185,7 +52283,7 @@
       <c r="F45" s="27"/>
       <c r="G45" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v> </v>
       </c>
       <c r="H45" s="24" t="s">
         <v>92</v>
@@ -52260,7 +52358,7 @@
       <c r="F48" s="27"/>
       <c r="G48" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v> </v>
       </c>
       <c r="H48" s="24" t="s">
         <v>92</v>
@@ -52308,7 +52406,16 @@
       <c r="F50" s="23"/>
       <c r="G50" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Ladies and gentlemen! 
+I, Mr. Uruchi, will be your
+tournament host! 
+This year, a total of 56
+teams, including 8 foreign
+teams, have joined. 
+Will they be able to beat our
+veteran fighters?  
+Let's find out! Round 1!  
+Robottle Fight! </v>
       </c>
       <c r="H50" s="23"/>
     </row>
@@ -52329,7 +52436,14 @@
       <c r="F51" s="23"/>
       <c r="G51" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Round 2 will be interesting, a
+young man who loves to dance
+and sweep their opponents off
+their feet. 
+Here's Shamojiel!! 
+Now, how will ────────
+handle this?  
+Let's find out. Robottle Fight! </v>
       </c>
       <c r="H51" s="23"/>
     </row>
@@ -52434,7 +52548,9 @@
       <c r="F56" s="23"/>
       <c r="G56" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Well, the situation speaks for
+itself with these two. 
+Robottle Fight! </v>
       </c>
       <c r="H56" s="23"/>
     </row>
@@ -52501,7 +52617,9 @@
       <c r="F59" s="23"/>
       <c r="G59" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The head part, ◆Missile◇, which
+can damage multiple enemy
+parts. </v>
       </c>
       <c r="H59" s="23"/>
     </row>
@@ -52618,7 +52736,8 @@
       <c r="F64" s="23"/>
       <c r="G64" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The head part, ◆Antenna◇,
+which can scan enemies. </v>
       </c>
       <c r="H64" s="21" t="s">
         <v>84</v>
@@ -52739,7 +52858,8 @@
       <c r="F69" s="23"/>
       <c r="G69" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Mysterious? I didn't see
+anything peculiar about it. </v>
       </c>
       <c r="H69" s="23"/>
     </row>
@@ -52760,7 +52880,7 @@
       <c r="F70" s="23"/>
       <c r="G70" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Ah, I am shocked!! </v>
       </c>
       <c r="H70" s="23"/>
     </row>
@@ -52829,7 +52949,8 @@
       <c r="F73" s="23"/>
       <c r="G73" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Hmph...don't mistake your dumb
+luck for skill. </v>
       </c>
       <c r="H73" s="21" t="s">
         <v>87</v>
@@ -52879,7 +53000,7 @@
       <c r="F75" s="23"/>
       <c r="G75" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Please don't bully Yuuki. </v>
       </c>
       <c r="H75" s="21" t="s">
         <v>87</v>
@@ -53017,7 +53138,7 @@
       <c r="F81" s="23"/>
       <c r="G81" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Obtained ¥800. </v>
       </c>
       <c r="H81" s="21" t="s">
         <v>89</v>
@@ -53084,7 +53205,9 @@
       <c r="F84" s="23"/>
       <c r="G84" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>We're busy preparing for the
+festival, so the shrine is
+closed today. </v>
       </c>
       <c r="H84" s="21" t="s">
         <v>89</v>
@@ -53109,7 +53232,10 @@
       <c r="F85" s="23"/>
       <c r="G85" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>We are currently inspecting
+luggage, therefore you can
+not enter the Tournament 
+Hall. </v>
       </c>
       <c r="H85" s="21" t="s">
         <v>87</v>
@@ -53134,7 +53260,9 @@
       <c r="F86" s="23"/>
       <c r="G86" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>This road is under
+construction, no entry beyond
+this point. </v>
       </c>
       <c r="H86" s="21" t="s">
         <v>87</v>
@@ -53159,7 +53287,9 @@
       <c r="F87" s="23"/>
       <c r="G87" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>◆*Knock Knock*◇ 
+You knocked on the door to
+the office. </v>
       </c>
       <c r="H87" s="21" t="s">
         <v>87</v>
@@ -53184,7 +53314,26 @@
       <c r="F88" s="23"/>
       <c r="G88" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Hey ────────. That
+stone... 
+It looks so shiny and pretty,
+like it has some kind of power
+sleeping inside of it... 
+Is it okay if I have it? It's
+not much but I'll give you this. 
+Kirara, I still haven't said
+anything yet... 
+────────, you don't
+really understand girls, do
+you? 
+Guys give their girlfriends
+presents. 
+Here, ────────, take
+this ◆Penguin◇. 
+See? You look great with that
+bot. 
+Ah...yeah.  
+Then it's settled. </v>
       </c>
       <c r="H88" s="21" t="s">
         <v>87</v>
@@ -53209,7 +53358,29 @@
       <c r="F89" s="23"/>
       <c r="G89" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Ah, that stone... 
+Oh, the ◆Star Piece◇? 
+I always wanted one, but they
+were always sold out. 
+I could never find one. 
+I'm glad I can see one up
+close like this.  
+Now I can see one when I
+come to your house. 
+If you want it that badly, I'll
+give it to you... 
+It's okay, it's better if you
+hold on to it, ────────. 
+Besides, I want to have a
+reason to visit more often... 
+Huh, did you say something? 
+Oh...n-nothing.  
+Anyway, I came here
+because... 
+Ah, right. 
+I want you to test out some
+new parts. 
+Try them out. </v>
       </c>
       <c r="H89" s="21" t="s">
         <v>87</v>
@@ -53284,7 +53455,15 @@
       <c r="F92" s="23"/>
       <c r="G92" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Heh heh heh... Robo. 
+At last, I've found it... 
+What we, the RoboRobo Gang,
+have been searching for... 
+The ◆Kabuto ◇Medal! 
+This shine... It... It's so
+beautiful... Robo. 
+I'd better hurry and take
+this to the boss! </v>
       </c>
       <c r="H92" s="21" t="s">
         <v>87</v>
@@ -53309,7 +53488,15 @@
       <c r="F93" s="31"/>
       <c r="G93" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Heh heh heh... Robo. 
+At last, I've found it... 
+What we, the RoboRobo Gang,
+have been searching for... 
+The ◆Kuwagata ◇Medal! 
+This shine... It... It's so
+beautiful... Robo. 
+I'd better hurry and take
+this to the boss! </v>
       </c>
       <c r="H93" s="32" t="s">
         <v>87</v>
@@ -53334,7 +53521,8 @@
       <c r="F94" s="23"/>
       <c r="G94" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Did you have fun at the local
+tournament? </v>
       </c>
       <c r="H94" s="21" t="s">
         <v>84</v>
@@ -53378,7 +53566,10 @@
       <c r="F96" s="23"/>
       <c r="G96" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>You still haven't set up all
+your parts and Medals? 
+Real men always have them
+ready! </v>
       </c>
       <c r="H96" s="21"/>
     </row>
@@ -53593,14 +53784,14 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{D023DA63-30A0-4607-A58A-20E6C468781E}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{BAA2026B-AF34-45E4-95A4-56139A306514}" filter="1" showAutoFilter="1">
       <autoFilter ref="$E$1:$E$105">
         <filterColumn colId="0">
           <filters blank="1"/>
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{5A3BA6FB-990B-41E1-8D9C-D681052C57BE}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{C303733D-C89D-44DD-A8FF-D92EBEA68217}" filter="1" showAutoFilter="1">
       <autoFilter ref="$E$1:$E$105">
         <filterColumn colId="0">
           <customFilters>
@@ -53609,7 +53800,7 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{6F3AA518-8828-4641-AA33-229AEBF9D49B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{DD480565-081A-43E3-AC80-C3E2727E6934}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$1:$H$105">
         <filterColumn colId="3">
           <customFilters>
@@ -57882,7 +58073,8 @@
       <c r="F3" s="23"/>
       <c r="G3" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Is it true that aliens
+originally gave us Medals? </v>
       </c>
       <c r="H3" s="21" t="s">
         <v>84</v>
@@ -57905,7 +58097,14 @@
       <c r="F4" s="23"/>
       <c r="G4" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Ah.  
+Hello ────────. 
+They say if you make a wish
+when you're closer to the
+stars, it's more likely to come
+true. 
+There's no basis in science,
+but it's a nice thought, right? </v>
       </c>
       <c r="H4" s="21" t="s">
         <v>87</v>
@@ -57928,7 +58127,10 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Show me the parts you've
+gained. 
+I'll give you something good. 
+How about it? </v>
       </c>
       <c r="H5" s="23"/>
     </row>
@@ -57991,7 +58193,7 @@
       <c r="F8" s="23"/>
       <c r="G8" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>You saw right through me! </v>
       </c>
       <c r="H8" s="23"/>
     </row>
@@ -58104,7 +58306,8 @@
       <c r="F13" s="23"/>
       <c r="G13" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Thank you very much. That'll
+be 300¥. </v>
       </c>
       <c r="H13" s="23"/>
     </row>
@@ -58240,7 +58443,8 @@
       <c r="F19" s="23"/>
       <c r="G19" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Ah, ────────. 
+You remembered. </v>
       </c>
       <c r="H19" s="23"/>
     </row>
@@ -58284,7 +58488,9 @@
       <c r="F21" s="23"/>
       <c r="G21" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>If you give a pretty girl a
+Star Piece, I'm sure it would
+make her very happy. </v>
       </c>
       <c r="H21" s="23"/>
     </row>
@@ -58353,7 +58559,9 @@
       <c r="F24" s="23"/>
       <c r="G24" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>You can see stars very
+clearly  
+from the observatory dome. </v>
       </c>
       <c r="H24" s="23"/>
     </row>
@@ -58443,7 +58651,9 @@
       <c r="F28" s="23"/>
       <c r="G28" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>When your Medarot ranks up,
+its skills will increase more
+than usual. </v>
       </c>
       <c r="H28" s="23"/>
     </row>
@@ -58489,7 +58699,7 @@
       <c r="F30" s="23"/>
       <c r="G30" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>It got away... </v>
       </c>
       <c r="H30" s="23"/>
     </row>
@@ -58596,7 +58806,8 @@
       <c r="F35" s="23"/>
       <c r="G35" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Welcome to the Tournament
+Dome! </v>
       </c>
       <c r="H35" s="23"/>
     </row>
@@ -58619,7 +58830,8 @@
       <c r="F36" s="23"/>
       <c r="G36" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>There are 57 unique Medal
+forms. </v>
       </c>
       <c r="H36" s="23"/>
     </row>
@@ -58732,7 +58944,7 @@
       <c r="F41" s="27"/>
       <c r="G41" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x6004a</v>
       </c>
       <c r="H41" s="24" t="s">
         <v>92</v>
@@ -58780,7 +58992,12 @@
       <c r="F43" s="23"/>
       <c r="G43" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Good morning ────────,
+you're looking good today. 
+Sports are great and all, but
+you really should get into
+Meda... 
+Er... Nevermind, forget it. </v>
       </c>
       <c r="H43" s="21" t="s">
         <v>87</v>
@@ -58899,7 +59116,16 @@
       <c r="F48" s="23"/>
       <c r="G48" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>They say there's a group of
+bad guys going around using
+Medarots for evil deeds. 
+They call themselves the
+RoboRobo Gang. 
+If you see one of them, you
+should report it to the Select
+Force right away. 
+They're the defenders of
+justice! </v>
       </c>
       <c r="H48" s="23"/>
     </row>
@@ -58941,7 +59167,8 @@
       <c r="F50" s="23"/>
       <c r="G50" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>It seems that I can beat
+everyone except you. </v>
       </c>
       <c r="H50" s="23"/>
     </row>
@@ -59052,7 +59279,11 @@
       <c r="F55" s="23"/>
       <c r="G55" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The winner is ────────! 
+He completely trounced the
+Select Force Commander in
+this heated battle! 
+Don't think I'm done just yet! </v>
       </c>
       <c r="H55" s="21" t="s">
         <v>87</v>
@@ -59077,7 +59308,7 @@
       <c r="F56" s="27"/>
       <c r="G56" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x6006a</v>
       </c>
       <c r="H56" s="24" t="s">
         <v>92</v>
@@ -59100,7 +59331,18 @@
       <c r="F57" s="23"/>
       <c r="G57" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>────────! 
+Are you okay? 
+Huh? 
+My phone isn't working... 
+It looks like your Medal is
+cracked, I'll fix it for you. 
+What's this? I can't send out
+the Medarot. 
+...What? 
+I'm sorry, ────────.
+There's no way for me to fix
+the Medal. </v>
       </c>
       <c r="H57" s="21" t="s">
         <v>87</v>
@@ -59123,7 +59365,7 @@
       <c r="F58" s="23"/>
       <c r="G58" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Fufufuu... </v>
       </c>
       <c r="H58" s="23"/>
     </row>
@@ -59186,7 +59428,9 @@
       <c r="F61" s="23"/>
       <c r="G61" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Wooof wooof! 
+What's wrong? 
+Woof Aarf! </v>
       </c>
       <c r="H61" s="21" t="s">
         <v>87</v>
@@ -59251,7 +59495,7 @@
       <c r="F64" s="23"/>
       <c r="G64" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Wait! </v>
       </c>
       <c r="H64" s="23"/>
     </row>
@@ -59295,7 +59539,9 @@
       <c r="F66" s="23"/>
       <c r="G66" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Welcome! 
+What would you like? We have
+some rare items. </v>
       </c>
       <c r="H66" s="23"/>
     </row>
@@ -59343,7 +59589,8 @@
       <c r="F68" s="23"/>
       <c r="G68" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>We import Medarots and parts
+from overseas. </v>
       </c>
       <c r="H68" s="23"/>
     </row>
@@ -59427,7 +59674,8 @@
       <c r="F72" s="23"/>
       <c r="G72" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>I wonder if this Medanot could
+be useful for anything... </v>
       </c>
       <c r="H72" s="23"/>
     </row>
@@ -59469,7 +59717,14 @@
       <c r="F74" s="23"/>
       <c r="G74" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>We stole all the foreign parts
+and items, Robo. 
+Without that ◆Periscope◇, no
+one will be able to get near the
+Select Building, Robo! 
+Huh, who are you? 
+I can't let you get away with
+what you just saw! </v>
       </c>
       <c r="H74" s="21" t="s">
         <v>87</v>
@@ -59515,7 +59770,8 @@
       <c r="F76" s="23"/>
       <c r="G76" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>This is where parts from
+overseas are stored. </v>
       </c>
       <c r="H76" s="23"/>
     </row>
@@ -59601,7 +59857,15 @@
       <c r="F80" s="23"/>
       <c r="G80" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Thanks, ────────. 
+That phone...did you look
+through it? 
+Sorry...I was going to tell you
+but... 
+It's okay, I understand. 
+Good luck in the final round.
+Give it your all, 
+I'm sure you can win. </v>
       </c>
       <c r="H80" s="21" t="s">
         <v>87</v>
@@ -59674,7 +59938,8 @@
       <c r="F83" s="23"/>
       <c r="G83" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>They all seem to be looking
+forward to the tournament. </v>
       </c>
       <c r="H83" s="21" t="s">
         <v>87</v>
@@ -59701,7 +59966,8 @@
       </c>
       <c r="G84" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Mia kusenveturilo estas
+angiloplena. </v>
       </c>
       <c r="H84" s="23"/>
     </row>
@@ -59751,7 +60017,10 @@
       </c>
       <c r="G86" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>You are also going to the
+tournament? 
+If so, would you mind practice
+with me? </v>
       </c>
       <c r="H86" s="23"/>
     </row>
@@ -59797,7 +60066,7 @@
       <c r="F88" s="23"/>
       <c r="G88" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>All right, Robottle start! </v>
       </c>
       <c r="H88" s="21" t="s">
         <v>87</v>
@@ -59864,7 +60133,11 @@
       <c r="F91" s="23"/>
       <c r="G91" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>If you want parts, you should
+check out your local store. 
+Each store varies in parts. 
+So it's recommended that you
+check out other stores. </v>
       </c>
       <c r="H91" s="21" t="s">
         <v>87</v>
@@ -59935,7 +60208,15 @@
       <c r="F94" s="23"/>
       <c r="G94" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>If you have a lot of parts
+that you don't need, you can
+sell them at a convenience
+store. 
+It's better to recycle them
+rather than throwing them
+away. 
+Plus it gives you some extra
+spending money. </v>
       </c>
       <c r="H94" s="23"/>
     </row>
@@ -60025,7 +60306,10 @@
       <c r="F98" s="23"/>
       <c r="G98" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>You haven't leveled up your
+parts or your Tinpets? 
+That's no fun, how about I
+give you this Tinpet? </v>
       </c>
       <c r="H98" s="21" t="s">
         <v>84</v>
@@ -60048,7 +60332,7 @@
       <c r="F99" s="23"/>
       <c r="G99" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>How do you like the Tinpet? </v>
       </c>
       <c r="H99" s="23"/>
     </row>
@@ -60071,7 +60355,9 @@
       <c r="F100" s="23"/>
       <c r="G100" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>An offensive team is the best
+option if you want to be
+aggressive. </v>
       </c>
       <c r="H100" s="23"/>
     </row>
@@ -60117,7 +60403,16 @@
       <c r="F102" s="23"/>
       <c r="G102" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>If a Medarot's personality
+has a high ◆Attack ◇stat, its
+attacks will 
+land more easily. 
+If you have an ally Medarot
+who can defend, it will raise its
+◆Attack ◇even more. 
+Try to combine and test other
+personalities and see what you
+get. </v>
       </c>
       <c r="H102" s="23"/>
     </row>
@@ -60186,7 +60481,10 @@
       <c r="F105" s="23"/>
       <c r="G105" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>If you use a Link Cable, you
+can connect and Robottle  
+with friends from other
+worlds. </v>
       </c>
       <c r="H105" s="23"/>
     </row>
@@ -60209,7 +60507,7 @@
       <c r="F106" s="23"/>
       <c r="G106" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Hey, wanna Robottle? </v>
       </c>
       <c r="H106" s="23"/>
     </row>
@@ -60232,7 +60530,9 @@
       <c r="F107" s="23"/>
       <c r="G107" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>You can defend your leader
+Medarot by making an ally use
+◆Protect◇. </v>
       </c>
       <c r="H107" s="23"/>
     </row>
@@ -60255,7 +60555,12 @@
       <c r="F108" s="23"/>
       <c r="G108" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>You can change your
+Medarot's parts and Medal on
+the Medarot assembly screen. 
+Just select the part you want
+to change and press right or
+left to swap between them! </v>
       </c>
       <c r="H108" s="23"/>
     </row>
@@ -60303,7 +60608,7 @@
       <c r="F110" s="27"/>
       <c r="G110" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x600d4</v>
       </c>
       <c r="H110" s="24" t="s">
         <v>92</v>
@@ -60328,7 +60633,9 @@
       <c r="F111" s="23"/>
       <c r="G111" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Yeah, that's right! 
+There's no way you can beat
+me! </v>
       </c>
       <c r="H111" s="21"/>
     </row>
@@ -60351,7 +60658,11 @@
       <c r="F112" s="23"/>
       <c r="G112" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Medarots are well and good,
+but isn't today the closing
+ceremony? 
+You should hurry and get to
+school. </v>
       </c>
       <c r="H112" s="23"/>
     </row>
@@ -60374,7 +60685,7 @@
       <c r="F113" s="27"/>
       <c r="G113" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x600dc</v>
       </c>
       <c r="H113" s="24" t="s">
         <v>92</v>
@@ -60424,7 +60735,9 @@
       <c r="F115" s="23"/>
       <c r="G115" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>In order to keep winning
+Robottles, it's a good idea to
+try out different parts. </v>
       </c>
       <c r="H115" s="23"/>
     </row>
@@ -60491,7 +60804,11 @@
       <c r="F118" s="23"/>
       <c r="G118" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>If your Medarot's ◆Legs ◇have
+a high ◆Melee◇ stat, not only will
+it boost its ◆Strike ◇and
+◆Berserk ◇power, but it will
+also defend more often. </v>
       </c>
       <c r="H118" s="21" t="s">
         <v>87</v>
@@ -60516,7 +60833,7 @@
       <c r="F119" s="23"/>
       <c r="G119" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Ker-chak! </v>
       </c>
       <c r="H119" s="23"/>
     </row>
@@ -60562,7 +60879,7 @@
       <c r="F121" s="23"/>
       <c r="G121" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Rawr! </v>
       </c>
       <c r="H121" s="21" t="s">
         <v>87</v>
@@ -60658,7 +60975,9 @@
       <c r="F125" s="23"/>
       <c r="G125" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Beep beeep!! No entry beyond
+this point! 
+Save before you enter. </v>
       </c>
       <c r="H125" s="21" t="s">
         <v>87</v>
@@ -60708,7 +61027,7 @@
       <c r="F127" s="23"/>
       <c r="G127" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>My vision is fading... </v>
       </c>
       <c r="H127" s="23"/>
     </row>
@@ -60800,7 +61119,10 @@
       <c r="F131" s="23"/>
       <c r="G131" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Thank you very much. I'm very
+grateful for your help. 
+Let me know when you're
+ready. </v>
       </c>
       <c r="H131" s="23"/>
     </row>
@@ -60978,7 +61300,12 @@
       <c r="F139" s="23"/>
       <c r="G139" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Thank you so much. 
+You've helped a lot with my
+research. 
+Hey ──────── ...maybe one
+day we could go stargazi... 
+Never mind, it's nothing. </v>
       </c>
       <c r="H139" s="23"/>
     </row>
@@ -61020,7 +61347,23 @@
       <c r="F141" s="23"/>
       <c r="G141" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>You fixed your Medal? 
+That's great! 
+Have you seen the crazy
+things that have been
+happening in town lately? 
+Everyone's Medarots suddenly
+started running amok. 
+I think I've discovered the
+reason though...  
+Not a single one of the
+Medarots using regular Medals
+have gone berserk. 
+Could this be the Select
+Force's doing?  
+────────, could you go
+check out the Select Force
+HQ? </v>
       </c>
       <c r="H141" s="23"/>
     </row>
@@ -61062,7 +61405,10 @@
       <c r="F143" s="23"/>
       <c r="G143" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>────────, if something
+were to happen to you, I... 
+Just please be careful. I'll be
+praying for your safety. </v>
       </c>
       <c r="H143" s="23"/>
     </row>
@@ -61108,7 +61454,11 @@
       <c r="F145" s="23"/>
       <c r="G145" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>That's an interesting looking
+thing you got there. 
+Can I see it real quick? 
+The ◆Medal-Like Coin◇ turned
+into a ◆Chameleon◇ Medal. </v>
       </c>
       <c r="H145" s="23"/>
     </row>
@@ -61131,7 +61481,9 @@
       <c r="F146" s="23"/>
       <c r="G146" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>If your Medarot's legs get
+destroyed in battle, its speed
+gets halved. Be careful. </v>
       </c>
       <c r="H146" s="21" t="s">
         <v>84</v>
@@ -61179,7 +61531,8 @@
       <c r="F148" s="23"/>
       <c r="G148" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>I'm Dr. Medarot, the creator
+of Medarots. </v>
       </c>
       <c r="H148" s="23"/>
     </row>
@@ -61225,7 +61578,7 @@
       <c r="F150" s="23"/>
       <c r="G150" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>My Medarot exploded! </v>
       </c>
       <c r="H150" s="21" t="s">
         <v>84</v>
@@ -61248,7 +61601,8 @@
       <c r="F151" s="23"/>
       <c r="G151" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>What? It was repaired by
+aliens?! </v>
       </c>
       <c r="H151" s="23"/>
     </row>
@@ -61336,7 +61690,8 @@
       <c r="F155" s="23"/>
       <c r="G155" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Hurry and collect all of the
+Medals! </v>
       </c>
       <c r="H155" s="23"/>
     </row>
@@ -61453,7 +61808,9 @@
       <c r="F160" s="23"/>
       <c r="G160" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>If Paddy has a ill-mannered
+boyfriend, it could have a
+negative influence on her. </v>
       </c>
       <c r="H160" s="21" t="s">
         <v>84</v>
@@ -61478,7 +61835,23 @@
       <c r="F161" s="23"/>
       <c r="G161" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>There's bound to be a lot of
+places in this area that you
+guys have never been to! 
+With that in mind, I thought
+this summer would be a good
+opportunity for you to explore
+the town!  
+How about investigating the
+reports of sharks in the
+waters of Harbor Town, or
+challenging the martial artist
+monkeys on the Mountainside
+to a match? 
+If you head to the Select
+Headquarters, you might even
+meet the esteemed chief of
+the Select Force! </v>
       </c>
       <c r="H161" s="23"/>
     </row>
@@ -61595,7 +61968,9 @@
       <c r="F166" s="23"/>
       <c r="G166" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Ah, please don't
+misunderstand. It's not what
+you think. </v>
       </c>
       <c r="H166" s="23"/>
     </row>
@@ -61681,7 +62056,9 @@
       <c r="F170" s="23"/>
       <c r="G170" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Yeah, we love each other but... 
+What exactly does that have
+to do with you? </v>
       </c>
       <c r="H170" s="23"/>
     </row>
@@ -61748,7 +62125,8 @@
       <c r="F173" s="23"/>
       <c r="G173" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The number of remaining
+medals is... </v>
       </c>
       <c r="H173" s="23"/>
     </row>
@@ -61836,7 +62214,20 @@
       <c r="F177" s="23"/>
       <c r="G177" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>There have been rumors of
+unidentified flying objects
+near the ruins, too! 
+You might even get to Robottle
+with aliens! 
+....It could happen! 
+If you get lost, just check the
+◆Town Map◇! 
+Just select it from your item
+screen, and you'll be able to
+see where you are immediately. 
+Well then, I'll look forward to
+seeing everyone's reports in
+the fall! </v>
       </c>
       <c r="H177" s="23"/>
     </row>
@@ -61882,7 +62273,22 @@
       <c r="F179" s="23"/>
       <c r="G179" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>What's that? 
+────────, don't tell me
+you didn't know that the
+winner gets to take a part
+from the loser. It's a basic
+rule of Robottles! 
+You say we're cheaters? 
+Don't be stupid! 
+It's normal for Robottles to
+be team battles, right? 
+It's your own fault for only
+having one! 
+C'mon ────────, stop
+glaring at us like that. 
+Or do you think you can take
+us on? Huh? </v>
       </c>
       <c r="H179" s="23"/>
     </row>
@@ -61953,7 +62359,7 @@
       <c r="F182" s="23"/>
       <c r="G182" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Don't go near the crops! </v>
       </c>
       <c r="H182" s="23"/>
     </row>
@@ -61999,7 +62405,7 @@
       <c r="F184" s="23"/>
       <c r="G184" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>◆Mooo.◇ </v>
       </c>
       <c r="H184" s="23"/>
     </row>
@@ -62114,7 +62520,10 @@
       <c r="F189" s="23"/>
       <c r="G189" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Long time no see,
+────────. 
+I know this is sudden but...let's
+Robottle! </v>
       </c>
       <c r="H189" s="23"/>
     </row>
@@ -62137,7 +62546,8 @@
       <c r="F190" s="23"/>
       <c r="G190" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>You're very strong. You beat
+me rather quickly. </v>
       </c>
       <c r="H190" s="23"/>
     </row>
@@ -62160,7 +62570,8 @@
       <c r="F191" s="23"/>
       <c r="G191" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>When I was a kid, I also used
+to play ninja. </v>
       </c>
       <c r="H191" s="23"/>
     </row>
@@ -62181,7 +62592,7 @@
       <c r="F192" s="23"/>
       <c r="G192" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>...... </v>
       </c>
       <c r="H192" s="23"/>
     </row>
@@ -62267,7 +62678,9 @@
       <c r="F196" s="23"/>
       <c r="G196" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Your youth is only just
+beginning, boy. 
+Hohohoh! </v>
       </c>
       <c r="H196" s="21" t="s">
         <v>84</v>
@@ -62292,7 +62705,13 @@
       <c r="F197" s="23"/>
       <c r="G197" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Ah, you did well to come here. 
+Now, let's quickly start our
+Robottle... 
+Is what I would like to say
+but... 
+I just came out of a Robottle.
+Hohohoo! </v>
       </c>
       <c r="H197" s="21" t="s">
         <v>84</v>
@@ -62545,7 +62964,9 @@
       <c r="F208" s="23"/>
       <c r="G208" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>They say if you go to the pond
+in the center of the Ruins, you
+might see some weird stuff. </v>
       </c>
       <c r="H208" s="21" t="s">
         <v>87</v>
@@ -62570,7 +62991,8 @@
       <c r="F209" s="23"/>
       <c r="G209" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>There's a bunch of Medarot
+parts in the junkyard. </v>
       </c>
       <c r="H209" s="23"/>
     </row>
@@ -62593,7 +63015,11 @@
       <c r="F210" s="23"/>
       <c r="G210" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>I got a counterfeit Medarot... 
+You mean a Medanot? 
+Yup. You think if I hold on to
+it, its value will increase? 
+I don't think so... </v>
       </c>
       <c r="H210" s="21"/>
     </row>
@@ -62681,7 +63107,8 @@
       <c r="F214" s="23"/>
       <c r="G214" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>In order to repair my Medal, I
+have to leave it in the pond. </v>
       </c>
       <c r="H214" s="23"/>
     </row>
@@ -62744,7 +63171,22 @@
       <c r="F217" s="23"/>
       <c r="G217" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>▰We are in grave danger... 
+It will awaken soon. 
+▱ 
+Huh? What are you talking
+about? 
+▰ 
+▱▰If you can't stop ▱▰◆it ◇▱▰then...▱ 
+Stop what?! 
+▰This boy will surely... 
+▱ 
+▰Yes...This boy will definitely be
+of help to us.▱ 
+Hey, who are you guys? What
+are you talking about? 
+▰We are your guardians,  
+and you are our only hope.▱ </v>
       </c>
       <c r="H217" s="23"/>
     </row>
@@ -62836,7 +63278,13 @@
       </c>
       <c r="G221" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>It's hard to read the name
+with these bushes in the way. 
+Hm? 
+Horu...in. Building of World
+Domination. 
+......? 
+Well, I'm sure it's no big deal... </v>
       </c>
       <c r="H221" s="23"/>
     </row>
@@ -62859,7 +63307,10 @@
       <c r="F222" s="23"/>
       <c r="G222" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>You can take the rail car to
+the Ruins. 
+The boarding spot is right in
+front of you. </v>
       </c>
       <c r="H222" s="23"/>
     </row>
@@ -62882,7 +63333,11 @@
       <c r="F223" s="23"/>
       <c r="G223" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The RoboRobo Gang are a bad
+bunch. 
+They're probably stealing
+excavated Medals as we
+speak. </v>
       </c>
       <c r="H223" s="23"/>
     </row>
@@ -62928,7 +63383,7 @@
       <c r="F225" s="23"/>
       <c r="G225" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>*clank* </v>
       </c>
       <c r="H225" s="23"/>
     </row>
@@ -62976,7 +63431,7 @@
       <c r="F227" s="23"/>
       <c r="G227" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>You pulled the lever. </v>
       </c>
       <c r="H227" s="21" t="s">
         <v>87</v>
@@ -63024,7 +63479,10 @@
       <c r="F229" s="23"/>
       <c r="G229" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Ah, it's the RoboRobo Gang! 
+They must be plotting
+something again, I better
+stop them! </v>
       </c>
       <c r="H229" s="21" t="s">
         <v>87</v>
@@ -63049,7 +63507,7 @@
       <c r="F230" s="27"/>
       <c r="G230" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x601c6</v>
       </c>
       <c r="H230" s="24" t="s">
         <v>92</v>
@@ -63097,7 +63555,10 @@
       <c r="F232" s="23"/>
       <c r="G232" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Woof Wooof! 
+Ah! Not that dog again, Robo! 
+I-I can't stand dogs, Robooo! 
+Woof woooof! </v>
       </c>
       <c r="H232" s="23"/>
     </row>
@@ -63143,7 +63604,8 @@
       <c r="F234" s="23"/>
       <c r="G234" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>You'll regret picking a fight
+with the RoboRobo Gang! </v>
       </c>
       <c r="H234" s="23"/>
     </row>
@@ -63189,7 +63651,7 @@
       <c r="F236" s="23"/>
       <c r="G236" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Thank you for your help. </v>
       </c>
       <c r="H236" s="23"/>
     </row>
@@ -63210,7 +63672,8 @@
       <c r="F237" s="23"/>
       <c r="G237" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>There's a bunch of rare
+Medals on display. </v>
       </c>
       <c r="H237" s="23"/>
     </row>
@@ -63321,7 +63784,8 @@
       <c r="F242" s="23"/>
       <c r="G242" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>They sell female parts at the
+Imports shop. </v>
       </c>
       <c r="H242" s="23"/>
     </row>
@@ -63344,7 +63808,8 @@
       <c r="F243" s="23"/>
       <c r="G243" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Look at me. 
+Aren't I pretty? </v>
       </c>
       <c r="H243" s="23"/>
     </row>
@@ -63459,7 +63924,7 @@
       <c r="F248" s="23"/>
       <c r="G248" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Ah! It's an ◆Angel ◇Medal! </v>
       </c>
       <c r="H248" s="23"/>
     </row>
@@ -63528,7 +63993,11 @@
       <c r="F251" s="23"/>
       <c r="G251" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Skills and part compatability
+are important and all but
+choosing parts that match
+your Medal's personality also
+helps. </v>
       </c>
       <c r="H251" s="23"/>
     </row>
@@ -63693,7 +64162,7 @@
       <c r="F258" s="23"/>
       <c r="G258" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Children are not allowed here! </v>
       </c>
       <c r="H258" s="23"/>
     </row>
@@ -63714,7 +64183,8 @@
       <c r="F259" s="23"/>
       <c r="G259" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Heey, boy. You can't come in
+here! I'll punish yoou! </v>
       </c>
       <c r="H259" s="23"/>
     </row>
@@ -63735,7 +64205,7 @@
       <c r="F260" s="23"/>
       <c r="G260" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>All right, but just this once.♥ </v>
       </c>
       <c r="H260" s="23"/>
     </row>
@@ -63979,7 +64449,7 @@
       <c r="F270" s="27"/>
       <c r="G270" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v> </v>
       </c>
       <c r="H270" s="24" t="s">
         <v>92</v>
@@ -64004,7 +64474,7 @@
       <c r="F271" s="27"/>
       <c r="G271" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v> </v>
       </c>
       <c r="H271" s="24" t="s">
         <v>92</v>
@@ -64146,7 +64616,9 @@
       <c r="F277" s="23"/>
       <c r="G277" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Bonaparte? How'd you get
+here?! 
+Woof woof! </v>
       </c>
       <c r="H277" s="23"/>
     </row>
@@ -64420,7 +64892,7 @@
       <c r="F289" s="23"/>
       <c r="G289" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Meat is pretty cheap. </v>
       </c>
       <c r="H289" s="23"/>
     </row>
@@ -64464,7 +64936,8 @@
       <c r="F291" s="23"/>
       <c r="G291" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The vegetables are pretty
+cheap. </v>
       </c>
       <c r="H291" s="23"/>
     </row>
@@ -64665,7 +65138,15 @@
       <c r="F300" s="23"/>
       <c r="G300" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>If your Medarot's ◆Special
+◇stat is high, its abilities will
+change depending on the
+situation. 
+If you're in a pinch and use
+◆Heal◇ or if you take
+advantage of an opening, your
+Medarot can take control of
+the flow of battle. </v>
       </c>
       <c r="H300" s="23"/>
     </row>
@@ -64778,7 +65259,10 @@
       <c r="F305" s="23"/>
       <c r="G305" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>You can learn a lot about life
+from studying bugs. 
+I'll show you the power of
+bugs! </v>
       </c>
       <c r="H305" s="23"/>
     </row>
@@ -64801,7 +65285,8 @@
       <c r="F306" s="23"/>
       <c r="G306" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>You're kidding! That's
+impossible! </v>
       </c>
       <c r="H306" s="23"/>
     </row>
@@ -64870,7 +65355,7 @@
       <c r="F309" s="23"/>
       <c r="G309" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>What do you want? Waaant? </v>
       </c>
       <c r="H309" s="23"/>
     </row>
@@ -64987,7 +65472,7 @@
       <c r="F314" s="27"/>
       <c r="G314" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x6026a</v>
       </c>
       <c r="H314" s="24" t="s">
         <v>92</v>
@@ -65010,7 +65495,7 @@
       <c r="F315" s="23"/>
       <c r="G315" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Make your Medals strong! </v>
       </c>
       <c r="H315" s="23"/>
     </row>
@@ -65033,7 +65518,8 @@
       <c r="F316" s="23"/>
       <c r="G316" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The professor caught all of
+the bugs in this area... </v>
       </c>
       <c r="H316" s="23"/>
     </row>
@@ -65167,7 +65653,7 @@
       <c r="F322" s="23"/>
       <c r="G322" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Ha! Haa! Bullseye! </v>
       </c>
       <c r="H322" s="23"/>
     </row>
@@ -65188,7 +65674,7 @@
       <c r="F323" s="23"/>
       <c r="G323" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Teyaah!! </v>
       </c>
       <c r="H323" s="23"/>
     </row>
@@ -65278,7 +65764,7 @@
       <c r="F327" s="23"/>
       <c r="G327" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>3 becomes 4... </v>
       </c>
       <c r="H327" s="21" t="s">
         <v>87</v>
@@ -65366,7 +65852,7 @@
       <c r="F331" s="23"/>
       <c r="G331" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The door opened! </v>
       </c>
       <c r="H331" s="23"/>
     </row>
@@ -65387,7 +65873,7 @@
       <c r="F332" s="23"/>
       <c r="G332" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>It's pitch black in here. </v>
       </c>
       <c r="H332" s="23"/>
     </row>
@@ -65408,7 +65894,11 @@
       <c r="F333" s="23"/>
       <c r="G333" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Clack! 
+You feel something touching
+your foot. 
+It grabs a hold of it and
+drags you outside! </v>
       </c>
       <c r="H333" s="21"/>
     </row>
@@ -65429,7 +65919,8 @@
       <c r="F334" s="23"/>
       <c r="G334" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The scroll turned into a rope
+ladder. </v>
       </c>
       <c r="H334" s="23"/>
     </row>
@@ -65492,7 +65983,7 @@
       <c r="F337" s="23"/>
       <c r="G337" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>You did well. </v>
       </c>
       <c r="H337" s="23"/>
     </row>
@@ -65557,7 +66048,7 @@
       <c r="F340" s="23"/>
       <c r="G340" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>You still have much to learn. </v>
       </c>
       <c r="H340" s="23"/>
     </row>
@@ -65771,7 +66262,7 @@
       <c r="F350" s="23"/>
       <c r="G350" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Wooaah!? </v>
       </c>
       <c r="H350" s="23"/>
     </row>
@@ -65792,7 +66283,9 @@
       <c r="F351" s="23"/>
       <c r="G351" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Ho ho ho...you did well finding me
+here. 
+Come, my comrades! </v>
       </c>
       <c r="H351" s="23"/>
     </row>
@@ -65878,7 +66371,7 @@
       <c r="F355" s="23"/>
       <c r="G355" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Hey, Wait! </v>
       </c>
       <c r="H355" s="23"/>
     </row>
@@ -65899,7 +66392,8 @@
       <c r="F356" s="23"/>
       <c r="G356" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>When will they have female
+Tinpets in store? </v>
       </c>
       <c r="H356" s="23"/>
     </row>
@@ -65964,7 +66458,7 @@
       <c r="F359" s="27"/>
       <c r="G359" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x602c4</v>
       </c>
       <c r="H359" s="24" t="s">
         <v>92</v>
@@ -66054,7 +66548,8 @@
       <c r="F363" s="23"/>
       <c r="G363" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>I saw a RoboRobo member put
+on a disguise. </v>
       </c>
       <c r="H363" s="21"/>
     </row>
@@ -66077,7 +66572,11 @@
       <c r="F364" s="23"/>
       <c r="G364" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The Medarot Company
+researches a lot of different
+stuff, like new and unusual
+parts, as well as items from
+overseas. </v>
       </c>
       <c r="H364" s="23"/>
     </row>
@@ -66140,7 +66639,7 @@
       <c r="F367" s="23"/>
       <c r="G367" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>You have a sharp eye. </v>
       </c>
       <c r="H367" s="23"/>
     </row>
@@ -66272,7 +66771,8 @@
       <c r="F373" s="23"/>
       <c r="G373" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Don't get cocky because you
+won once or twice. </v>
       </c>
       <c r="H373" s="23"/>
     </row>
@@ -66341,7 +66841,7 @@
       <c r="F376" s="23"/>
       <c r="G376" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Nooo! </v>
       </c>
       <c r="H376" s="23"/>
     </row>
@@ -66387,7 +66887,8 @@
       <c r="F378" s="23"/>
       <c r="G378" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>You've become very strong! 'Til
+we meet again!♥ </v>
       </c>
       <c r="H378" s="23"/>
     </row>
@@ -66410,7 +66911,10 @@
       <c r="F379" s="23"/>
       <c r="G379" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>This place is like a garden to
+me.. 
+Which is why, I won't lose to
+you, no matter what! </v>
       </c>
       <c r="H379" s="21"/>
     </row>
@@ -66594,7 +67098,11 @@
       <c r="F387" s="23"/>
       <c r="G387" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Can you give this part a little
+test run? 
+Huh, it's not here... 
+Could it have gotten lost in
+the delivery?...Ah, oh well. </v>
       </c>
       <c r="H387" s="23"/>
     </row>
@@ -66661,7 +67169,8 @@
       <c r="F390" s="23"/>
       <c r="G390" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Could you test this item out
+for me? </v>
       </c>
       <c r="H390" s="23"/>
     </row>
@@ -66732,7 +67241,7 @@
       </c>
       <c r="G393" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Master Yuuki is in his bedroom. </v>
       </c>
       <c r="H393" s="23"/>
     </row>
@@ -66753,7 +67262,8 @@
       <c r="F394" s="23"/>
       <c r="G394" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Master Yuuki is out at the
+moment. </v>
       </c>
       <c r="H394" s="23"/>
     </row>
@@ -66776,7 +67286,7 @@
       <c r="F395" s="23"/>
       <c r="G395" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Move, I'm cleaning. </v>
       </c>
       <c r="H395" s="21" t="s">
         <v>87</v>
@@ -66851,7 +67361,12 @@
       <c r="F398" s="23"/>
       <c r="G398" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>I'm gonna try out a new
+product in the next
+tournament. 
+It's not good to blame your
+parts if you lose. Here, I'll
+give you a set too. </v>
       </c>
       <c r="H398" s="23"/>
     </row>
@@ -66895,7 +67410,15 @@
       <c r="F400" s="23"/>
       <c r="G400" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>You want to fix a broken
+Medal? 
+Well, a long time ago, my
+grandpa told me a story that
+if you place a Medal in the
+fountain at the Ruins on the
+night of a full moon, the Medal
+will be revived. 
+Isn't tonight a full moon? </v>
       </c>
       <c r="H400" s="23"/>
     </row>
@@ -66916,7 +67439,10 @@
       <c r="F401" s="23"/>
       <c r="G401" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>You should hurry and fix your
+Medal. 
+It bums me out when you're
+depressed. </v>
       </c>
       <c r="H401" s="23"/>
     </row>
@@ -66937,7 +67463,11 @@
       <c r="F402" s="23"/>
       <c r="G402" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Your Medarot has grown. 
+... 
+I guess it's expected. 
+Feel free to ask for a match
+anytime. </v>
       </c>
       <c r="H402" s="23"/>
     </row>
@@ -66979,7 +67509,8 @@
       <c r="F404" s="23"/>
       <c r="G404" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Don't make me regret calling
+you my rival. </v>
       </c>
       <c r="H404" s="23"/>
     </row>
@@ -67138,7 +67669,11 @@
       <c r="F411" s="23"/>
       <c r="G411" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>If you pay attention to the
+◆Charge ◇and ◆Cooldown ◇on
+your parts, you can shorten
+the gaps between your actions
+or strengthen their effects. </v>
       </c>
       <c r="H411" s="23"/>
     </row>
@@ -67322,7 +67857,7 @@
       <c r="F419" s="23"/>
       <c r="G419" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Y-you saw right through me! </v>
       </c>
       <c r="H419" s="21" t="s">
         <v>84</v>
@@ -67420,7 +67955,7 @@
       <c r="F423" s="23"/>
       <c r="G423" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>I'll remember this!! </v>
       </c>
       <c r="H423" s="23"/>
     </row>
@@ -67445,7 +67980,7 @@
       </c>
       <c r="G424" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The door is locked. </v>
       </c>
       <c r="H424" s="23"/>
     </row>
@@ -67493,7 +68028,7 @@
       <c r="F426" s="27"/>
       <c r="G426" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x60348</v>
       </c>
       <c r="H426" s="24" t="s">
         <v>92</v>
@@ -67543,7 +68078,7 @@
       <c r="F428" s="27"/>
       <c r="G428" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x60348</v>
       </c>
       <c r="H428" s="24" t="s">
         <v>92</v>
@@ -67610,7 +68145,8 @@
       <c r="F431" s="23"/>
       <c r="G431" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Man, I'm not doing so hot
+today... </v>
       </c>
       <c r="H431" s="21"/>
     </row>
@@ -67633,7 +68169,8 @@
       <c r="F432" s="23"/>
       <c r="G432" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The RoboRobo Gang must enjoy
+causing trouble for everyone. </v>
       </c>
       <c r="H432" s="23"/>
     </row>
@@ -67706,7 +68243,7 @@
       <c r="F435" s="27"/>
       <c r="G435" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x60358</v>
       </c>
       <c r="H435" s="24" t="s">
         <v>92</v>
@@ -67781,7 +68318,7 @@
       <c r="F438" s="27"/>
       <c r="G438" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x60358</v>
       </c>
       <c r="H438" s="24" t="s">
         <v>92</v>
@@ -67831,7 +68368,9 @@
       </c>
       <c r="G440" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>I personally like the blue ones. 
+It's like they're a sign of
+happiness. </v>
       </c>
       <c r="H440" s="21"/>
     </row>
@@ -67875,7 +68414,8 @@
       <c r="F442" s="23"/>
       <c r="G442" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The Antiques shop is always
+closed. </v>
       </c>
       <c r="H442" s="21" t="s">
         <v>87</v>
@@ -67921,7 +68461,9 @@
       <c r="F444" s="23"/>
       <c r="G444" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>You should probably try using
+parts compatible with your
+Medal's attribute. </v>
       </c>
       <c r="H444" s="23"/>
     </row>
@@ -67944,7 +68486,8 @@
       <c r="F445" s="23"/>
       <c r="G445" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Yaaay, summer vacation is
+here! </v>
       </c>
       <c r="H445" s="23"/>
     </row>
@@ -68095,7 +68638,9 @@
       <c r="F452" s="23"/>
       <c r="G452" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>It's using a Medal with a
+Select mark. So why's it still
+going berserk!? </v>
       </c>
       <c r="H452" s="23"/>
     </row>
@@ -68116,7 +68661,9 @@
       <c r="F453" s="23"/>
       <c r="G453" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The RoboRobo Gang is gone, so
+we don't really need the Select
+Force anymore. </v>
       </c>
       <c r="H453" s="23"/>
     </row>
@@ -68225,7 +68772,7 @@
       <c r="F458" s="27"/>
       <c r="G458" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x6038a</v>
       </c>
       <c r="H458" s="24" t="s">
         <v>92</v>
@@ -68250,7 +68797,10 @@
       <c r="F459" s="23"/>
       <c r="G459" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Must be nice to be a kid and
+still get summer vacation... 
+What? No, I didn't come here
+to slack off or anything! </v>
       </c>
       <c r="H459" s="23"/>
     </row>
@@ -68273,7 +68823,7 @@
       <c r="F460" s="23"/>
       <c r="G460" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Oh cool, a ¥10 coin. </v>
       </c>
       <c r="H460" s="23"/>
     </row>
@@ -68294,7 +68844,7 @@
       <c r="F461" s="23"/>
       <c r="G461" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Hm? This is a Medal! </v>
       </c>
       <c r="H461" s="23"/>
     </row>
@@ -68336,7 +68886,7 @@
       <c r="F463" s="23"/>
       <c r="G463" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Thank you. I will pay you back. </v>
       </c>
       <c r="H463" s="23"/>
     </row>
@@ -68357,7 +68907,7 @@
       <c r="F464" s="23"/>
       <c r="G464" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>It's no use! Give up! </v>
       </c>
       <c r="H464" s="23"/>
     </row>
@@ -68441,7 +68991,8 @@
       <c r="F468" s="23"/>
       <c r="G468" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>When I grow up, I will also be a
+Medarotter! </v>
       </c>
       <c r="H468" s="23"/>
     </row>
@@ -68487,7 +69038,12 @@
       <c r="F470" s="23"/>
       <c r="G470" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Aren't those the RoboRobo
+Gang's clothes? 
+Woof! Woof! 
+Did you pick it up after the
+battle with the RoboRobo Gang
+at the excavation site? </v>
       </c>
       <c r="H470" s="23"/>
     </row>
@@ -68558,7 +69114,7 @@
       <c r="F473" s="23"/>
       <c r="G473" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Ouch! </v>
       </c>
       <c r="H473" s="23"/>
     </row>
@@ -68627,7 +69183,14 @@
       <c r="F476" s="23"/>
       <c r="G476" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Wait, ────────! 
+You haven't Robottled before,
+have you? 
+Heh! We won't go easy on you
+just because you're a
+beginner! 
+C'mon, let's get this Robottle
+started! </v>
       </c>
       <c r="H476" s="23"/>
     </row>
@@ -68650,7 +69213,14 @@
       <c r="F477" s="23"/>
       <c r="G477" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Oh, what's that? Little baby's
+changed his mind? 
+Heh heh! Just what I thought,
+this guy's afraid of losing too! 
+────────! You'll lose if
+you let them get to you! 
+C'mon, let's get this Robottle
+started! </v>
       </c>
       <c r="H477" s="23"/>
     </row>
@@ -68842,7 +69412,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{5A3BA6FB-990B-41E1-8D9C-D681052C57BE}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{C303733D-C89D-44DD-A8FF-D92EBEA68217}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$1:$H$485">
         <filterColumn colId="3">
           <customFilters>
@@ -68851,7 +69421,7 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{8F4EFED8-5C6D-4FE5-9A87-0E0BEDC2408C}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{8965EAC8-BDD4-47FB-B5E5-FE9CD8CE2B54}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$1:$H$485">
         <sortState ref="B1:H485">
           <sortCondition ref="E1:E485"/>
@@ -69045,7 +69615,9 @@
       <c r="F6" s="23"/>
       <c r="G6" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>From here on out, I'll try my
+best to build a new Select
+Force. </v>
       </c>
       <c r="H6" s="23"/>
     </row>
@@ -69137,7 +69709,7 @@
       <c r="F10" s="27"/>
       <c r="G10" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v> </v>
       </c>
       <c r="H10" s="24" t="s">
         <v>92</v>
@@ -69262,7 +69834,14 @@
       <c r="F15" s="23"/>
       <c r="G15" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Hey, ────────, check it
+out! You're in the newspaper! 
+"Young heroic boy trumps the
+RoboRobo Gang!!". 
+You've grown so much, I'd
+expect no less from my son. 
+You'd make a great leader in
+the Select Force! </v>
       </c>
       <c r="H15" s="21" t="s">
         <v>87</v>
@@ -69287,7 +69866,9 @@
       <c r="F16" s="23"/>
       <c r="G16" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>If I was a bit younger, I
+would have joined the Select
+Force myself. </v>
       </c>
       <c r="H16" s="23"/>
     </row>
@@ -69335,7 +69916,8 @@
       <c r="F18" s="23"/>
       <c r="G18" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Be sure not to forget to do
+your homework. </v>
       </c>
       <c r="H18" s="21" t="s">
         <v>87</v>
@@ -69379,7 +69961,10 @@
       <c r="F20" s="23"/>
       <c r="G20" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>I saw Kirara come by a while
+ago. 
+It looks like she went to go
+look for you at the beach. </v>
       </c>
       <c r="H20" s="23"/>
     </row>
@@ -69400,7 +69985,9 @@
       <c r="F21" s="23"/>
       <c r="G21" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Calm down Beisuke. 
+You're making ────────
+nervous. </v>
       </c>
       <c r="H21" s="23"/>
     </row>
@@ -69421,7 +70008,8 @@
       <c r="F22" s="23"/>
       <c r="G22" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>I'm really glad you're safe,
+────────. </v>
       </c>
       <c r="H22" s="23"/>
     </row>
@@ -69471,7 +70059,22 @@
       </c>
       <c r="G24" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Here, I'll show you how you put
+it together... 
+Press ◆B◇ to open your ◆Info
+Pad◇ menu 
+You can find lots of useful
+information on your Medarot
+there. 
+Hmmm... But since you only have
+one set right now, you won't
+know how much fun it is to
+swap in different parts! 
+Here, I'll give you some extra
+allowance.  
+Use this to buy some extra
+parts for your new Medarot! 
+Got ¥5000 from dad. </v>
       </c>
       <c r="H24" s="21" t="s">
         <v>84</v>
@@ -69615,7 +70218,11 @@
       <c r="F30" s="23"/>
       <c r="G30" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Zzzz zzzz 
+Well done, Select! 
+Zzzz zzz... 
+Watch out for the RoboRobos.. 
+Zzzz zzz... </v>
       </c>
       <c r="H30" s="21" t="s">
         <v>84</v>
@@ -69638,7 +70245,10 @@
       <c r="F31" s="23"/>
       <c r="G31" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>────────! 
+You have school tomorrow, you
+need to get some rest. 
+Okay. </v>
       </c>
       <c r="H31" s="23"/>
     </row>
@@ -69703,7 +70313,7 @@
       <c r="F34" s="23"/>
       <c r="G34" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>*wah wah wahhh* </v>
       </c>
       <c r="H34" s="21" t="s">
         <v>84</v>
@@ -69726,7 +70336,7 @@
       <c r="F35" s="23"/>
       <c r="G35" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>I came to play! </v>
       </c>
       <c r="H35" s="21" t="s">
         <v>84</v>
@@ -69818,7 +70428,7 @@
       <c r="F39" s="23"/>
       <c r="G39" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>I'll stop by again sometime. </v>
       </c>
       <c r="H39" s="21" t="s">
         <v>84</v>
@@ -69843,7 +70453,12 @@
       <c r="F40" s="23"/>
       <c r="G40" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Oh, hello ────────. 
+How are you? 
+Have you started getting into
+Medarots? 
+I'm sure Kirara will be happy
+to hear that. </v>
       </c>
       <c r="H40" s="21" t="s">
         <v>87</v>
@@ -69866,7 +70481,10 @@
       <c r="F41" s="23"/>
       <c r="G41" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Kirara went to play at her
+grandma's house. 
+She won't be back for at
+least a week. </v>
       </c>
       <c r="H41" s="23"/>
     </row>
@@ -69979,7 +70597,10 @@
       <c r="F46" s="23"/>
       <c r="G46" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Wh-what do you want? 
+Don't just waltz into other
+people's houses. 
+Try asking first... </v>
       </c>
       <c r="H46" s="21" t="s">
         <v>84</v>
@@ -70027,7 +70648,7 @@
       <c r="F48" s="27"/>
       <c r="G48" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x6805a</v>
       </c>
       <c r="H48" s="24" t="s">
         <v>92</v>
@@ -70077,7 +70698,7 @@
       <c r="F50" s="27"/>
       <c r="G50" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x6805a</v>
       </c>
       <c r="H50" s="24" t="s">
         <v>92</v>
@@ -70127,7 +70748,8 @@
       <c r="F52" s="23"/>
       <c r="G52" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>I'm training right now, don't
+come in here. </v>
       </c>
       <c r="H52" s="21" t="s">
         <v>87</v>
@@ -70250,7 +70872,9 @@
       <c r="F57" s="23"/>
       <c r="G57" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>If your Medal's ◆Defense
+◇stat is high, it'll aim for enemy
+weak spots more often. </v>
       </c>
       <c r="H57" s="21" t="s">
         <v>87</v>
@@ -70275,7 +70899,8 @@
       <c r="F58" s="23"/>
       <c r="G58" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>I saw a Medarot climbing the
+stairs. </v>
       </c>
       <c r="H58" s="23"/>
     </row>
@@ -70344,7 +70969,7 @@
       <c r="F61" s="27"/>
       <c r="G61" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x68074</v>
       </c>
       <c r="H61" s="24" t="s">
         <v>92</v>
@@ -70369,7 +70994,8 @@
       <c r="F62" s="23"/>
       <c r="G62" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>They say this school is
+haunted... </v>
       </c>
       <c r="H62" s="23"/>
     </row>
@@ -70390,7 +71016,8 @@
       <c r="F63" s="23"/>
       <c r="G63" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The teacher's conductor's
+stick looks a little... off. </v>
       </c>
       <c r="H63" s="23"/>
     </row>
@@ -70434,7 +71061,11 @@
       <c r="F65" s="23"/>
       <c r="G65" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>What?! 
+This whole time I've been
+waving around a Medarot
+part!? 
+Oh, the humiliation! </v>
       </c>
       <c r="H65" s="23"/>
     </row>
@@ -70476,7 +71107,8 @@
       <c r="F67" s="23"/>
       <c r="G67" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Now I can conduct much more
+efficiently! </v>
       </c>
       <c r="H67" s="23"/>
     </row>
@@ -70520,7 +71152,7 @@
       <c r="F69" s="23"/>
       <c r="G69" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Has your Medal evolved yet? </v>
       </c>
       <c r="H69" s="23"/>
     </row>
@@ -70541,7 +71173,7 @@
       <c r="F70" s="23"/>
       <c r="G70" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>..... </v>
       </c>
       <c r="H70" s="23"/>
     </row>
@@ -70583,7 +71215,9 @@
       <c r="F72" s="23"/>
       <c r="G72" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Hm? Was there always this
+much smoke? 
+*cough* </v>
       </c>
       <c r="H72" s="23"/>
     </row>
@@ -70604,7 +71238,7 @@
       <c r="F73" s="23"/>
       <c r="G73" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Aah! I failed! </v>
       </c>
       <c r="H73" s="23"/>
     </row>
@@ -70822,7 +71456,9 @@
       <c r="F83" s="23"/>
       <c r="G83" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>With this, I can make a
+Medarot that eats other
+Medarots. </v>
       </c>
       <c r="H83" s="23"/>
     </row>
@@ -70843,7 +71479,8 @@
       <c r="F84" s="23"/>
       <c r="G84" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>It can't be helped. I'll just
+make do with other parts. </v>
       </c>
       <c r="H84" s="23"/>
     </row>
@@ -70864,7 +71501,8 @@
       <c r="F85" s="23"/>
       <c r="G85" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>If I connect this part and
+this part together... </v>
       </c>
       <c r="H85" s="23"/>
     </row>
@@ -70979,7 +71617,14 @@
       <c r="F90" s="23"/>
       <c r="G90" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>You may not have guessed it,
+but even I have a Medarot of
+my own. 
+She's a real cutie! ♥ 
+My Medarot is a type that
+specializes in repairs. 
+Perhaps I'll bring her in
+sometime? </v>
       </c>
       <c r="H90" s="23"/>
     </row>
@@ -71048,7 +71693,10 @@
       <c r="F93" s="23"/>
       <c r="G93" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>If you like, I could lend you my
+Medal. 
+But don't do anything reckless
+with it! </v>
       </c>
       <c r="H93" s="23"/>
     </row>
@@ -71092,7 +71740,7 @@
       <c r="F95" s="27"/>
       <c r="G95" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x680b8</v>
       </c>
       <c r="H95" s="24" t="s">
         <v>92</v>
@@ -71115,7 +71763,8 @@
       <c r="F96" s="23"/>
       <c r="G96" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>With this, I can protect the
+students! </v>
       </c>
       <c r="H96" s="23"/>
     </row>
@@ -71136,7 +71785,7 @@
       <c r="F97" s="23"/>
       <c r="G97" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Oh well. I'll ask someone else. </v>
       </c>
       <c r="H97" s="23"/>
     </row>
@@ -71245,7 +71894,8 @@
       <c r="F102" s="23"/>
       <c r="G102" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Come to think of it, I might
+have told you. </v>
       </c>
       <c r="H102" s="23"/>
     </row>
@@ -71404,7 +72054,7 @@
       <c r="F109" s="23"/>
       <c r="G109" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>I'm sad now... </v>
       </c>
       <c r="H109" s="23"/>
     </row>
@@ -71519,7 +72169,7 @@
       <c r="F114" s="27"/>
       <c r="G114" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x680dc</v>
       </c>
       <c r="H114" s="24" t="s">
         <v>92</v>
@@ -71594,7 +72244,7 @@
       <c r="F117" s="27"/>
       <c r="G117" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x680dc</v>
       </c>
       <c r="H117" s="24" t="s">
         <v>92</v>
@@ -71738,7 +72388,7 @@
       <c r="F123" s="23"/>
       <c r="G123" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Eeeek!! </v>
       </c>
       <c r="H123" s="23"/>
     </row>
@@ -71761,7 +72411,20 @@
       <c r="F124" s="23"/>
       <c r="G124" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Good morning, ────────! 
+Whoa! Don't startle me like
+that, Kirara. 
+Hey... Isn't that a Medal? 
+You were just saying a few
+days ago that Medarots were
+sooo lame! 
+(Ugh... I can't just say I
+picked it up because of her...) 
+Hey, did you just say
+something? 
+N-no, nothing. 
+You totally did!  
+Could you repeat that again? </v>
       </c>
       <c r="H124" s="21" t="s">
         <v>84</v>
@@ -71857,7 +72520,9 @@
       <c r="F128" s="23"/>
       <c r="G128" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>By this time tomorrow, I'll be
+on a plane to the southern
+island of Java... </v>
       </c>
       <c r="H128" s="23"/>
     </row>
@@ -71903,7 +72568,8 @@
       <c r="F130" s="23"/>
       <c r="G130" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Now that school's out, we can
+play with Medarots every day. </v>
       </c>
       <c r="H130" s="23"/>
     </row>
@@ -71926,7 +72592,9 @@
       <c r="F131" s="23"/>
       <c r="G131" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Kubota! We're going to
+Robottle at the park after
+school! </v>
       </c>
       <c r="H131" s="23"/>
     </row>
@@ -71949,7 +72617,9 @@
       <c r="F132" s="23"/>
       <c r="G132" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>I guess this is farewell. 
+I hope you won't forget about
+lil' old me. </v>
       </c>
       <c r="H132" s="23"/>
     </row>
@@ -72043,7 +72713,14 @@
       <c r="F136" s="23"/>
       <c r="G136" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>You were mentioned in the
+newspaper. 
+The RoboRobo Gang was right
+to stay in hiding while I was in
+town.  
+If they had tried to fight me,
+they wouldn't have stood a
+chance. </v>
       </c>
       <c r="H136" s="23"/>
     </row>
@@ -72114,7 +72791,9 @@
       <c r="F139" s="23"/>
       <c r="G139" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>...Hmph.  
+I'll beat you to a pulp in the
+town tournament. </v>
       </c>
       <c r="H139" s="23"/>
     </row>
@@ -72162,7 +72841,8 @@
       <c r="F141" s="23"/>
       <c r="G141" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Is everyone happy!? I'm
+happy!! </v>
       </c>
       <c r="H141" s="21" t="s">
         <v>87</v>
@@ -72185,7 +72865,9 @@
       <c r="F142" s="23"/>
       <c r="G142" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>This is terrible. Look at the
+Medarots! 
+Look at MY Medarot! </v>
       </c>
       <c r="H142" s="23"/>
     </row>
@@ -72248,7 +72930,13 @@
       <c r="F145" s="23"/>
       <c r="G145" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Are you okay!? 
+The Medarots have suddenly
+gone haywire. I'm worried
+about the kids! 
+Try not to go outside if that's
+possible, do you understand
+me!? </v>
       </c>
       <c r="H145" s="23"/>
     </row>
@@ -72290,7 +72978,7 @@
       <c r="F147" s="23"/>
       <c r="G147" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Ah... </v>
       </c>
       <c r="H147" s="23"/>
     </row>
@@ -72311,7 +72999,8 @@
       <c r="F148" s="23"/>
       <c r="G148" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Would you like to go out and
+play today? </v>
       </c>
       <c r="H148" s="23"/>
     </row>
@@ -72334,7 +73023,10 @@
       <c r="F149" s="23"/>
       <c r="G149" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>There are 4 part types:  
+Head, Right Arm, Left Arm,
+and Legs. 
+Try not to get them mixed up! </v>
       </c>
       <c r="H149" s="23"/>
     </row>
@@ -72382,7 +73074,11 @@
       <c r="F151" s="23"/>
       <c r="G151" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Yes, I have a Medarot of my
+own, too. 
+I'm not terribly fond of
+breaking things though, so my
+Medarot is a support type. </v>
       </c>
       <c r="H151" s="23"/>
     </row>
@@ -72405,7 +73101,8 @@
       <c r="F152" s="23"/>
       <c r="G152" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>I lost my book. Oh, whatever
+shall I do? </v>
       </c>
       <c r="H152" s="21" t="s">
         <v>87</v>
@@ -72516,7 +73213,7 @@
       <c r="F157" s="23"/>
       <c r="G157" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Reading is great. </v>
       </c>
       <c r="H157" s="23"/>
     </row>
@@ -72539,7 +73236,7 @@
       <c r="F158" s="27"/>
       <c r="G158" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x68136</v>
       </c>
       <c r="H158" s="24" t="s">
         <v>92</v>
@@ -72834,7 +73531,7 @@
       <c r="F171" s="23"/>
       <c r="G171" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Hey, check it out! </v>
       </c>
       <c r="H171" s="21" t="s">
         <v>89</v>
@@ -72928,7 +73625,7 @@
       <c r="F175" s="27"/>
       <c r="G175" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x68158</v>
       </c>
       <c r="H175" s="24" t="s">
         <v>92</v>
@@ -72997,7 +73694,12 @@
       <c r="F178" s="23"/>
       <c r="G178" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>It appears that if you
+combine two special Medals
+together, they will transform. 
+However, it seems there's
+more to it than simply putting
+them together. </v>
       </c>
       <c r="H178" s="23"/>
     </row>
@@ -73018,7 +73720,7 @@
       <c r="F179" s="23"/>
       <c r="G179" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>How is it? </v>
       </c>
       <c r="H179" s="23"/>
     </row>
@@ -73064,7 +73766,7 @@
       <c r="F181" s="27"/>
       <c r="G181" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x68164</v>
       </c>
       <c r="H181" s="24" t="s">
         <v>92</v>
@@ -73114,7 +73816,7 @@
       <c r="F183" s="27"/>
       <c r="G183" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x68168</v>
       </c>
       <c r="H183" s="24" t="s">
         <v>92</v>
@@ -73139,7 +73841,7 @@
       <c r="F184" s="23"/>
       <c r="G184" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Cotton candy is really light. </v>
       </c>
       <c r="H184" s="21" t="s">
         <v>84</v>
@@ -73279,7 +73981,10 @@
       <c r="F190" s="23"/>
       <c r="G190" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Those who have faith will be
+saved. 
+Will you please donate ¥50 as
+an offering? </v>
       </c>
       <c r="H190" s="23"/>
     </row>
@@ -73325,7 +74030,7 @@
       <c r="F192" s="27"/>
       <c r="G192" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x6817a</v>
       </c>
       <c r="H192" s="24" t="s">
         <v>92</v>
@@ -73398,7 +74103,8 @@
       <c r="F195" s="23"/>
       <c r="G195" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Show yourself, you coward! 
+I won't lose like this! </v>
       </c>
       <c r="H195" s="23"/>
     </row>
@@ -73444,7 +74150,7 @@
       <c r="F197" s="23"/>
       <c r="G197" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Tch, you just got lucky. </v>
       </c>
       <c r="H197" s="23"/>
     </row>
@@ -73490,7 +74196,7 @@
       <c r="F199" s="23"/>
       <c r="G199" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>I lost again... </v>
       </c>
       <c r="H199" s="23"/>
     </row>
@@ -73641,7 +74347,7 @@
       <c r="F206" s="23"/>
       <c r="G206" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>*rumble* *rumble* *rumble* </v>
       </c>
       <c r="H206" s="23"/>
     </row>
@@ -73710,7 +74416,11 @@
       <c r="F209" s="23"/>
       <c r="G209" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Have your Robottle skills
+improved? 
+I've got a bunch of parts on
+discount, so come on and buy
+them! </v>
       </c>
       <c r="H209" s="21" t="s">
         <v>87</v>
@@ -73735,7 +74445,11 @@
       <c r="F210" s="23"/>
       <c r="G210" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>I'm overstocked so feel free
+to buy from me. 
+¥500, how 'bout it? 
+What should I do...? 
+All right! I'll buy it! </v>
       </c>
       <c r="H210" s="21" t="s">
         <v>87</v>
@@ -73800,7 +74514,8 @@
       <c r="F213" s="23"/>
       <c r="G213" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Hurry and proceed to the
+stage, robo. </v>
       </c>
       <c r="H213" s="23"/>
     </row>
@@ -73842,7 +74557,13 @@
       <c r="F215" s="23"/>
       <c r="G215" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Now... 
+It's time for the ◆62nd
+RoboRobo Gang's
+Strongest Competition◇! 
+Yeah!! Yeah!! Yeah!! 
+Our first battle will be Member
+A versus Member B! </v>
       </c>
       <c r="H215" s="23"/>
     </row>
@@ -74031,7 +74752,8 @@
       <c r="F224" s="23"/>
       <c r="G224" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Fufufu, prepare yourself,
+robo. </v>
       </c>
       <c r="H224" s="23"/>
     </row>
@@ -74115,7 +74837,7 @@
       <c r="F228" s="23"/>
       <c r="G228" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Are you pulling my leg, robo? </v>
       </c>
       <c r="H228" s="23"/>
     </row>
@@ -74241,7 +74963,8 @@
       <c r="F234" s="23"/>
       <c r="G234" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Ah that's right. Give this card
+to the boss, robo. </v>
       </c>
       <c r="H234" s="23"/>
     </row>
@@ -74304,7 +75027,9 @@
       <c r="F237" s="23"/>
       <c r="G237" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Did you put on the badge,
+robo? 
+All right, you can pass, robo. </v>
       </c>
       <c r="H237" s="23"/>
     </row>
@@ -74348,7 +75073,10 @@
       <c r="F239" s="23"/>
       <c r="G239" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>There's a fisherman on the
+outskirts of town. Sometimes
+he'll give people what he
+catches. </v>
       </c>
       <c r="H239" s="23"/>
     </row>
@@ -74396,7 +75124,7 @@
       <c r="F241" s="27"/>
       <c r="G241" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x681da</v>
       </c>
       <c r="H241" s="24" t="s">
         <v>92</v>
@@ -74678,7 +75406,7 @@
       <c r="F253" s="23"/>
       <c r="G253" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Heave-ho! Heave-ho! </v>
       </c>
       <c r="H253" s="23"/>
     </row>
@@ -74942,7 +75670,10 @@
       <c r="F265" s="23"/>
       <c r="G265" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>I wanted to give you
+something for saving me, could
+you close your eyes for a
+second? </v>
       </c>
       <c r="H265" s="23"/>
     </row>
@@ -74984,7 +75715,15 @@
       <c r="F267" s="23"/>
       <c r="G267" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>I wanted to thank Bonaparte,
+he's the one who let you know
+I was in trouble after all. 
+Woof woof! 
+Y-you tricked me! 
+Don't say that,
+────────! 
+I did want you to come after
+all. </v>
       </c>
       <c r="H267" s="23"/>
     </row>
@@ -75030,7 +75769,7 @@
       <c r="F269" s="27"/>
       <c r="G269" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x68214</v>
       </c>
       <c r="H269" s="24" t="s">
         <v>92</v>
@@ -75074,7 +75813,8 @@
       <c r="F271" s="23"/>
       <c r="G271" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>I saw a girl waiting for you
+back there. </v>
       </c>
       <c r="H271" s="23"/>
     </row>
@@ -75095,7 +75835,8 @@
       <c r="F272" s="23"/>
       <c r="G272" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>It's always the biggest fish
+that gets away. </v>
       </c>
       <c r="H272" s="23"/>
     </row>
@@ -75118,7 +75859,8 @@
       <c r="F273" s="23"/>
       <c r="G273" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Do they sell any swim rings,
+robo? </v>
       </c>
       <c r="H273" s="21"/>
     </row>
@@ -75166,7 +75908,7 @@
       <c r="F275" s="23"/>
       <c r="G275" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>I-I'll remember this, robo! </v>
       </c>
       <c r="H275" s="21"/>
     </row>
@@ -75189,7 +75931,7 @@
       </c>
       <c r="G276" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>S-swim riiing! </v>
       </c>
       <c r="H276" s="23"/>
     </row>
@@ -75212,7 +75954,8 @@
       <c r="F277" s="23"/>
       <c r="G277" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Boss lost because there were
+no swim rings, robo! </v>
       </c>
       <c r="H277" s="23"/>
     </row>
@@ -75302,7 +76045,9 @@
       <c r="F281" s="23"/>
       <c r="G281" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Hey, let's spend some quality
+time, octo. 
+No means no! </v>
       </c>
       <c r="H281" s="23"/>
     </row>
@@ -75344,7 +76089,7 @@
       <c r="F283" s="23"/>
       <c r="G283" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Y-you'll regret this, octo! </v>
       </c>
       <c r="H283" s="23"/>
     </row>
@@ -75407,7 +76152,7 @@
       <c r="F286" s="23"/>
       <c r="G286" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>There were parts inside. </v>
       </c>
       <c r="H286" s="23"/>
     </row>
@@ -75449,7 +76194,7 @@
       <c r="F288" s="23"/>
       <c r="G288" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Something fell at your feet. </v>
       </c>
       <c r="H288" s="23"/>
     </row>
@@ -75564,7 +76309,7 @@
       <c r="F293" s="23"/>
       <c r="G293" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>This is one large building. </v>
       </c>
       <c r="H293" s="23"/>
     </row>
@@ -75585,7 +76330,15 @@
       <c r="F294" s="23"/>
       <c r="G294" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Are you okay, boy? 
+Huh? You're the chick seller. 
+It's a miracle you came out of
+there unscathed. 
+Hey, old man. 
+What are you doing here
+anyway? 
+And are there really aliens? 
+...Why do you know about that? </v>
       </c>
       <c r="H294" s="23"/>
     </row>
@@ -75675,7 +76428,7 @@
       <c r="F298" s="23"/>
       <c r="G298" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Hey! Quit fooling around! </v>
       </c>
       <c r="H298" s="23"/>
     </row>
@@ -75717,7 +76470,7 @@
       <c r="F300" s="23"/>
       <c r="G300" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The barrier's in the way! </v>
       </c>
       <c r="H300" s="23"/>
     </row>
@@ -75803,7 +76556,8 @@
       <c r="F304" s="23"/>
       <c r="G304" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The rice around here has
+gotten better lately. </v>
       </c>
       <c r="H304" s="23"/>
     </row>
@@ -75824,7 +76578,8 @@
       <c r="F305" s="23"/>
       <c r="G305" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The Select Force have reaped
+some rice already. </v>
       </c>
       <c r="H305" s="21"/>
     </row>
@@ -75891,7 +76646,9 @@
       <c r="F308" s="23"/>
       <c r="G308" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>I won a ticket to Shinobic
+Park from the lottery. What
+are the odds? </v>
       </c>
       <c r="H308" s="23"/>
     </row>
@@ -75937,7 +76694,8 @@
       <c r="F310" s="23"/>
       <c r="G310" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Are you ────────? Your
+father is on the roof. </v>
       </c>
       <c r="H310" s="23"/>
     </row>
@@ -76029,7 +76787,9 @@
       <c r="F314" s="23"/>
       <c r="G314" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>When an enemy suddenly
+appears, it's best not to fight
+recklessly. </v>
       </c>
       <c r="H314" s="23"/>
     </row>
@@ -76121,7 +76881,9 @@
       <c r="F318" s="23"/>
       <c r="G318" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Roaming around buildings that
+are under construction is
+dangerous. </v>
       </c>
       <c r="H318" s="23"/>
     </row>
@@ -76190,7 +76952,8 @@
       <c r="F321" s="23"/>
       <c r="G321" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Medarots are power! 
+Don't you think so too? </v>
       </c>
       <c r="H321" s="23"/>
     </row>
@@ -76332,7 +77095,8 @@
       <c r="F327" s="23"/>
       <c r="G327" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Thanks, Dad. 
+Be careful going back home. </v>
       </c>
       <c r="H327" s="23"/>
     </row>
@@ -76357,7 +77121,8 @@
       </c>
       <c r="G328" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Hm, wanna battle me? Caw
+caw! </v>
       </c>
       <c r="H328" s="21" t="s">
         <v>84</v>
@@ -76426,7 +77191,7 @@
       <c r="F331" s="23"/>
       <c r="G331" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>How did you get in here, robo!? </v>
       </c>
       <c r="H331" s="23"/>
     </row>
@@ -76468,7 +77233,12 @@
       <c r="F333" s="23"/>
       <c r="G333" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>There should be a computer
+somewhere in this building
+that's causing the Medarots
+to go berserk. 
+Hurry and stop it before it
+gets out of hand. </v>
       </c>
       <c r="H333" s="23"/>
     </row>
@@ -76489,7 +77259,10 @@
       <c r="F334" s="23"/>
       <c r="G334" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>We're being forced to create
+new Medarots. 
+I don't want to make a
+harmful Medarot... </v>
       </c>
       <c r="H334" s="23"/>
     </row>
@@ -76510,7 +77283,8 @@
       <c r="F335" s="23"/>
       <c r="G335" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Something is crawling around
+inside. </v>
       </c>
       <c r="H335" s="23"/>
     </row>
@@ -76638,7 +77412,7 @@
       <c r="F341" s="27"/>
       <c r="G341" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x682a4</v>
       </c>
       <c r="H341" s="24" t="s">
         <v>92</v>
@@ -76724,7 +77498,9 @@
       <c r="F345" s="23"/>
       <c r="G345" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Ho ho ho. I won't let you pass
+beyond this point. 
+Hold it!! </v>
       </c>
       <c r="H345" s="23"/>
     </row>
@@ -76789,7 +77565,8 @@
       <c r="F348" s="23"/>
       <c r="G348" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>We'll leave the rest to you! 
+...What is a "small fry"?! </v>
       </c>
       <c r="H348" s="21" t="s">
         <v>84</v>
@@ -76875,7 +77652,12 @@
       <c r="F352" s="23"/>
       <c r="G352" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>What's this? This is the one
+who bullied my Yuuki? 
+Time for some punishment. 
+I'm not a coward! 
+I was somewhere else during
+that time... </v>
       </c>
       <c r="H352" s="23"/>
     </row>
@@ -76896,7 +77678,7 @@
       <c r="F353" s="23"/>
       <c r="G353" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Here!! </v>
       </c>
       <c r="H353" s="23"/>
     </row>
@@ -76980,7 +77762,7 @@
       <c r="F357" s="23"/>
       <c r="G357" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Hey, you satisfied? </v>
       </c>
       <c r="H357" s="23"/>
     </row>
@@ -77001,7 +77783,8 @@
       <c r="F358" s="23"/>
       <c r="G358" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>I'll leave the rest to you. Good
+luck! </v>
       </c>
       <c r="H358" s="23"/>
     </row>
@@ -77022,7 +77805,9 @@
       <c r="F359" s="23"/>
       <c r="G359" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Why did they all come here...? I
+was doing all the fighting
+anyway... </v>
       </c>
       <c r="H359" s="23"/>
     </row>
@@ -77064,7 +77849,7 @@
       <c r="F361" s="23"/>
       <c r="G361" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>◆Bloom, flower of justice...◇ </v>
       </c>
       <c r="H361" s="23"/>
     </row>
@@ -77127,7 +77912,7 @@
       <c r="F364" s="23"/>
       <c r="G364" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>◆On the scene!!◇ </v>
       </c>
       <c r="H364" s="23"/>
     </row>
@@ -77190,7 +77975,7 @@
       <c r="F367" s="23"/>
       <c r="G367" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Roborobo roborobo. </v>
       </c>
       <c r="H367" s="23"/>
     </row>
@@ -77253,7 +78038,7 @@
       <c r="F370" s="23"/>
       <c r="G370" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Good job♥ </v>
       </c>
       <c r="H370" s="23"/>
     </row>
@@ -77295,7 +78080,7 @@
       <c r="F372" s="23"/>
       <c r="G372" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The world is mine!! </v>
       </c>
       <c r="H372" s="23"/>
     </row>
@@ -77316,7 +78101,9 @@
       <c r="F373" s="23"/>
       <c r="G373" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>What is this?! Me? Defeated?
+For the second time?! 
+Uuoooh!! </v>
       </c>
       <c r="H373" s="23"/>
     </row>
@@ -77337,7 +78124,9 @@
       <c r="F374" s="23"/>
       <c r="G374" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>What is this quake? 
+No! Impossible! It shouldn't be
+complete yet!! </v>
       </c>
       <c r="H374" s="23"/>
     </row>
@@ -77358,7 +78147,17 @@
       <c r="F375" s="23"/>
       <c r="G375" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Whatever, I don't care at
+this point! Attack! 
+I REFUSE TO FOLLOW YOUR
+ORDERS. 
+You dare to disobey me!? 
+I EXIST ONLY TO DESTROY. 
+I WILL DESTROY
+EVERYTHING!! 
+Ah, the usual boss after final
+boss pattern, I see. 
+Let's go! Robottle! </v>
       </c>
       <c r="H375" s="23"/>
     </row>
@@ -77379,7 +78178,8 @@
       <c r="F376" s="23"/>
       <c r="G376" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>DESTROY!! DESTROY!!
+DESTROY!! </v>
       </c>
       <c r="H376" s="23"/>
     </row>
@@ -77400,7 +78200,9 @@
       <c r="F377" s="23"/>
       <c r="G377" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v> DESTROY... DEST... ROY...
+DEST... 
+ ... </v>
       </c>
       <c r="H377" s="23"/>
     </row>
@@ -77421,7 +78223,7 @@
       <c r="F378" s="23"/>
       <c r="G378" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Th-the building is collapsing! </v>
       </c>
       <c r="H378" s="23"/>
     </row>
@@ -77463,7 +78265,12 @@
       <c r="F380" s="23"/>
       <c r="G380" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Select Force Chief Taiyou,
+you're under arrest for
+disturbing the peace, the
+abuse of Medarots, destroying
+the Select Building and many
+other offenses! </v>
       </c>
       <c r="H380" s="23"/>
     </row>
@@ -77551,7 +78358,9 @@
       <c r="F384" s="23"/>
       <c r="G384" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Crows like shiny things. 
+They have a bunch of stuff
+stockpiled in their nests. </v>
       </c>
       <c r="H384" s="23"/>
     </row>
@@ -77641,7 +78450,8 @@
       <c r="F388" s="23"/>
       <c r="G388" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Hey boy, let's Robottle... 
+A-Awoooooo! </v>
       </c>
       <c r="H388" s="23"/>
     </row>
@@ -77704,7 +78514,10 @@
       <c r="F391" s="23"/>
       <c r="G391" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>So you finally became a decent
+human being again? 
+Hm? Did I say something
+wrong? </v>
       </c>
       <c r="H391" s="23"/>
     </row>
@@ -77748,7 +78561,8 @@
       <c r="F393" s="23"/>
       <c r="G393" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Nothing like a cold one after
+work! </v>
       </c>
       <c r="H393" s="23"/>
     </row>
@@ -77840,7 +78654,9 @@
       <c r="F397" s="23"/>
       <c r="G397" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Let me see the earthenware... 
+This isn't earthenware! 
+*crash*! </v>
       </c>
       <c r="H397" s="23"/>
     </row>
@@ -77863,7 +78679,8 @@
       <c r="F398" s="23"/>
       <c r="G398" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The only thing I'm skilled at is
+earthenware. </v>
       </c>
       <c r="H398" s="23"/>
     </row>
@@ -77909,7 +78726,8 @@
       <c r="F400" s="23"/>
       <c r="G400" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Kintarou sumo wrestled a bear
+on the mountain. </v>
       </c>
       <c r="H400" s="23"/>
     </row>
@@ -77932,7 +78750,7 @@
       <c r="F401" s="27"/>
       <c r="G401" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x6831c</v>
       </c>
       <c r="H401" s="24" t="s">
         <v>92</v>
@@ -77957,7 +78775,8 @@
       <c r="F402" s="23"/>
       <c r="G402" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Kintarou flung a bear on the
+mountain. </v>
       </c>
       <c r="H402" s="23"/>
     </row>
@@ -78131,7 +78950,8 @@
       <c r="F410" s="23"/>
       <c r="G410" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Is nothing getting caught in
+my lure? </v>
       </c>
       <c r="H410" s="23"/>
     </row>
@@ -78269,7 +79089,7 @@
       <c r="F416" s="27"/>
       <c r="G416" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x68338</v>
       </c>
       <c r="H416" s="24" t="s">
         <v>92</v>
@@ -78384,7 +79204,7 @@
       <c r="F421" s="23"/>
       <c r="G421" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>I'll take your soul!! </v>
       </c>
       <c r="H421" s="23"/>
     </row>
@@ -78472,7 +79292,7 @@
       <c r="F425" s="23"/>
       <c r="G425" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Aah, a Tsuchinoko!? </v>
       </c>
       <c r="H425" s="23"/>
     </row>
@@ -78516,7 +79336,7 @@
       <c r="F427" s="23"/>
       <c r="G427" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The water is great, ukiii! </v>
       </c>
       <c r="H427" s="23"/>
     </row>
@@ -78539,7 +79359,8 @@
       <c r="F428" s="23"/>
       <c r="G428" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>I wonder if the clay around
+here would work? </v>
       </c>
       <c r="H428" s="23"/>
     </row>
@@ -78713,7 +79534,7 @@
       <c r="F436" s="23"/>
       <c r="G436" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Yo yo... </v>
       </c>
       <c r="H436" s="23"/>
     </row>
@@ -78759,7 +79580,7 @@
       <c r="F438" s="23"/>
       <c r="G438" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The Medal-like coin is gone. </v>
       </c>
       <c r="H438" s="23"/>
     </row>
@@ -78782,7 +79603,8 @@
       <c r="F439" s="23"/>
       <c r="G439" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Will you place the Medal-like
+coin back?  </v>
       </c>
       <c r="H439" s="21" t="s">
         <v>87</v>
@@ -78830,7 +79652,7 @@
       <c r="F441" s="23"/>
       <c r="G441" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Hey, cut it out, will you?! </v>
       </c>
       <c r="H441" s="23"/>
     </row>
@@ -78874,7 +79696,9 @@
       <c r="F443" s="23"/>
       <c r="G443" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The floor is giving off an odd
+glow. 
+It's luminous moss. </v>
       </c>
       <c r="H443" s="23"/>
     </row>
@@ -78895,7 +79719,7 @@
       <c r="F444" s="23"/>
       <c r="G444" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Uwaah! </v>
       </c>
       <c r="H444" s="23"/>
     </row>
@@ -78916,7 +79740,8 @@
       <c r="F445" s="23"/>
       <c r="G445" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>There's a toy fish laying
+around. </v>
       </c>
       <c r="H445" s="23"/>
     </row>
@@ -78987,7 +79812,9 @@
       <c r="F448" s="23"/>
       <c r="G448" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>You can sell parts that you
+win from Robottles at the
+store. </v>
       </c>
       <c r="H448" s="23"/>
     </row>
@@ -79008,7 +79835,9 @@
       <c r="F449" s="23"/>
       <c r="G449" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The Select Force protects the
+Earth from the RoboRobo
+Gang. </v>
       </c>
       <c r="H449" s="23"/>
     </row>
@@ -79123,7 +79952,9 @@
       <c r="F454" s="23"/>
       <c r="G454" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>It seems there is some kind of
+treasure hidden within the sea
+cave. </v>
       </c>
       <c r="H454" s="23"/>
     </row>
@@ -79144,7 +79975,8 @@
       <c r="F455" s="23"/>
       <c r="G455" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Oh, are you ────────? 
+Can I have your autograph? </v>
       </c>
       <c r="H455" s="23"/>
     </row>
@@ -79190,7 +80022,7 @@
       <c r="F457" s="23"/>
       <c r="G457" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Go play somewhere else, kid. </v>
       </c>
       <c r="H457" s="23"/>
     </row>
@@ -79213,7 +80045,7 @@
       <c r="F458" s="23"/>
       <c r="G458" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>I want to play with Medarots. </v>
       </c>
       <c r="H458" s="23"/>
     </row>
@@ -79309,7 +80141,7 @@
       <c r="F462" s="27"/>
       <c r="G462" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x68390</v>
       </c>
       <c r="H462" s="24" t="s">
         <v>92</v>
@@ -79503,7 +80335,7 @@
       <c r="F470" s="27"/>
       <c r="G470" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x683a4</v>
       </c>
       <c r="H470" s="24" t="s">
         <v>92</v>
@@ -79551,7 +80383,8 @@
       </c>
       <c r="G472" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Obtained ──────── part 
+◆────────◇! </v>
       </c>
       <c r="H472" s="21" t="s">
         <v>84</v>
@@ -79576,7 +80409,7 @@
       <c r="F473" s="21"/>
       <c r="G473" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Obtained ◆────────◇ Medal! </v>
       </c>
       <c r="H473" s="23"/>
     </row>
@@ -79621,7 +80454,7 @@
       </c>
       <c r="G475" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Obtained◆ ────────◇. </v>
       </c>
       <c r="H475" s="23"/>
     </row>
@@ -79692,7 +80525,7 @@
       <c r="F478" s="21"/>
       <c r="G478" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Lost ◆────────◇. </v>
       </c>
       <c r="H478" s="23"/>
     </row>
@@ -79738,7 +80571,7 @@
       <c r="F480" s="21"/>
       <c r="G480" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>What type of part? </v>
       </c>
       <c r="H480" s="23"/>
     </row>
@@ -79807,7 +80640,9 @@
       <c r="F483" s="21"/>
       <c r="G483" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>You can't carry any more. 
+Try selling some old parts
+first. </v>
       </c>
       <c r="H483" s="23"/>
     </row>
@@ -79876,7 +80711,13 @@
       <c r="F486" s="23"/>
       <c r="G486" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>That's right, today's the last
+day of school. 
+I guess I'll be free tomorrow... 
+I wonder what I should do... 
+What do you think,
+Bonaparte? 
+Woof! Woof! </v>
       </c>
       <c r="H486" s="23"/>
     </row>
@@ -79945,7 +80786,8 @@
       <c r="F489" s="23"/>
       <c r="G489" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>────────! Hurry
+downstairs! </v>
       </c>
       <c r="H489" s="23"/>
     </row>
@@ -79966,7 +80808,9 @@
       <c r="F490" s="23"/>
       <c r="G490" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>If you there's something you
+don't understand, you could
+always ask me. </v>
       </c>
       <c r="H490" s="23"/>
     </row>
@@ -79989,7 +80833,7 @@
       <c r="F491" s="27"/>
       <c r="G491" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x683ce</v>
       </c>
       <c r="H491" s="24" t="s">
         <v>92</v>
@@ -80064,7 +80908,7 @@
       <c r="F494" s="27"/>
       <c r="G494" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x683ce</v>
       </c>
       <c r="H494" s="24" t="s">
         <v>92</v>
@@ -80089,7 +80933,7 @@
       <c r="F495" s="27"/>
       <c r="G495" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>=0x683ce</v>
       </c>
       <c r="H495" s="24" t="s">
         <v>92</v>
@@ -80185,7 +81029,8 @@
       <c r="F499" s="23"/>
       <c r="G499" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>If you thought it was over,
+then you are sadly mistaken. </v>
       </c>
       <c r="H499" s="23"/>
     </row>
@@ -80277,7 +81122,9 @@
       <c r="F503" s="23"/>
       <c r="G503" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>So you only have 1 Medarot? 
+They say you can keep as
+many as 9. </v>
       </c>
       <c r="H503" s="23"/>
     </row>
@@ -80298,7 +81145,8 @@
       <c r="F504" s="23"/>
       <c r="G504" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>How's that? Are you finally
+beginning to understand? </v>
       </c>
       <c r="H504" s="23"/>
     </row>
@@ -80321,7 +81169,10 @@
       <c r="F505" s="23"/>
       <c r="G505" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>You can exchange one of the
+lottery tickets from the store
+for a single prize at the
+lottery. </v>
       </c>
       <c r="H505" s="23"/>
     </row>
@@ -80438,7 +81289,7 @@
       <c r="F510" s="23"/>
       <c r="G510" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Eeeeeek! I surrender! </v>
       </c>
       <c r="H510" s="23"/>
     </row>
@@ -80461,7 +81312,8 @@
       <c r="F511" s="23"/>
       <c r="G511" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>That's right, I knew you'd be
+too scared to face me! </v>
       </c>
       <c r="H511" s="23"/>
     </row>
@@ -80622,7 +81474,20 @@
       <c r="F518" s="23"/>
       <c r="G518" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Huh...? Who are you? 
+I am Yuuki Nimousaku and I
+am your rival! 
+The Robottle Tournament is
+made up of three smaller
+tournaments: 
+The ◆City Tournament◇, 
+the ◆Regional Tournament◇, 
+and the ◆Main Tournament◇. 
+If you progress through one
+tournament, you can move on
+to the next. 
+Try to learn from watching me
+fight. </v>
       </c>
       <c r="H518" s="23"/>
     </row>
@@ -80643,7 +81508,8 @@
       <c r="F519" s="23"/>
       <c r="G519" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Your father left for work to
+the Select Building. </v>
       </c>
       <c r="H519" s="23"/>
     </row>
@@ -80664,7 +81530,9 @@
       <c r="F520" s="23"/>
       <c r="G520" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Huh? You saw the Select
+Force Chief? 
+No one came over here. </v>
       </c>
       <c r="H520" s="23"/>
     </row>
@@ -80773,7 +81641,11 @@
       <c r="F525" s="23"/>
       <c r="G525" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>This has to be joke... The
+RoboRobo Gang was the Select
+Force the whole time... 
+I don't know who to trust
+anymore. </v>
       </c>
       <c r="H525" s="21"/>
     </row>
@@ -80836,7 +81708,7 @@
       <c r="F528" s="23"/>
       <c r="G528" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>I guess I'll play alone today... </v>
       </c>
       <c r="H528" s="23"/>
     </row>
@@ -80857,7 +81729,9 @@
       <c r="F529" s="23"/>
       <c r="G529" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Oh, ────────... 
+Hey, wanna Robottle? 
+Let's do it! </v>
       </c>
       <c r="H529" s="23"/>
     </row>
@@ -80928,7 +81802,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{8F4EFED8-5C6D-4FE5-9A87-0E0BEDC2408C}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{8965EAC8-BDD4-47FB-B5E5-FE9CD8CE2B54}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$1:$H$532">
         <sortState ref="B1:H532">
           <sortCondition ref="E1:E532"/>
@@ -81076,7 +81950,9 @@
       <c r="F4" s="23"/>
       <c r="G4" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The RoboRobo Gang have a
+base at the back of the
+Shrine. </v>
       </c>
       <c r="H4" s="23"/>
     </row>
@@ -81097,7 +81973,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The RoboRobo base is gone. </v>
       </c>
       <c r="H5" s="23"/>
     </row>
@@ -81145,7 +82021,7 @@
       <c r="F7" s="23"/>
       <c r="G7" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The stairs end halfway. </v>
       </c>
       <c r="H7" s="23"/>
     </row>
@@ -81233,7 +82109,8 @@
       <c r="F11" s="23"/>
       <c r="G11" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Not bad! You're doing pretty
+good. </v>
       </c>
       <c r="H11" s="23"/>
     </row>
@@ -81349,7 +82226,8 @@
       <c r="F16" s="23"/>
       <c r="G16" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Welcome to the Shinobic Park. 
+Come on in! </v>
       </c>
       <c r="H16" s="23"/>
     </row>
@@ -81372,7 +82250,8 @@
       <c r="F17" s="23"/>
       <c r="G17" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The sign reads "No
+Trespassing". </v>
       </c>
       <c r="H17" s="23"/>
     </row>
@@ -81564,7 +82443,7 @@
       <c r="F25" s="27"/>
       <c r="G25" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v> </v>
       </c>
       <c r="H25" s="24" t="s">
         <v>92</v>
@@ -81614,7 +82493,7 @@
       <c r="F27" s="27"/>
       <c r="G27" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v> </v>
       </c>
       <c r="H27" s="24" t="s">
         <v>92</v>
@@ -81639,7 +82518,7 @@
       <c r="F28" s="27"/>
       <c r="G28" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v> </v>
       </c>
       <c r="H28" s="24" t="s">
         <v>92</v>
@@ -81664,7 +82543,7 @@
       <c r="F29" s="27"/>
       <c r="G29" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v> </v>
       </c>
       <c r="H29" s="24" t="s">
         <v>92</v>
@@ -81739,7 +82618,7 @@
       <c r="F32" s="27"/>
       <c r="G32" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v> </v>
       </c>
       <c r="H32" s="24" t="s">
         <v>92</v>
@@ -81811,7 +82690,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{8F4EFED8-5C6D-4FE5-9A87-0E0BEDC2408C}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{8965EAC8-BDD4-47FB-B5E5-FE9CD8CE2B54}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$1:$H$35">
         <sortState ref="B1:H35">
           <sortCondition ref="E1:E35"/>
@@ -81961,7 +82840,7 @@
       <c r="F4" s="27"/>
       <c r="G4" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v> </v>
       </c>
       <c r="H4" s="24" t="s">
         <v>92</v>
@@ -82034,7 +82913,7 @@
       <c r="F7" s="23"/>
       <c r="G7" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>That was a good fight. </v>
       </c>
       <c r="H7" s="23"/>
     </row>
@@ -82357,7 +83236,7 @@
       <c r="F7" s="23"/>
       <c r="G7" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>It took my money! </v>
       </c>
       <c r="H7" s="23"/>
     </row>
@@ -82405,7 +83284,16 @@
       <c r="F9" s="23"/>
       <c r="G9" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Hey, ────────. Your
+father helps with work on the
+construction of the Select
+building, doesn't he? 
+How about paying him a
+surprise visit? 
+Huh? 
+◆ 
+◇I mean I'm not saying that
+you HAVE to go but.... </v>
       </c>
       <c r="H9" s="21" t="s">
         <v>89</v>
@@ -82453,7 +83341,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The rope ladder disappeared. </v>
       </c>
       <c r="H11" s="23"/>
     </row>
@@ -82625,7 +83513,10 @@
       <c r="F3" s="23"/>
       <c r="G3" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The winner is ────────
+Agata! 
+The runner-up, Yuuki
+Nimousaku! </v>
       </c>
       <c r="H3" s="23"/>
     </row>
@@ -82648,7 +83539,9 @@
       <c r="F4" s="23"/>
       <c r="G4" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The winner is Yuuki Nimousaku! 
+The runner-up, ────────
+Agata! </v>
       </c>
       <c r="H4" s="23"/>
     </row>
@@ -82874,7 +83767,10 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>No- no way! 
+You guys are... 
+aliens!? 
+▰You....!▱ </v>
       </c>
       <c r="H5" s="23"/>
     </row>
@@ -82958,7 +83854,7 @@
       <c r="F9" s="23"/>
       <c r="G9" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>Lighten up! </v>
       </c>
       <c r="H9" s="23"/>
     </row>
@@ -82979,7 +83875,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>The foreigners went home... </v>
       </c>
       <c r="H10" s="23"/>
     </row>
@@ -83127,7 +84023,7 @@
       <c r="F16" s="23"/>
       <c r="G16" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v> </v>
       </c>
       <c r="H16" s="21" t="s">
         <v>92</v>

--- a/sheet.xlsx
+++ b/sheet.xlsx
@@ -28,20 +28,20 @@
     <sheet state="visible" name="Credits" sheetId="23" r:id="rId25"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="Z_C303733D_C89D_44DD_A8FF_D92EBEA68217_.wvu.FilterData">StoryText1!$E$1:$E$105</definedName>
-    <definedName hidden="1" localSheetId="2" name="Z_C303733D_C89D_44DD_A8FF_D92EBEA68217_.wvu.FilterData">StoryText2!$B$1:$H$485</definedName>
-    <definedName hidden="1" localSheetId="2" name="Z_8965EAC8_BDD4_47FB_B5E5_FE9CD8CE2B54_.wvu.FilterData">StoryText2!$B$1:$H$485</definedName>
-    <definedName hidden="1" localSheetId="3" name="Z_8965EAC8_BDD4_47FB_B5E5_FE9CD8CE2B54_.wvu.FilterData">StoryText3!$B$1:$H$532</definedName>
-    <definedName hidden="1" localSheetId="4" name="Z_8965EAC8_BDD4_47FB_B5E5_FE9CD8CE2B54_.wvu.FilterData">Snippet1!$B$1:$H$35</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_BAA2026B_AF34_45E4_95A4_56139A306514_.wvu.FilterData">StoryText1!$E$1:$E$105</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_DD480565_081A_43E3_AC80_C3E2727E6934_.wvu.FilterData">StoryText1!$B$1:$H$105</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_9E610B81_B1AC_4382_A131_DE10EBBD78C3_.wvu.FilterData">StoryText1!$E$1:$E$105</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_5541889B_722A_477F_8893_DD2AE6BE8524_.wvu.FilterData">StoryText1!$E$1:$E$105</definedName>
+    <definedName hidden="1" localSheetId="2" name="Z_5541889B_722A_477F_8893_DD2AE6BE8524_.wvu.FilterData">StoryText2!$B$1:$H$485</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_2316EAE1_C074_4E7F_8ED0_2708CFBCB29A_.wvu.FilterData">StoryText1!$B$1:$H$105</definedName>
+    <definedName hidden="1" localSheetId="2" name="Z_BA7D1C37_B08B_41D7_B0CE_9DB053B91EDD_.wvu.FilterData">StoryText2!$B$1:$H$485</definedName>
+    <definedName hidden="1" localSheetId="3" name="Z_BA7D1C37_B08B_41D7_B0CE_9DB053B91EDD_.wvu.FilterData">StoryText3!$B$1:$H$532</definedName>
+    <definedName hidden="1" localSheetId="4" name="Z_BA7D1C37_B08B_41D7_B0CE_9DB053B91EDD_.wvu.FilterData">Snippet1!$B$1:$H$35</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C303733D-C89D-44DD-A8FF-D92EBEA68217}" name="Chapter 0 (Prologue)"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8965EAC8-BDD4-47FB-B5E5-FE9CD8CE2B54}" name="Sorted by location"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{BAA2026B-AF34-45E4-95A4-56139A306514}" name="Unidentified strings"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{DD480565-081A-43E3-AC80-C3E2727E6934}" name="Chapter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{5541889B-722A-477F-8893-DD2AE6BE8524}" name="Chapter 0 (Prologue)"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{BA7D1C37-B08B-41D7-B0CE-9DB053B91EDD}" name="Sorted by location"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9E610B81-B1AC-4382-A131-DE10EBBD78C3}" name="Unidentified strings"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{2316EAE1-C074-4E7F-8ED0-2708CFBCB29A}" name="Chapter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -64,7 +64,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10554" uniqueCount="7800">
   <si>
-    <t>rev. 18</t>
+    <t>rev. 19</t>
   </si>
   <si>
     <t>Translation Status</t>
@@ -3255,7 +3255,7 @@
 よくつれるぞ このルアー</t>
   </si>
   <si>
-    <t>&lt;@Fisherman&gt;Ooh! This is a very well-made lure.</t>
+    <t>&lt;@Fisherman&gt;Oh! This is a very well-made lure.</t>
   </si>
   <si>
     <t>B-34</t>
@@ -5331,9 +5331,9 @@
 そだててみたまえ</t>
   </si>
   <si>
-    <t>&lt;@Medarot&gt;Ooh, you have all of them!
+    <t>&lt;@Medarot&gt;Oh, you have all of them!
 In that case, here's a Medal as a rewa-
-Oh you already have it.
+Ah, you already have it.
 Hahaha!
 I guess I should give you this then, it's a prototype Medal.
 Use it on whatever Medarot you like.</t>
@@ -28533,7 +28533,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image16.png"/>
+        <xdr:cNvPr id="0" name="image7.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28561,7 +28561,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image48.png"/>
+        <xdr:cNvPr id="0" name="image11.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28589,7 +28589,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image21.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28617,7 +28617,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image20.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28645,7 +28645,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image18.png"/>
+        <xdr:cNvPr id="0" name="image12.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28673,7 +28673,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png"/>
+        <xdr:cNvPr id="0" name="image24.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28701,7 +28701,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png"/>
+        <xdr:cNvPr id="0" name="image6.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28757,7 +28757,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image23.png"/>
+        <xdr:cNvPr id="0" name="image9.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28785,7 +28785,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image21.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28813,7 +28813,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image22.png"/>
+        <xdr:cNvPr id="0" name="image16.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28841,7 +28841,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image20.png"/>
+        <xdr:cNvPr id="0" name="image15.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28869,7 +28869,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png"/>
+        <xdr:cNvPr id="0" name="image14.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28897,7 +28897,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="0" name="image27.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28925,7 +28925,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28953,7 +28953,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image13.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28981,7 +28981,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png"/>
+        <xdr:cNvPr id="0" name="image26.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29009,7 +29009,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image25.png"/>
+        <xdr:cNvPr id="0" name="image17.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29037,7 +29037,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image19.png"/>
+        <xdr:cNvPr id="0" name="image22.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29065,7 +29065,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image15.png"/>
+        <xdr:cNvPr id="0" name="image5.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29093,7 +29093,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image17.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29121,7 +29121,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png"/>
+        <xdr:cNvPr id="0" name="image18.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29149,7 +29149,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29177,7 +29177,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png"/>
+        <xdr:cNvPr id="0" name="image19.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29205,7 +29205,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png"/>
+        <xdr:cNvPr id="0" name="image8.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29233,7 +29233,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image24.png"/>
+        <xdr:cNvPr id="0" name="image30.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29261,7 +29261,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image33.png"/>
+        <xdr:cNvPr id="0" name="image28.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29289,7 +29289,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image31.png"/>
+        <xdr:cNvPr id="0" name="image29.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29317,7 +29317,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image27.png"/>
+        <xdr:cNvPr id="0" name="image32.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29345,7 +29345,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image32.png"/>
+        <xdr:cNvPr id="0" name="image23.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29373,7 +29373,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image29.png"/>
+        <xdr:cNvPr id="0" name="image25.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29401,7 +29401,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image28.png"/>
+        <xdr:cNvPr id="0" name="image31.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29429,7 +29429,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image47.png"/>
+        <xdr:cNvPr id="0" name="image52.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29457,7 +29457,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image36.png"/>
+        <xdr:cNvPr id="0" name="image39.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29485,7 +29485,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image26.png"/>
+        <xdr:cNvPr id="0" name="image36.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29513,7 +29513,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image30.png"/>
+        <xdr:cNvPr id="0" name="image44.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29541,7 +29541,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image35.png"/>
+        <xdr:cNvPr id="0" name="image40.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29569,7 +29569,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image45.png"/>
+        <xdr:cNvPr id="0" name="image41.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29597,7 +29597,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image53.png"/>
+        <xdr:cNvPr id="0" name="image33.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29625,7 +29625,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image41.png"/>
+        <xdr:cNvPr id="0" name="image43.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29653,7 +29653,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image40.png"/>
+        <xdr:cNvPr id="0" name="image35.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29681,7 +29681,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image34.png"/>
+        <xdr:cNvPr id="0" name="image45.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29709,7 +29709,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image42.png"/>
+        <xdr:cNvPr id="0" name="image38.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29737,7 +29737,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image55.png"/>
+        <xdr:cNvPr id="0" name="image37.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29765,7 +29765,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image37.png"/>
+        <xdr:cNvPr id="0" name="image54.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29793,7 +29793,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image39.png"/>
+        <xdr:cNvPr id="0" name="image55.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29821,7 +29821,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image38.png"/>
+        <xdr:cNvPr id="0" name="image34.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29849,7 +29849,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image43.png"/>
+        <xdr:cNvPr id="0" name="image50.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29877,7 +29877,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image44.png"/>
+        <xdr:cNvPr id="0" name="image46.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29905,7 +29905,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image46.png"/>
+        <xdr:cNvPr id="0" name="image42.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29961,7 +29961,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image59.png"/>
+        <xdr:cNvPr id="0" name="image51.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -29989,7 +29989,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image50.png"/>
+        <xdr:cNvPr id="0" name="image47.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30017,7 +30017,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image65.png"/>
+        <xdr:cNvPr id="0" name="image53.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30045,7 +30045,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image51.png"/>
+        <xdr:cNvPr id="0" name="image57.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30073,7 +30073,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image56.png"/>
+        <xdr:cNvPr id="0" name="image58.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30101,7 +30101,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image58.png"/>
+        <xdr:cNvPr id="0" name="image74.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30129,7 +30129,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image54.png"/>
+        <xdr:cNvPr id="0" name="image61.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30157,7 +30157,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image57.png"/>
+        <xdr:cNvPr id="0" name="image68.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30185,7 +30185,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image52.png"/>
+        <xdr:cNvPr id="0" name="image56.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30213,7 +30213,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image60.png"/>
+        <xdr:cNvPr id="0" name="image48.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30241,7 +30241,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image62.png"/>
+        <xdr:cNvPr id="0" name="image77.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30269,7 +30269,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image61.png"/>
+        <xdr:cNvPr id="0" name="image65.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30297,7 +30297,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image63.png"/>
+        <xdr:cNvPr id="0" name="image69.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30325,7 +30325,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image85.png"/>
+        <xdr:cNvPr id="0" name="image63.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30353,7 +30353,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image70.png"/>
+        <xdr:cNvPr id="0" name="image66.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30381,7 +30381,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image64.png"/>
+        <xdr:cNvPr id="0" name="image67.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30409,7 +30409,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image67.png"/>
+        <xdr:cNvPr id="0" name="image62.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30437,7 +30437,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image66.png"/>
+        <xdr:cNvPr id="0" name="image60.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30465,7 +30465,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image72.png"/>
+        <xdr:cNvPr id="0" name="image73.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30493,7 +30493,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image71.png"/>
+        <xdr:cNvPr id="0" name="image70.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30521,7 +30521,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image69.png"/>
+        <xdr:cNvPr id="0" name="image72.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30549,7 +30549,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image84.png"/>
+        <xdr:cNvPr id="0" name="image76.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30577,7 +30577,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image73.png"/>
+        <xdr:cNvPr id="0" name="image71.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30605,7 +30605,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image68.png"/>
+        <xdr:cNvPr id="0" name="image59.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30633,7 +30633,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image94.png"/>
+        <xdr:cNvPr id="0" name="image78.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30661,7 +30661,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image76.png"/>
+        <xdr:cNvPr id="0" name="image79.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30689,7 +30689,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image74.png"/>
+        <xdr:cNvPr id="0" name="image80.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30717,7 +30717,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image83.png"/>
+        <xdr:cNvPr id="0" name="image75.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30745,7 +30745,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image79.png"/>
+        <xdr:cNvPr id="0" name="image81.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30773,7 +30773,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image88.png"/>
+        <xdr:cNvPr id="0" name="image64.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30801,7 +30801,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image75.png"/>
+        <xdr:cNvPr id="0" name="image83.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30829,7 +30829,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image78.png"/>
+        <xdr:cNvPr id="0" name="image86.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30857,7 +30857,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image77.png"/>
+        <xdr:cNvPr id="0" name="image100.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30885,7 +30885,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image80.png"/>
+        <xdr:cNvPr id="0" name="image85.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30913,7 +30913,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image91.png"/>
+        <xdr:cNvPr id="0" name="image82.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30941,7 +30941,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image82.png"/>
+        <xdr:cNvPr id="0" name="image88.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30969,7 +30969,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image81.png"/>
+        <xdr:cNvPr id="0" name="image93.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -30997,7 +30997,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image96.png"/>
+        <xdr:cNvPr id="0" name="image97.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31025,7 +31025,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image89.png"/>
+        <xdr:cNvPr id="0" name="image90.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31053,7 +31053,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image87.png"/>
+        <xdr:cNvPr id="0" name="image113.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31081,7 +31081,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image86.png"/>
+        <xdr:cNvPr id="0" name="image84.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31109,7 +31109,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image90.png"/>
+        <xdr:cNvPr id="0" name="image101.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31137,7 +31137,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image102.png"/>
+        <xdr:cNvPr id="0" name="image91.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31165,7 +31165,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image105.png"/>
+        <xdr:cNvPr id="0" name="image99.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31193,7 +31193,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image93.png"/>
+        <xdr:cNvPr id="0" name="image102.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31221,7 +31221,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image92.png"/>
+        <xdr:cNvPr id="0" name="image98.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31249,7 +31249,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image100.png"/>
+        <xdr:cNvPr id="0" name="image92.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31277,7 +31277,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image101.png"/>
+        <xdr:cNvPr id="0" name="image96.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31305,7 +31305,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image95.png"/>
+        <xdr:cNvPr id="0" name="image87.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31333,7 +31333,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image97.png"/>
+        <xdr:cNvPr id="0" name="image95.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31361,7 +31361,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image108.png"/>
+        <xdr:cNvPr id="0" name="image89.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31389,7 +31389,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image104.png"/>
+        <xdr:cNvPr id="0" name="image94.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31417,7 +31417,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image99.png"/>
+        <xdr:cNvPr id="0" name="image104.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31445,7 +31445,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image106.png"/>
+        <xdr:cNvPr id="0" name="image103.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31473,7 +31473,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image98.png"/>
+        <xdr:cNvPr id="0" name="image106.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31501,7 +31501,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image103.png"/>
+        <xdr:cNvPr id="0" name="image111.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31529,7 +31529,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image112.png"/>
+        <xdr:cNvPr id="0" name="image107.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31557,7 +31557,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image114.png"/>
+        <xdr:cNvPr id="0" name="image112.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31585,7 +31585,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image107.png"/>
+        <xdr:cNvPr id="0" name="image109.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31641,7 +31641,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image111.png"/>
+        <xdr:cNvPr id="0" name="image105.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31669,7 +31669,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image109.png"/>
+        <xdr:cNvPr id="0" name="image114.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -31697,7 +31697,7 @@
     <xdr:ext cx="200025" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image113.png"/>
+        <xdr:cNvPr id="0" name="image108.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -33654,8 +33654,7 @@
       <c r="E4" s="23"/>
       <c r="F4" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Inflicted ◆Stop ◇status! 
-Unable to move! </v>
+        <v>Loading...</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>87</v>
@@ -33751,8 +33750,7 @@
       <c r="E9" s="23"/>
       <c r="F9" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>────────'s ◆Bind◇ wore
-off! </v>
+        <v>Loading...</v>
       </c>
       <c r="G9" s="23"/>
     </row>
@@ -33788,8 +33786,7 @@
       <c r="E11" s="23"/>
       <c r="F11" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>There are no status effects
-to clear! </v>
+        <v>Loading...</v>
       </c>
       <c r="G11" s="23"/>
     </row>
@@ -33845,8 +33842,7 @@
       <c r="E14" s="23"/>
       <c r="F14" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>──────── cleared all
-◆Stop ◇status! </v>
+        <v>Loading...</v>
       </c>
       <c r="G14" s="23"/>
     </row>
@@ -33902,8 +33898,7 @@
       <c r="E17" s="23"/>
       <c r="F17" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>...But it took damage from the
-blast! </v>
+        <v>Loading...</v>
       </c>
       <c r="G17" s="23"/>
     </row>
@@ -33951,7 +33946,7 @@
       <c r="E20" s="27"/>
       <c r="F20" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>=0x7401e</v>
+        <v>Loading...</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>92</v>
@@ -34113,7 +34108,7 @@
       <c r="E28" s="23"/>
       <c r="F28" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>Medal Museum </v>
+        <v>Loading...</v>
       </c>
       <c r="G28" s="23"/>
     </row>
@@ -34153,7 +34148,7 @@
       <c r="E30" s="23"/>
       <c r="F30" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>Lottery Shop </v>
+        <v>Loading...</v>
       </c>
       <c r="G30" s="23"/>
     </row>
@@ -34233,7 +34228,7 @@
       <c r="E34" s="23"/>
       <c r="F34" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>Medarot Company </v>
+        <v>Loading...</v>
       </c>
       <c r="G34" s="23"/>
     </row>
@@ -34253,7 +34248,7 @@
       <c r="E35" s="23"/>
       <c r="F35" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>Yuuki's House </v>
+        <v>Loading...</v>
       </c>
       <c r="G35" s="23"/>
     </row>
@@ -34333,7 +34328,7 @@
       <c r="E39" s="23"/>
       <c r="F39" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>Iseki's House </v>
+        <v>Loading...</v>
       </c>
       <c r="G39" s="23"/>
     </row>
@@ -34373,7 +34368,7 @@
       <c r="E41" s="23"/>
       <c r="F41" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>Yanma's House </v>
+        <v>Loading...</v>
       </c>
       <c r="G41" s="23"/>
     </row>
@@ -34393,7 +34388,7 @@
       <c r="E42" s="23"/>
       <c r="F42" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>Antiques </v>
+        <v>Loading...</v>
       </c>
       <c r="G42" s="23"/>
     </row>
@@ -34453,7 +34448,7 @@
       <c r="E45" s="23"/>
       <c r="F45" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>Mayor's House </v>
+        <v>Loading...</v>
       </c>
       <c r="G45" s="23"/>
     </row>
@@ -34513,8 +34508,7 @@
       <c r="E48" s="23"/>
       <c r="F48" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>It's a bug I've never seen
-before. </v>
+        <v>Loading...</v>
       </c>
       <c r="G48" s="23"/>
     </row>
@@ -34534,8 +34528,7 @@
       <c r="E49" s="23"/>
       <c r="F49" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>The newest parts are on
-display. </v>
+        <v>Loading...</v>
       </c>
       <c r="G49" s="21"/>
     </row>
@@ -34555,7 +34548,7 @@
       <c r="E50" s="23"/>
       <c r="F50" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>W-Whoa! This Medal is amazing! </v>
+        <v>Loading...</v>
       </c>
       <c r="G50" s="21"/>
     </row>
@@ -34615,9 +34608,7 @@
       <c r="E53" s="23"/>
       <c r="F53" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>It's a vending machine for
-parts! 
-...But everything's sold out. </v>
+        <v>Loading...</v>
       </c>
       <c r="G53" s="23"/>
     </row>
@@ -34637,8 +34628,7 @@
       <c r="E54" s="23"/>
       <c r="F54" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>◆Please do not feed the
-Medarots◇ </v>
+        <v>Loading...</v>
       </c>
       <c r="G54" s="21" t="s">
         <v>89</v>
@@ -34708,7 +34698,7 @@
       <c r="E58" s="27"/>
       <c r="F58" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>=0x74068</v>
+        <v>Loading...</v>
       </c>
       <c r="G58" s="24" t="s">
         <v>92</v>
@@ -34906,7 +34896,7 @@
       <c r="E67" s="27"/>
       <c r="F67" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>=0x74068</v>
+        <v>Loading...</v>
       </c>
       <c r="G67" s="24" t="s">
         <v>92</v>
@@ -34972,7 +34962,7 @@
       <c r="E70" s="27"/>
       <c r="F70" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>=0x74068</v>
+        <v>Loading...</v>
       </c>
       <c r="G70" s="24" t="s">
         <v>92</v>
@@ -34994,7 +34984,7 @@
       <c r="E71" s="27"/>
       <c r="F71" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>=0x74068</v>
+        <v>Loading...</v>
       </c>
       <c r="G71" s="24" t="s">
         <v>92</v>
@@ -35016,7 +35006,7 @@
       <c r="E72" s="27"/>
       <c r="F72" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>=0x74068</v>
+        <v>Loading...</v>
       </c>
       <c r="G72" s="24" t="s">
         <v>92</v>
@@ -35126,7 +35116,7 @@
       <c r="E77" s="27"/>
       <c r="F77" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>=0x74068</v>
+        <v>Loading...</v>
       </c>
       <c r="G77" s="24" t="s">
         <v>92</v>
@@ -35236,7 +35226,7 @@
       <c r="E82" s="27"/>
       <c r="F82" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>=0x74068</v>
+        <v>Loading...</v>
       </c>
       <c r="G82" s="24" t="s">
         <v>92</v>
@@ -35258,7 +35248,7 @@
       <c r="E83" s="27"/>
       <c r="F83" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>=0x74068</v>
+        <v>Loading...</v>
       </c>
       <c r="G83" s="24" t="s">
         <v>92</v>
@@ -35280,7 +35270,7 @@
       <c r="E84" s="27"/>
       <c r="F84" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>=0x74068</v>
+        <v>Loading...</v>
       </c>
       <c r="G84" s="24" t="s">
         <v>92</v>
@@ -35358,9 +35348,7 @@
       <c r="E88" s="23"/>
       <c r="F88" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>Shoot skill increased by
-────────! 
- </v>
+        <v>Loading...</v>
       </c>
       <c r="G88" s="23"/>
     </row>
@@ -35396,9 +35384,7 @@
       <c r="E90" s="23"/>
       <c r="F90" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>Support skill increased by
-────────! 
- </v>
+        <v>Loading...</v>
       </c>
       <c r="G90" s="23"/>
     </row>
@@ -35522,7 +35508,7 @@
       <c r="E97" s="27"/>
       <c r="F97" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>=0x740b4</v>
+        <v>Loading...</v>
       </c>
       <c r="G97" s="24" t="s">
         <v>92</v>
@@ -35544,7 +35530,7 @@
       <c r="E98" s="27"/>
       <c r="F98" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>=0x740b4</v>
+        <v>Loading...</v>
       </c>
       <c r="G98" s="24" t="s">
         <v>92</v>
@@ -35588,7 +35574,7 @@
       <c r="E100" s="27"/>
       <c r="F100" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>=0x740b4</v>
+        <v>Loading...</v>
       </c>
       <c r="G100" s="24" t="s">
         <v>92</v>
@@ -35610,7 +35596,7 @@
       <c r="E101" s="27"/>
       <c r="F101" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>=0x740b4</v>
+        <v>Loading...</v>
       </c>
       <c r="G101" s="24" t="s">
         <v>92</v>
@@ -35654,7 +35640,7 @@
       <c r="E103" s="27"/>
       <c r="F103" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>=0x740b4</v>
+        <v>Loading...</v>
       </c>
       <c r="G103" s="24" t="s">
         <v>92</v>
@@ -35764,7 +35750,7 @@
       <c r="E108" s="27"/>
       <c r="F108" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>=0x740b4</v>
+        <v>Loading...</v>
       </c>
       <c r="G108" s="24" t="s">
         <v>92</v>
@@ -35808,7 +35794,7 @@
       <c r="E110" s="27"/>
       <c r="F110" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>=0x740b4</v>
+        <v>Loading...</v>
       </c>
       <c r="G110" s="24" t="s">
         <v>92</v>
@@ -35830,7 +35816,7 @@
       <c r="E111" s="27"/>
       <c r="F111" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>=0x740b4</v>
+        <v>Loading...</v>
       </c>
       <c r="G111" s="24" t="s">
         <v>92</v>
@@ -35962,7 +35948,7 @@
       <c r="E117" s="27"/>
       <c r="F117" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>=0x740b4</v>
+        <v>Loading...</v>
       </c>
       <c r="G117" s="24" t="s">
         <v>92</v>
@@ -36006,7 +35992,7 @@
       <c r="E119" s="27"/>
       <c r="F119" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>=0x740b4</v>
+        <v>Loading...</v>
       </c>
       <c r="G119" s="24" t="s">
         <v>92</v>
@@ -36050,7 +36036,7 @@
       <c r="E121" s="27"/>
       <c r="F121" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>=0x740b4</v>
+        <v>Loading...</v>
       </c>
       <c r="G121" s="24" t="s">
         <v>92</v>
@@ -36182,7 +36168,7 @@
       <c r="E127" s="23"/>
       <c r="F127" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>The link Robottle will now begin! </v>
+        <v>Loading...</v>
       </c>
       <c r="G127" s="23"/>
     </row>
@@ -36202,7 +36188,7 @@
       <c r="E128" s="23"/>
       <c r="F128" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>You can't use that!! </v>
+        <v>Loading...</v>
       </c>
       <c r="G128" s="23"/>
     </row>
@@ -36262,8 +36248,7 @@
       <c r="E131" s="23"/>
       <c r="F131" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>Are you sure you want to
-throw it away? </v>
+        <v>Loading...</v>
       </c>
       <c r="G131" s="23"/>
     </row>
@@ -36371,8 +36356,7 @@
       </c>
       <c r="F137" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>────────'s Strike
-attack! ────────! </v>
+        <v>Loading...</v>
       </c>
       <c r="G137" s="23"/>
     </row>
@@ -36392,8 +36376,7 @@
       </c>
       <c r="F138" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>────────'s Berserk
-attack! ────────! </v>
+        <v>Loading...</v>
       </c>
       <c r="G138" s="23"/>
     </row>
@@ -36539,8 +36522,7 @@
       <c r="E146" s="23"/>
       <c r="F146" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>────────'s legs were
-destroyed. </v>
+        <v>Loading...</v>
       </c>
       <c r="G146" s="23"/>
     </row>
@@ -36578,8 +36560,7 @@
       <c r="E148" s="23"/>
       <c r="F148" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>──────── dodged the
-attack! </v>
+        <v>Loading...</v>
       </c>
       <c r="G148" s="23"/>
     </row>
@@ -36637,8 +36618,7 @@
       <c r="E151" s="23"/>
       <c r="F151" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>──────── used a support
-action! </v>
+        <v>Loading...</v>
       </c>
       <c r="G151" s="21" t="s">
         <v>87</v>
@@ -36702,8 +36682,7 @@
       </c>
       <c r="F154" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>Cooldown succeeded. 
- </v>
+        <v>Loading...</v>
       </c>
       <c r="G154" s="23"/>
     </row>
@@ -36723,8 +36702,7 @@
       </c>
       <c r="F155" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>Cooldown failed. 
- </v>
+        <v>Loading...</v>
       </c>
       <c r="G155" s="23"/>
     </row>
@@ -36764,8 +36742,7 @@
       <c r="E157" s="23"/>
       <c r="F157" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>Defeated the enemy leader! 
- </v>
+        <v>Loading...</v>
       </c>
       <c r="G157" s="23"/>
     </row>
@@ -36805,8 +36782,7 @@
       <c r="E159" s="23"/>
       <c r="F159" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>The guard Medarot took the
-hit! </v>
+        <v>Loading...</v>
       </c>
       <c r="G159" s="21" t="s">
         <v>87</v>
@@ -36848,7 +36824,7 @@
       <c r="E161" s="23"/>
       <c r="F161" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>──────── shut down! </v>
+        <v>Loading...</v>
       </c>
       <c r="G161" s="23"/>
     </row>
@@ -36868,8 +36844,7 @@
       </c>
       <c r="F162" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>────────'s defense was
-successful! </v>
+        <v>Loading...</v>
       </c>
       <c r="G162" s="23"/>
     </row>
@@ -36909,8 +36884,7 @@
       <c r="E164" s="23"/>
       <c r="F164" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>The target has already shut
-down! </v>
+        <v>Loading...</v>
       </c>
       <c r="G164" s="23"/>
     </row>
@@ -36930,8 +36904,7 @@
       <c r="E165" s="23"/>
       <c r="F165" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>The targeted part is already
-broken! </v>
+        <v>Loading...</v>
       </c>
       <c r="G165" s="23"/>
     </row>
@@ -36971,8 +36944,7 @@
       <c r="E167" s="23"/>
       <c r="F167" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>────────'s trap failed to
-set! </v>
+        <v>Loading...</v>
       </c>
       <c r="G167" s="23"/>
     </row>
@@ -36992,7 +36964,7 @@
       <c r="E168" s="23"/>
       <c r="F168" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>────────'s trap was set! </v>
+        <v>Loading...</v>
       </c>
       <c r="G168" s="23"/>
     </row>
@@ -37052,7 +37024,7 @@
       <c r="E171" s="23"/>
       <c r="F171" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>The trap was cleared! </v>
+        <v>Loading...</v>
       </c>
       <c r="G171" s="21" t="s">
         <v>87</v>
@@ -37090,7 +37062,7 @@
       <c r="E173" s="23"/>
       <c r="F173" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>────────'s clear failed! </v>
+        <v>Loading...</v>
       </c>
       <c r="G173" s="23"/>
     </row>
@@ -37128,8 +37100,7 @@
       <c r="E175" s="23"/>
       <c r="F175" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>──────── cleared the
-barrier! </v>
+        <v>Loading...</v>
       </c>
       <c r="G175" s="23"/>
     </row>
@@ -37169,7 +37140,7 @@
       </c>
       <c r="F177" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>────────'s clear failed! </v>
+        <v>Loading...</v>
       </c>
       <c r="G177" s="23"/>
     </row>
@@ -37301,8 +37272,7 @@
       <c r="E184" s="23"/>
       <c r="F184" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>────────'s left arm was
-repaired! </v>
+        <v>Loading...</v>
       </c>
       <c r="G184" s="23"/>
     </row>
@@ -37338,8 +37308,7 @@
       <c r="E186" s="23"/>
       <c r="F186" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>──────── scanned the
-area! </v>
+        <v>Loading...</v>
       </c>
       <c r="G186" s="23"/>
     </row>
@@ -37399,7 +37368,7 @@
       <c r="E189" s="23"/>
       <c r="F189" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>But it remained visible! </v>
+        <v>Loading...</v>
       </c>
       <c r="G189" s="23"/>
     </row>
@@ -37417,7 +37386,7 @@
       <c r="E190" s="23"/>
       <c r="F190" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>Evasion increased! </v>
+        <v>Loading...</v>
       </c>
       <c r="G190" s="23"/>
     </row>
@@ -37455,7 +37424,7 @@
       <c r="E192" s="23"/>
       <c r="F192" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>There was no effect! </v>
+        <v>Loading...</v>
       </c>
       <c r="G192" s="23"/>
     </row>
@@ -37649,7 +37618,7 @@
       <c r="E203" s="23"/>
       <c r="F203" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>I shall be your opponent! </v>
+        <v>Loading...</v>
       </c>
       <c r="G203" s="23"/>
     </row>
@@ -37729,7 +37698,7 @@
       <c r="E207" s="23"/>
       <c r="F207" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Will you Borottle with me? </v>
+        <v>Loading...</v>
       </c>
       <c r="G207" s="21" t="s">
         <v>87</v>
@@ -37771,7 +37740,7 @@
       <c r="E209" s="23"/>
       <c r="F209" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Like, let's Robottle, y'know? </v>
+        <v>Loading...</v>
       </c>
       <c r="G209" s="23"/>
     </row>
@@ -37811,7 +37780,7 @@
       <c r="E211" s="23"/>
       <c r="F211" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Bring it on, youngster! </v>
+        <v>Loading...</v>
       </c>
       <c r="G211" s="23"/>
     </row>
@@ -37831,8 +37800,7 @@
       <c r="E212" s="23"/>
       <c r="F212" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Mind if I take a photo of our
-Robottle? </v>
+        <v>Loading...</v>
       </c>
       <c r="G212" s="23"/>
     </row>
@@ -37892,7 +37860,7 @@
       <c r="E215" s="23"/>
       <c r="F215" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>You'll be caught in my net! </v>
+        <v>Loading...</v>
       </c>
       <c r="G215" s="21" t="s">
         <v>87</v>
@@ -37954,7 +37922,7 @@
       <c r="E218" s="23"/>
       <c r="F218" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>A stray Medarot appeared! </v>
+        <v>Loading...</v>
       </c>
       <c r="G218" s="23"/>
     </row>
@@ -37996,7 +37964,7 @@
       <c r="E220" s="23"/>
       <c r="F220" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Let's go! </v>
+        <v>Loading...</v>
       </c>
       <c r="G220" s="23"/>
     </row>
@@ -38078,7 +38046,7 @@
       <c r="E224" s="23"/>
       <c r="F224" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>You're a real pain in the neck! </v>
+        <v>Loading...</v>
       </c>
       <c r="G224" s="23"/>
     </row>
@@ -38120,7 +38088,7 @@
       <c r="E226" s="23"/>
       <c r="F226" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>I'll beat you to a pulp! </v>
+        <v>Loading...</v>
       </c>
       <c r="G226" s="23"/>
     </row>
@@ -38162,7 +38130,7 @@
       <c r="E228" s="23"/>
       <c r="F228" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Hrm...come at me. </v>
+        <v>Loading...</v>
       </c>
       <c r="G228" s="21" t="s">
         <v>87</v>
@@ -38206,8 +38174,7 @@
       <c r="E230" s="23"/>
       <c r="F230" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>You're 53 years too early to
-face me! </v>
+        <v>Loading...</v>
       </c>
       <c r="G230" s="21" t="s">
         <v>87</v>
@@ -38249,8 +38216,7 @@
       <c r="E232" s="23"/>
       <c r="F232" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>The RoboRobo Gang will rule
-the world. </v>
+        <v>Loading...</v>
       </c>
       <c r="G232" s="21" t="s">
         <v>87</v>
@@ -38294,8 +38260,7 @@
       <c r="E234" s="23"/>
       <c r="F234" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Those who get in our way will
-be dealt with. </v>
+        <v>Loading...</v>
       </c>
       <c r="G234" s="21" t="s">
         <v>87</v>
@@ -38339,7 +38304,7 @@
       <c r="E236" s="23"/>
       <c r="F236" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Come on now, don't hold back! </v>
+        <v>Loading...</v>
       </c>
       <c r="G236" s="21"/>
     </row>
@@ -38359,8 +38324,7 @@
       <c r="E237" s="23"/>
       <c r="F237" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Time to see how my grandson is
-coming along. </v>
+        <v>Loading...</v>
       </c>
       <c r="G237" s="21"/>
     </row>
@@ -38572,8 +38536,7 @@
       <c r="E247" s="23"/>
       <c r="F247" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>I defeat you. I become
-champion. </v>
+        <v>Loading...</v>
       </c>
       <c r="G247" s="21"/>
     </row>
@@ -38615,8 +38578,7 @@
       <c r="E249" s="23"/>
       <c r="F249" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>A-AwooOOooo! Medals... look
-like... the moon! </v>
+        <v>Loading...</v>
       </c>
       <c r="G249" s="21" t="s">
         <v>87</v>
@@ -38686,7 +38648,7 @@
       </c>
       <c r="F252" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>▰DES... TROY... ▱ </v>
+        <v>Loading...</v>
       </c>
       <c r="G252" s="21" t="s">
         <v>89</v>
@@ -38706,7 +38668,7 @@
       <c r="E253" s="27"/>
       <c r="F253" s="23" t="str">
         <f t="shared" si="7"/>
-        <v> </v>
+        <v>Loading...</v>
       </c>
       <c r="G253" s="21" t="s">
         <v>92</v>
@@ -38786,7 +38748,7 @@
       <c r="E257" s="27"/>
       <c r="F257" s="23" t="str">
         <f t="shared" si="7"/>
-        <v> </v>
+        <v>Loading...</v>
       </c>
       <c r="G257" s="21" t="s">
         <v>92</v>
@@ -38886,7 +38848,7 @@
       <c r="E262" s="27"/>
       <c r="F262" s="23" t="str">
         <f t="shared" si="7"/>
-        <v> </v>
+        <v>Loading...</v>
       </c>
       <c r="G262" s="21" t="s">
         <v>92</v>
@@ -38906,7 +38868,7 @@
       <c r="E263" s="27"/>
       <c r="F263" s="23" t="str">
         <f t="shared" si="7"/>
-        <v> </v>
+        <v>Loading...</v>
       </c>
       <c r="G263" s="21" t="s">
         <v>92</v>
@@ -38926,7 +38888,7 @@
       <c r="E264" s="27"/>
       <c r="F264" s="23" t="str">
         <f t="shared" si="7"/>
-        <v> </v>
+        <v>Loading...</v>
       </c>
       <c r="G264" s="21" t="s">
         <v>92</v>
@@ -39300,7 +39262,7 @@
       <c r="E283" s="23"/>
       <c r="F283" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>The stray Medarot fled! </v>
+        <v>Loading...</v>
       </c>
       <c r="G283" s="23"/>
     </row>
@@ -39342,8 +39304,7 @@
       <c r="E285" s="23"/>
       <c r="F285" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>I knew you'd do well,
-────────. </v>
+        <v>Loading...</v>
       </c>
       <c r="G285" s="21" t="s">
         <v>87</v>
@@ -39365,8 +39326,7 @@
       <c r="E286" s="23"/>
       <c r="F286" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>You're stronger than I
-expected ♥! </v>
+        <v>Loading...</v>
       </c>
       <c r="G286" s="21" t="s">
         <v>87</v>
@@ -39410,7 +39370,7 @@
       <c r="E288" s="23"/>
       <c r="F288" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>Ah I lost-! </v>
+        <v>Loading...</v>
       </c>
       <c r="G288" s="21" t="s">
         <v>87</v>
@@ -39432,7 +39392,7 @@
       <c r="E289" s="23"/>
       <c r="F289" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>How could I lose? </v>
+        <v>Loading...</v>
       </c>
       <c r="G289" s="21" t="s">
         <v>84</v>
@@ -39454,7 +39414,7 @@
       <c r="E290" s="23"/>
       <c r="F290" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>...... </v>
+        <v>Loading...</v>
       </c>
       <c r="G290" s="21" t="s">
         <v>89</v>
@@ -39562,7 +39522,7 @@
       <c r="E295" s="23"/>
       <c r="F295" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>Nurgh...it can't end like this! </v>
+        <v>Loading...</v>
       </c>
       <c r="G295" s="21" t="s">
         <v>87</v>
@@ -39584,7 +39544,7 @@
       <c r="E296" s="23"/>
       <c r="F296" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>Uuurgh this is bad! </v>
+        <v>Loading...</v>
       </c>
       <c r="G296" s="21" t="s">
         <v>87</v>
@@ -39694,8 +39654,7 @@
       <c r="E301" s="23"/>
       <c r="F301" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>You've gotten very good! I'm
-proud of you! </v>
+        <v>Loading...</v>
       </c>
       <c r="G301" s="21" t="s">
         <v>87</v>
@@ -39761,8 +39720,7 @@
       <c r="E304" s="23"/>
       <c r="F304" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>Times really have changed,
-haven't they? </v>
+        <v>Loading...</v>
       </c>
       <c r="G304" s="21" t="s">
         <v>87</v>
@@ -39784,7 +39742,7 @@
       <c r="E305" s="23"/>
       <c r="F305" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>That was an interesting fight. </v>
+        <v>Loading...</v>
       </c>
       <c r="G305" s="21" t="s">
         <v>87</v>
@@ -39850,7 +39808,7 @@
       <c r="E308" s="23"/>
       <c r="F308" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>That's it! Looking good! </v>
+        <v>Loading...</v>
       </c>
       <c r="G308" s="21" t="s">
         <v>87</v>
@@ -39916,7 +39874,7 @@
       <c r="E311" s="23"/>
       <c r="F311" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>I lost to you~? </v>
+        <v>Loading...</v>
       </c>
       <c r="G311" s="21" t="s">
         <v>87</v>
@@ -39980,7 +39938,7 @@
       <c r="E314" s="23"/>
       <c r="F314" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>Hah... Hah... I lost! </v>
+        <v>Loading...</v>
       </c>
       <c r="G314" s="21" t="s">
         <v>87</v>
@@ -40004,7 +39962,7 @@
       </c>
       <c r="F315" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>▰Will you be my friend?▱ </v>
+        <v>Loading...</v>
       </c>
       <c r="G315" s="21" t="s">
         <v>84</v>
@@ -40088,7 +40046,7 @@
       <c r="E319" s="27"/>
       <c r="F319" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>=0x74268</v>
+        <v>Loading...</v>
       </c>
       <c r="G319" s="24" t="s">
         <v>92</v>
@@ -40148,7 +40106,7 @@
       <c r="E322" s="27"/>
       <c r="F322" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>=0x74268</v>
+        <v>Loading...</v>
       </c>
       <c r="G322" s="24" t="s">
         <v>92</v>
@@ -40168,7 +40126,7 @@
       <c r="E323" s="27"/>
       <c r="F323" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>=0x74268</v>
+        <v>Loading...</v>
       </c>
       <c r="G323" s="24" t="s">
         <v>92</v>
@@ -40248,7 +40206,7 @@
       <c r="E327" s="27"/>
       <c r="F327" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>=0x74268</v>
+        <v>Loading...</v>
       </c>
       <c r="G327" s="24" t="s">
         <v>92</v>
@@ -40268,7 +40226,7 @@
       <c r="E328" s="27"/>
       <c r="F328" s="23" t="str">
         <f t="shared" si="8"/>
-        <v>=0x74268</v>
+        <v>Loading...</v>
       </c>
       <c r="G328" s="24" t="s">
         <v>92</v>
@@ -40416,7 +40374,7 @@
       <c r="E336" s="27"/>
       <c r="F336" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>=0x74280</v>
+        <v>Loading...</v>
       </c>
       <c r="G336" s="24" t="s">
         <v>92</v>
@@ -40516,7 +40474,7 @@
       <c r="E341" s="27"/>
       <c r="F341" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>=0x74280</v>
+        <v>Loading...</v>
       </c>
       <c r="G341" s="24" t="s">
         <v>92</v>
@@ -40636,7 +40594,7 @@
       <c r="E347" s="27"/>
       <c r="F347" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>=0x74280</v>
+        <v>Loading...</v>
       </c>
       <c r="G347" s="24" t="s">
         <v>92</v>
@@ -40676,7 +40634,7 @@
       <c r="E349" s="27"/>
       <c r="F349" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>=0x74280</v>
+        <v>Loading...</v>
       </c>
       <c r="G349" s="24" t="s">
         <v>92</v>
@@ -40756,7 +40714,7 @@
       <c r="E353" s="27"/>
       <c r="F353" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>=0x74280</v>
+        <v>Loading...</v>
       </c>
       <c r="G353" s="24" t="s">
         <v>92</v>
@@ -40796,7 +40754,7 @@
       <c r="E355" s="27"/>
       <c r="F355" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>=0x74280</v>
+        <v>Loading...</v>
       </c>
       <c r="G355" s="24" t="s">
         <v>92</v>
@@ -40836,7 +40794,7 @@
       <c r="E357" s="27"/>
       <c r="F357" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>=0x74280</v>
+        <v>Loading...</v>
       </c>
       <c r="G357" s="24" t="s">
         <v>92</v>
@@ -40856,7 +40814,7 @@
       <c r="E358" s="27"/>
       <c r="F358" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>=0x74280</v>
+        <v>Loading...</v>
       </c>
       <c r="G358" s="24" t="s">
         <v>92</v>
@@ -40876,7 +40834,7 @@
       <c r="E359" s="27"/>
       <c r="F359" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>=0x74280</v>
+        <v>Loading...</v>
       </c>
       <c r="G359" s="24" t="s">
         <v>92</v>
@@ -40976,7 +40934,7 @@
       <c r="E364" s="27"/>
       <c r="F364" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>=0x74280</v>
+        <v>Loading...</v>
       </c>
       <c r="G364" s="24" t="s">
         <v>92</v>
@@ -40996,7 +40954,7 @@
       <c r="E365" s="27"/>
       <c r="F365" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>=0x74280</v>
+        <v>Loading...</v>
       </c>
       <c r="G365" s="24" t="s">
         <v>92</v>
@@ -41056,7 +41014,7 @@
       <c r="E368" s="27"/>
       <c r="F368" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>=0x74280</v>
+        <v>Loading...</v>
       </c>
       <c r="G368" s="24" t="s">
         <v>92</v>
@@ -41116,7 +41074,7 @@
       <c r="E371" s="27"/>
       <c r="F371" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>=0x74280</v>
+        <v>Loading...</v>
       </c>
       <c r="G371" s="24" t="s">
         <v>92</v>
@@ -41156,7 +41114,7 @@
       <c r="E373" s="27"/>
       <c r="F373" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>=0x74280</v>
+        <v>Loading...</v>
       </c>
       <c r="G373" s="24" t="s">
         <v>92</v>
@@ -41276,7 +41234,7 @@
       <c r="E379" s="27"/>
       <c r="F379" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>=0x74280</v>
+        <v>Loading...</v>
       </c>
       <c r="G379" s="24" t="s">
         <v>92</v>
@@ -41356,7 +41314,7 @@
       <c r="E383" s="27"/>
       <c r="F383" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>=0x74280</v>
+        <v>Loading...</v>
       </c>
       <c r="G383" s="24" t="s">
         <v>92</v>
@@ -41416,7 +41374,7 @@
       <c r="E386" s="27"/>
       <c r="F386" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>=0x74280</v>
+        <v>Loading...</v>
       </c>
       <c r="G386" s="24" t="s">
         <v>92</v>
@@ -41436,7 +41394,7 @@
       <c r="E387" s="27"/>
       <c r="F387" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>=0x74280</v>
+        <v>Loading...</v>
       </c>
       <c r="G387" s="24" t="s">
         <v>92</v>
@@ -41456,7 +41414,7 @@
       <c r="E388" s="27"/>
       <c r="F388" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>=0x74280</v>
+        <v>Loading...</v>
       </c>
       <c r="G388" s="24" t="s">
         <v>92</v>
@@ -41496,7 +41454,7 @@
       <c r="E390" s="27"/>
       <c r="F390" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>=0x74280</v>
+        <v>Loading...</v>
       </c>
       <c r="G390" s="24" t="s">
         <v>92</v>
@@ -41536,7 +41494,7 @@
       <c r="E392" s="27"/>
       <c r="F392" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>=0x74280</v>
+        <v>Loading...</v>
       </c>
       <c r="G392" s="24" t="s">
         <v>92</v>
@@ -41576,7 +41534,7 @@
       <c r="E394" s="27"/>
       <c r="F394" s="21" t="str">
         <f t="shared" si="9"/>
-        <v>=0x74280</v>
+        <v>Loading...</v>
       </c>
       <c r="G394" s="24" t="s">
         <v>92</v>
@@ -41630,10 +41588,7 @@
       <c r="E397" s="23"/>
       <c r="F397" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>Ding ding ding! Time is up! 
-Now to determine the winner! 
-It looks like... ────────'s
-match! </v>
+        <v>Loading...</v>
       </c>
       <c r="G397" s="21" t="s">
         <v>87</v>
@@ -41655,8 +41610,7 @@
       <c r="E398" s="23"/>
       <c r="F398" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>──────── handed over
-◆────────◇. </v>
+        <v>Loading...</v>
       </c>
       <c r="G398" s="21" t="s">
         <v>84</v>
@@ -41700,8 +41654,7 @@
       <c r="E400" s="23"/>
       <c r="F400" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>──────── got a
-◆RoboRobo Medal◇! </v>
+        <v>Loading...</v>
       </c>
       <c r="G400" s="21" t="s">
         <v>89</v>
@@ -41833,8 +41786,7 @@
       <c r="E408" s="23"/>
       <c r="F408" s="23" t="str">
         <f t="shared" si="12"/>
-        <v> 
-Accessing Robottle HQ... </v>
+        <v>Loading...</v>
       </c>
       <c r="G408" s="21" t="s">
         <v>89</v>
@@ -41854,7 +41806,7 @@
       <c r="E409" s="23"/>
       <c r="F409" s="23" t="str">
         <f t="shared" si="12"/>
-        <v>Connecting! </v>
+        <v>Loading...</v>
       </c>
       <c r="G409" s="23"/>
     </row>
@@ -41908,7 +41860,7 @@
       <c r="E412" s="23"/>
       <c r="F412" s="23" t="str">
         <f t="shared" si="12"/>
-        <v>You have no parts to trade. </v>
+        <v>Loading...</v>
       </c>
       <c r="G412" s="23"/>
     </row>
@@ -41926,7 +41878,7 @@
       <c r="E413" s="23"/>
       <c r="F413" s="23" t="str">
         <f t="shared" si="12"/>
-        <v>Waiting on connection! </v>
+        <v>Loading...</v>
       </c>
       <c r="G413" s="23"/>
     </row>
@@ -41962,9 +41914,7 @@
       <c r="E415" s="23"/>
       <c r="F415" s="23" t="str">
         <f t="shared" si="12"/>
-        <v>──────── lost the battle! 
-That's too bad! 
-Train hard and go for the win! </v>
+        <v>Loading...</v>
       </c>
       <c r="G415" s="23"/>
     </row>
@@ -41982,8 +41932,7 @@
       <c r="E416" s="23"/>
       <c r="F416" s="23" t="str">
         <f t="shared" si="12"/>
-        <v>As the winner of the Robottle,
-you get to play ◆Robo-Toll◇! </v>
+        <v>Loading...</v>
       </c>
       <c r="G416" s="23"/>
     </row>
@@ -42001,9 +41950,7 @@
       <c r="E417" s="23"/>
       <c r="F417" s="23" t="str">
         <f t="shared" si="12"/>
-        <v>As the loser of the Robottle,
-one of your parts will be
-taken. </v>
+        <v>Loading...</v>
       </c>
       <c r="G417" s="23"/>
     </row>
@@ -42133,8 +42080,7 @@
       <c r="E424" s="21"/>
       <c r="F424" s="23" t="str">
         <f t="shared" si="12"/>
-        <v>Despite winning, you could not
-get a part! </v>
+        <v>Loading...</v>
       </c>
       <c r="G424" s="21" t="s">
         <v>84</v>
@@ -42208,8 +42154,7 @@
       <c r="E428" s="23"/>
       <c r="F428" s="23" t="str">
         <f t="shared" si="12"/>
-        <v>You can't carry any more of
-that part! </v>
+        <v>Loading...</v>
       </c>
       <c r="G428" s="23"/>
     </row>
@@ -42245,7 +42190,7 @@
       <c r="E430" s="27"/>
       <c r="F430" s="23" t="str">
         <f t="shared" si="12"/>
-        <v>=0x7433e</v>
+        <v>Loading...</v>
       </c>
       <c r="G430" s="24" t="s">
         <v>92</v>
@@ -42301,8 +42246,7 @@
       <c r="E433" s="23"/>
       <c r="F433" s="23" t="str">
         <f t="shared" si="12"/>
-        <v>◆────────◇ will be traded
-for ◆────────◇. </v>
+        <v>Loading...</v>
       </c>
       <c r="G433" s="23"/>
     </row>
@@ -42492,7 +42436,7 @@
       <c r="E444" s="23"/>
       <c r="F444" s="23" t="str">
         <f t="shared" si="14"/>
-        <v>Ranged attack detected! </v>
+        <v>Loading...</v>
       </c>
       <c r="G444" s="21" t="s">
         <v>84</v>
@@ -42554,7 +42498,7 @@
       <c r="E447" s="27"/>
       <c r="F447" s="23" t="str">
         <f t="shared" si="14"/>
-        <v>=0x7435c</v>
+        <v>Loading...</v>
       </c>
       <c r="G447" s="24" t="s">
         <v>92</v>
@@ -42576,7 +42520,7 @@
       <c r="E448" s="27"/>
       <c r="F448" s="23" t="str">
         <f t="shared" si="14"/>
-        <v>=0x7435c</v>
+        <v>Loading...</v>
       </c>
       <c r="G448" s="24" t="s">
         <v>92</v>
@@ -42662,8 +42606,7 @@
       <c r="E452" s="23"/>
       <c r="F452" s="23" t="str">
         <f t="shared" si="14"/>
-        <v>The targeted part is not
-damaged! </v>
+        <v>Loading...</v>
       </c>
       <c r="G452" s="23"/>
     </row>
@@ -42793,8 +42736,7 @@
       <c r="E459" s="23"/>
       <c r="F459" s="23" t="str">
         <f t="shared" si="14"/>
-        <v>Attempted to clear Flux
-status! </v>
+        <v>Loading...</v>
       </c>
       <c r="G459" s="23"/>
     </row>
@@ -42812,8 +42754,7 @@
       <c r="E460" s="23"/>
       <c r="F460" s="23" t="str">
         <f t="shared" si="14"/>
-        <v>Attempted to clear Stop
-status! </v>
+        <v>Loading...</v>
       </c>
       <c r="G460" s="23"/>
     </row>
@@ -42867,8 +42808,7 @@
       <c r="E463" s="23"/>
       <c r="F463" s="23" t="str">
         <f t="shared" si="14"/>
-        <v>Attempted to clear status
-effects! </v>
+        <v>Loading...</v>
       </c>
       <c r="G463" s="23"/>
     </row>
@@ -42914,9 +42854,7 @@
       <c r="E466" s="23"/>
       <c r="F466" s="23" t="str">
         <f t="shared" si="15"/>
-        <v>────────'s
-◆────────◇ Medal was
-taken! </v>
+        <v>Loading...</v>
       </c>
       <c r="G466" s="23"/>
     </row>
@@ -42934,8 +42872,7 @@
       <c r="E467" s="23"/>
       <c r="F467" s="23" t="str">
         <f t="shared" si="15"/>
-        <v>──────── defended with
-its legs! </v>
+        <v>Loading...</v>
       </c>
       <c r="G467" s="23"/>
     </row>
@@ -42971,10 +42908,7 @@
       <c r="E469" s="23"/>
       <c r="F469" s="23" t="str">
         <f t="shared" si="15"/>
-        <v>...But you already have that
-Medal! 
-The ◆────────◇ Medal
-wasn't taken. </v>
+        <v>Loading...</v>
       </c>
       <c r="G469" s="23"/>
     </row>
@@ -43012,9 +42946,7 @@
       <c r="E471" s="23"/>
       <c r="F471" s="23" t="str">
         <f t="shared" si="15"/>
-        <v>You need at least one
-battle-ready Medarot to use
-this mode. </v>
+        <v>Loading...</v>
       </c>
       <c r="G471" s="21" t="s">
         <v>87</v>
@@ -43064,15 +42996,7 @@
       <c r="E474" s="21"/>
       <c r="F474" s="23" t="str">
         <f t="shared" si="16"/>
-        <v>The loser of the battle will
-have one of their parts or
-Medals taken by the winner. 
-For experienced players only! 
---- Trading Parts --- 
-In this mode, you can trade
-spare parts with your friends. 
-That ends the explanation! 
-Have fun! </v>
+        <v>Loading...</v>
       </c>
       <c r="G474" s="21"/>
     </row>
@@ -51290,9 +51214,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>If you try to go near the
-cave, you'll be attacked by a
-shark! </v>
+        <v>Loading...</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>89</v>
@@ -51317,8 +51239,7 @@
       <c r="F7" s="23"/>
       <c r="G7" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>They say there's some kind of
-treasure in the cave. </v>
+        <v>Loading...</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>89</v>
@@ -51493,8 +51414,7 @@
       <c r="F14" s="23"/>
       <c r="G14" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>A monkey took my Medal. 
-I hope I can get it back... </v>
+        <v>Loading...</v>
       </c>
       <c r="H14" s="21" t="s">
         <v>89</v>
@@ -51519,9 +51439,7 @@
       <c r="F15" s="23"/>
       <c r="G15" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>The monkeys come down the
-mountain from time to time to
-cause mischief. </v>
+        <v>Loading...</v>
       </c>
       <c r="H15" s="21" t="s">
         <v>87</v>
@@ -51571,11 +51489,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Anyway have you gone to the
-Ruins yet?  
-The Ruins are great. 
-They have an adventurous
-feeling to them. </v>
+        <v>Loading...</v>
       </c>
       <c r="H17" s="21" t="s">
         <v>87</v>
@@ -51696,7 +51610,7 @@
       <c r="F22" s="27"/>
       <c r="G22" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>=0x5a024</v>
+        <v>Loading...</v>
       </c>
       <c r="H22" s="24" t="s">
         <v>92</v>
@@ -51721,7 +51635,7 @@
       <c r="F23" s="27"/>
       <c r="G23" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>=0x5a024</v>
+        <v>Loading...</v>
       </c>
       <c r="H23" s="24" t="s">
         <v>92</v>
@@ -51746,7 +51660,7 @@
       <c r="F24" s="27"/>
       <c r="G24" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>=0x5a024</v>
+        <v>Loading...</v>
       </c>
       <c r="H24" s="24" t="s">
         <v>92</v>
@@ -51771,7 +51685,7 @@
       <c r="F25" s="27"/>
       <c r="G25" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>=0x5a024</v>
+        <v>Loading...</v>
       </c>
       <c r="H25" s="24" t="s">
         <v>92</v>
@@ -51821,7 +51735,7 @@
       <c r="F27" s="27"/>
       <c r="G27" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>=0x5a024</v>
+        <v>Loading...</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>92</v>
@@ -51846,7 +51760,7 @@
       <c r="F28" s="27"/>
       <c r="G28" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>=0x5a024</v>
+        <v>Loading...</v>
       </c>
       <c r="H28" s="24" t="s">
         <v>92</v>
@@ -51896,7 +51810,7 @@
       <c r="F30" s="27"/>
       <c r="G30" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>=0x5a036</v>
+        <v>Loading...</v>
       </c>
       <c r="H30" s="24" t="s">
         <v>92</v>
@@ -51971,15 +51885,7 @@
       <c r="F33" s="23"/>
       <c r="G33" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>There's a lot of fishermen on
-the outskirts of town. 
-Anything they caught for the
-day, they would bring back to
-town. 
-However, ever since the
-sharks came, they haven't
-been able to catch anything. 
-A lot of them are furious. </v>
+        <v>Loading...</v>
       </c>
       <c r="H33" s="21" t="s">
         <v>84</v>
@@ -52004,10 +51910,7 @@
       <c r="F34" s="23"/>
       <c r="G34" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>I can't swim because of the
-sharks! 
-After all the trouble I went
-through to come here... </v>
+        <v>Loading...</v>
       </c>
       <c r="H34" s="21" t="s">
         <v>87</v>
@@ -52107,8 +52010,7 @@
       <c r="F38" s="23"/>
       <c r="G38" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>It's not fair...  
-I want a female Tinpet too... </v>
+        <v>Loading...</v>
       </c>
       <c r="H38" s="21" t="s">
         <v>87</v>
@@ -52158,7 +52060,7 @@
       <c r="F40" s="27"/>
       <c r="G40" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>=0x5a04a</v>
+        <v>Loading...</v>
       </c>
       <c r="H40" s="24" t="s">
         <v>92</v>
@@ -52283,7 +52185,7 @@
       <c r="F45" s="27"/>
       <c r="G45" s="21" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>Loading...</v>
       </c>
       <c r="H45" s="24" t="s">
         <v>92</v>
@@ -52358,7 +52260,7 @@
       <c r="F48" s="27"/>
       <c r="G48" s="21" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>Loading...</v>
       </c>
       <c r="H48" s="24" t="s">
         <v>92</v>
@@ -52406,16 +52308,7 @@
       <c r="F50" s="23"/>
       <c r="G50" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Ladies and gentlemen! 
-I, Mr. Uruchi, will be your
-tournament host! 
-This year, a total of 56
-teams, including 8 foreign
-teams, have joined. 
-Will they be able to beat our
-veteran fighters?  
-Let's find out! Round 1!  
-Robottle Fight! </v>
+        <v>Loading...</v>
       </c>
       <c r="H50" s="23"/>
     </row>
@@ -52436,14 +52329,7 @@
       <c r="F51" s="23"/>
       <c r="G51" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Round 2 will be interesting, a
-young man who loves to dance
-and sweep their opponents off
-their feet. 
-Here's Shamojiel!! 
-Now, how will ────────
-handle this?  
-Let's find out. Robottle Fight! </v>
+        <v>Loading...</v>
       </c>
       <c r="H51" s="23"/>
     </row>
@@ -52548,9 +52434,7 @@
       <c r="F56" s="23"/>
       <c r="G56" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Well, the situation speaks for
-itself with these two. 
-Robottle Fight! </v>
+        <v>Loading...</v>
       </c>
       <c r="H56" s="23"/>
     </row>
@@ -52617,9 +52501,7 @@
       <c r="F59" s="23"/>
       <c r="G59" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>The head part, ◆Missile◇, which
-can damage multiple enemy
-parts. </v>
+        <v>Loading...</v>
       </c>
       <c r="H59" s="23"/>
     </row>
@@ -52736,8 +52618,7 @@
       <c r="F64" s="23"/>
       <c r="G64" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>The head part, ◆Antenna◇,
-which can scan enemies. </v>
+        <v>Loading...</v>
       </c>
       <c r="H64" s="21" t="s">
         <v>84</v>
@@ -52858,8 +52739,7 @@
       <c r="F69" s="23"/>
       <c r="G69" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Mysterious? I didn't see
-anything peculiar about it. </v>
+        <v>Loading...</v>
       </c>
       <c r="H69" s="23"/>
     </row>
@@ -52880,7 +52760,7 @@
       <c r="F70" s="23"/>
       <c r="G70" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Ah, I am shocked!! </v>
+        <v>Loading...</v>
       </c>
       <c r="H70" s="23"/>
     </row>
@@ -52949,8 +52829,7 @@
       <c r="F73" s="23"/>
       <c r="G73" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Hmph...don't mistake your dumb
-luck for skill. </v>
+        <v>Loading...</v>
       </c>
       <c r="H73" s="21" t="s">
         <v>87</v>
@@ -53000,7 +52879,7 @@
       <c r="F75" s="23"/>
       <c r="G75" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Please don't bully Yuuki. </v>
+        <v>Loading...</v>
       </c>
       <c r="H75" s="21" t="s">
         <v>87</v>
@@ -53138,7 +53017,7 @@
       <c r="F81" s="23"/>
       <c r="G81" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Obtained ¥800. </v>
+        <v>Loading...</v>
       </c>
       <c r="H81" s="21" t="s">
         <v>89</v>
@@ -53205,9 +53084,7 @@
       <c r="F84" s="23"/>
       <c r="G84" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>We're busy preparing for the
-festival, so the shrine is
-closed today. </v>
+        <v>Loading...</v>
       </c>
       <c r="H84" s="21" t="s">
         <v>89</v>
@@ -53232,10 +53109,7 @@
       <c r="F85" s="23"/>
       <c r="G85" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>We are currently inspecting
-luggage, therefore you can
-not enter the Tournament 
-Hall. </v>
+        <v>Loading...</v>
       </c>
       <c r="H85" s="21" t="s">
         <v>87</v>
@@ -53260,9 +53134,7 @@
       <c r="F86" s="23"/>
       <c r="G86" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>This road is under
-construction, no entry beyond
-this point. </v>
+        <v>Loading...</v>
       </c>
       <c r="H86" s="21" t="s">
         <v>87</v>
@@ -53287,9 +53159,7 @@
       <c r="F87" s="23"/>
       <c r="G87" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>◆*Knock Knock*◇ 
-You knocked on the door to
-the office. </v>
+        <v>Loading...</v>
       </c>
       <c r="H87" s="21" t="s">
         <v>87</v>
@@ -53314,26 +53184,7 @@
       <c r="F88" s="23"/>
       <c r="G88" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Hey ────────. That
-stone... 
-It looks so shiny and pretty,
-like it has some kind of power
-sleeping inside of it... 
-Is it okay if I have it? It's
-not much but I'll give you this. 
-Kirara, I still haven't said
-anything yet... 
-────────, you don't
-really understand girls, do
-you? 
-Guys give their girlfriends
-presents. 
-Here, ────────, take
-this ◆Penguin◇. 
-See? You look great with that
-bot. 
-Ah...yeah.  
-Then it's settled. </v>
+        <v>Loading...</v>
       </c>
       <c r="H88" s="21" t="s">
         <v>87</v>
@@ -53358,29 +53209,7 @@
       <c r="F89" s="23"/>
       <c r="G89" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Ah, that stone... 
-Oh, the ◆Star Piece◇? 
-I always wanted one, but they
-were always sold out. 
-I could never find one. 
-I'm glad I can see one up
-close like this.  
-Now I can see one when I
-come to your house. 
-If you want it that badly, I'll
-give it to you... 
-It's okay, it's better if you
-hold on to it, ────────. 
-Besides, I want to have a
-reason to visit more often... 
-Huh, did you say something? 
-Oh...n-nothing.  
-Anyway, I came here
-because... 
-Ah, right. 
-I want you to test out some
-new parts. 
-Try them out. </v>
+        <v>Loading...</v>
       </c>
       <c r="H89" s="21" t="s">
         <v>87</v>
@@ -53455,15 +53284,7 @@
       <c r="F92" s="23"/>
       <c r="G92" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Heh heh heh... Robo. 
-At last, I've found it... 
-What we, the RoboRobo Gang,
-have been searching for... 
-The ◆Kabuto ◇Medal! 
-This shine... It... It's so
-beautiful... Robo. 
-I'd better hurry and take
-this to the boss! </v>
+        <v>Loading...</v>
       </c>
       <c r="H92" s="21" t="s">
         <v>87</v>
@@ -53488,15 +53309,7 @@
       <c r="F93" s="31"/>
       <c r="G93" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Heh heh heh... Robo. 
-At last, I've found it... 
-What we, the RoboRobo Gang,
-have been searching for... 
-The ◆Kuwagata ◇Medal! 
-This shine... It... It's so
-beautiful... Robo. 
-I'd better hurry and take
-this to the boss! </v>
+        <v>Loading...</v>
       </c>
       <c r="H93" s="32" t="s">
         <v>87</v>
@@ -53521,8 +53334,7 @@
       <c r="F94" s="23"/>
       <c r="G94" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Did you have fun at the local
-tournament? </v>
+        <v>Loading...</v>
       </c>
       <c r="H94" s="21" t="s">
         <v>84</v>
@@ -53566,10 +53378,7 @@
       <c r="F96" s="23"/>
       <c r="G96" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>You still haven't set up all
-your parts and Medals? 
-Real men always have them
-ready! </v>
+        <v>Loading...</v>
       </c>
       <c r="H96" s="21"/>
     </row>
@@ -53784,14 +53593,14 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{BAA2026B-AF34-45E4-95A4-56139A306514}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{9E610B81-B1AC-4382-A131-DE10EBBD78C3}" filter="1" showAutoFilter="1">
       <autoFilter ref="$E$1:$E$105">
         <filterColumn colId="0">
           <filters blank="1"/>
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{C303733D-C89D-44DD-A8FF-D92EBEA68217}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{5541889B-722A-477F-8893-DD2AE6BE8524}" filter="1" showAutoFilter="1">
       <autoFilter ref="$E$1:$E$105">
         <filterColumn colId="0">
           <customFilters>
@@ -53800,7 +53609,7 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{DD480565-081A-43E3-AC80-C3E2727E6934}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{2316EAE1-C074-4E7F-8ED0-2708CFBCB29A}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$1:$H$105">
         <filterColumn colId="3">
           <customFilters>
@@ -58073,8 +57882,7 @@
       <c r="F3" s="23"/>
       <c r="G3" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Is it true that aliens
-originally gave us Medals? </v>
+        <v>Loading...</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>84</v>
@@ -58097,14 +57905,7 @@
       <c r="F4" s="23"/>
       <c r="G4" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Ah.  
-Hello ────────. 
-They say if you make a wish
-when you're closer to the
-stars, it's more likely to come
-true. 
-There's no basis in science,
-but it's a nice thought, right? </v>
+        <v>Loading...</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>87</v>
@@ -58127,10 +57928,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Show me the parts you've
-gained. 
-I'll give you something good. 
-How about it? </v>
+        <v>Loading...</v>
       </c>
       <c r="H5" s="23"/>
     </row>
@@ -58193,7 +57991,7 @@
       <c r="F8" s="23"/>
       <c r="G8" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>You saw right through me! </v>
+        <v>Loading...</v>
       </c>
       <c r="H8" s="23"/>
     </row>
@@ -58306,8 +58104,7 @@
       <c r="F13" s="23"/>
       <c r="G13" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Thank you very much. That'll
-be 300¥. </v>
+        <v>Loading...</v>
       </c>
       <c r="H13" s="23"/>
     </row>
@@ -58443,8 +58240,7 @@
       <c r="F19" s="23"/>
       <c r="G19" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Ah, ────────. 
-You remembered. </v>
+        <v>Loading...</v>
       </c>
       <c r="H19" s="23"/>
     </row>
@@ -58488,9 +58284,7 @@
       <c r="F21" s="23"/>
       <c r="G21" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>If you give a pretty girl a
-Star Piece, I'm sure it would
-make her very happy. </v>
+        <v>Loading...</v>
       </c>
       <c r="H21" s="23"/>
     </row>
@@ -58559,9 +58353,7 @@
       <c r="F24" s="23"/>
       <c r="G24" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>You can see stars very
-clearly  
-from the observatory dome. </v>
+        <v>Loading...</v>
       </c>
       <c r="H24" s="23"/>
     </row>
@@ -58651,9 +58443,7 @@
       <c r="F28" s="23"/>
       <c r="G28" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>When your Medarot ranks up,
-its skills will increase more
-than usual. </v>
+        <v>Loading...</v>
       </c>
       <c r="H28" s="23"/>
     </row>
@@ -58699,7 +58489,7 @@
       <c r="F30" s="23"/>
       <c r="G30" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>It got away... </v>
+        <v>Loading...</v>
       </c>
       <c r="H30" s="23"/>
     </row>
@@ -58806,8 +58596,7 @@
       <c r="F35" s="23"/>
       <c r="G35" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Welcome to the Tournament
-Dome! </v>
+        <v>Loading...</v>
       </c>
       <c r="H35" s="23"/>
     </row>
@@ -58830,8 +58619,7 @@
       <c r="F36" s="23"/>
       <c r="G36" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>There are 57 unique Medal
-forms. </v>
+        <v>Loading...</v>
       </c>
       <c r="H36" s="23"/>
     </row>
@@ -58944,7 +58732,7 @@
       <c r="F41" s="27"/>
       <c r="G41" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>=0x6004a</v>
+        <v>Loading...</v>
       </c>
       <c r="H41" s="24" t="s">
         <v>92</v>
@@ -58992,12 +58780,7 @@
       <c r="F43" s="23"/>
       <c r="G43" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Good morning ────────,
-you're looking good today. 
-Sports are great and all, but
-you really should get into
-Meda... 
-Er... Nevermind, forget it. </v>
+        <v>Loading...</v>
       </c>
       <c r="H43" s="21" t="s">
         <v>87</v>
@@ -59116,16 +58899,7 @@
       <c r="F48" s="23"/>
       <c r="G48" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>They say there's a group of
-bad guys going around using
-Medarots for evil deeds. 
-They call themselves the
-RoboRobo Gang. 
-If you see one of them, you
-should report it to the Select
-Force right away. 
-They're the defenders of
-justice! </v>
+        <v>Loading...</v>
       </c>
       <c r="H48" s="23"/>
     </row>
@@ -59167,8 +58941,7 @@
       <c r="F50" s="23"/>
       <c r="G50" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>It seems that I can beat
-everyone except you. </v>
+        <v>Loading...</v>
       </c>
       <c r="H50" s="23"/>
     </row>
@@ -59279,11 +59052,7 @@
       <c r="F55" s="23"/>
       <c r="G55" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>The winner is ────────! 
-He completely trounced the
-Select Force Commander in
-this heated battle! 
-Don't think I'm done just yet! </v>
+        <v>Loading...</v>
       </c>
       <c r="H55" s="21" t="s">
         <v>87</v>
@@ -59308,7 +59077,7 @@
       <c r="F56" s="27"/>
       <c r="G56" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>=0x6006a</v>
+        <v>Loading...</v>
       </c>
       <c r="H56" s="24" t="s">
         <v>92</v>
@@ -59331,18 +59100,7 @@
       <c r="F57" s="23"/>
       <c r="G57" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>────────! 
-Are you okay? 
-Huh? 
-My phone isn't working... 
-It looks like your Medal is
-cracked, I'll fix it for you. 
-What's this? I can't send out
-the Medarot. 
-...What? 
-I'm sorry, ────────.
-There's no way for me to fix
-the Medal. </v>
+        <v>Loading...</v>
       </c>
       <c r="H57" s="21" t="s">
         <v>87</v>
@@ -59365,7 +59123,7 @@
       <c r="F58" s="23"/>
       <c r="G58" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Fufufuu... </v>
+        <v>Loading...</v>
       </c>
       <c r="H58" s="23"/>
     </row>
@@ -59428,9 +59186,7 @@
       <c r="F61" s="23"/>
       <c r="G61" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Wooof wooof! 
-What's wrong? 
-Woof Aarf! </v>
+        <v>Loading...</v>
       </c>
       <c r="H61" s="21" t="s">
         <v>87</v>
@@ -59495,7 +59251,7 @@
       <c r="F64" s="23"/>
       <c r="G64" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Wait! </v>
+        <v>Loading...</v>
       </c>
       <c r="H64" s="23"/>
     </row>
@@ -59539,9 +59295,7 @@
       <c r="F66" s="23"/>
       <c r="G66" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Welcome! 
-What would you like? We have
-some rare items. </v>
+        <v>Loading...</v>
       </c>
       <c r="H66" s="23"/>
     </row>
@@ -59589,8 +59343,7 @@
       <c r="F68" s="23"/>
       <c r="G68" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>We import Medarots and parts
-from overseas. </v>
+        <v>Loading...</v>
       </c>
       <c r="H68" s="23"/>
     </row>
@@ -59674,8 +59427,7 @@
       <c r="F72" s="23"/>
       <c r="G72" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>I wonder if this Medanot could
-be useful for anything... </v>
+        <v>Loading...</v>
       </c>
       <c r="H72" s="23"/>
     </row>
@@ -59717,14 +59469,7 @@
       <c r="F74" s="23"/>
       <c r="G74" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>We stole all the foreign parts
-and items, Robo. 
-Without that ◆Periscope◇, no
-one will be able to get near the
-Select Building, Robo! 
-Huh, who are you? 
-I can't let you get away with
-what you just saw! </v>
+        <v>Loading...</v>
       </c>
       <c r="H74" s="21" t="s">
         <v>87</v>
@@ -59770,8 +59515,7 @@
       <c r="F76" s="23"/>
       <c r="G76" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>This is where parts from
-overseas are stored. </v>
+        <v>Loading...</v>
       </c>
       <c r="H76" s="23"/>
     </row>
@@ -59857,15 +59601,7 @@
       <c r="F80" s="23"/>
       <c r="G80" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Thanks, ────────. 
-That phone...did you look
-through it? 
-Sorry...I was going to tell you
-but... 
-It's okay, I understand. 
-Good luck in the final round.
-Give it your all, 
-I'm sure you can win. </v>
+        <v>Loading...</v>
       </c>
       <c r="H80" s="21" t="s">
         <v>87</v>
@@ -59938,8 +59674,7 @@
       <c r="F83" s="23"/>
       <c r="G83" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>They all seem to be looking
-forward to the tournament. </v>
+        <v>Loading...</v>
       </c>
       <c r="H83" s="21" t="s">
         <v>87</v>
@@ -59966,8 +59701,7 @@
       </c>
       <c r="G84" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Mia kusenveturilo estas
-angiloplena. </v>
+        <v>Loading...</v>
       </c>
       <c r="H84" s="23"/>
     </row>
@@ -60017,10 +59751,7 @@
       </c>
       <c r="G86" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>You are also going to the
-tournament? 
-If so, would you mind practice
-with me? </v>
+        <v>Loading...</v>
       </c>
       <c r="H86" s="23"/>
     </row>
@@ -60066,7 +59797,7 @@
       <c r="F88" s="23"/>
       <c r="G88" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>All right, Robottle start! </v>
+        <v>Loading...</v>
       </c>
       <c r="H88" s="21" t="s">
         <v>87</v>
@@ -60133,11 +59864,7 @@
       <c r="F91" s="23"/>
       <c r="G91" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>If you want parts, you should
-check out your local store. 
-Each store varies in parts. 
-So it's recommended that you
-check out other stores. </v>
+        <v>Loading...</v>
       </c>
       <c r="H91" s="21" t="s">
         <v>87</v>
@@ -60208,15 +59935,7 @@
       <c r="F94" s="23"/>
       <c r="G94" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>If you have a lot of parts
-that you don't need, you can
-sell them at a convenience
-store. 
-It's better to recycle them
-rather than throwing them
-away. 
-Plus it gives you some extra
-spending money. </v>
+        <v>Loading...</v>
       </c>
       <c r="H94" s="23"/>
     </row>
@@ -60306,10 +60025,7 @@
       <c r="F98" s="23"/>
       <c r="G98" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>You haven't leveled up your
-parts or your Tinpets? 
-That's no fun, how about I
-give you this Tinpet? </v>
+        <v>Loading...</v>
       </c>
       <c r="H98" s="21" t="s">
         <v>84</v>
@@ -60332,7 +60048,7 @@
       <c r="F99" s="23"/>
       <c r="G99" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>How do you like the Tinpet? </v>
+        <v>Loading...</v>
       </c>
       <c r="H99" s="23"/>
     </row>
@@ -60355,9 +60071,7 @@
       <c r="F100" s="23"/>
       <c r="G100" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>An offensive team is the best
-option if you want to be
-aggressive. </v>
+        <v>Loading...</v>
       </c>
       <c r="H100" s="23"/>
     </row>
@@ -60403,16 +60117,7 @@
       <c r="F102" s="23"/>
       <c r="G102" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>If a Medarot's personality
-has a high ◆Attack ◇stat, its
-attacks will 
-land more easily. 
-If you have an ally Medarot
-who can defend, it will raise its
-◆Attack ◇even more. 
-Try to combine and test other
-personalities and see what you
-get. </v>
+        <v>Loading...</v>
       </c>
       <c r="H102" s="23"/>
     </row>
@@ -60481,10 +60186,7 @@
       <c r="F105" s="23"/>
       <c r="G105" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>If you use a Link Cable, you
-can connect and Robottle  
-with friends from other
-worlds. </v>
+        <v>Loading...</v>
       </c>
       <c r="H105" s="23"/>
     </row>
@@ -60507,7 +60209,7 @@
       <c r="F106" s="23"/>
       <c r="G106" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Hey, wanna Robottle? </v>
+        <v>Loading...</v>
       </c>
       <c r="H106" s="23"/>
     </row>
@@ -60530,9 +60232,7 @@
       <c r="F107" s="23"/>
       <c r="G107" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>You can defend your leader
-Medarot by making an ally use
-◆Protect◇. </v>
+        <v>Loading...</v>
       </c>
       <c r="H107" s="23"/>
     </row>
@@ -60555,12 +60255,7 @@
       <c r="F108" s="23"/>
       <c r="G108" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>You can change your
-Medarot's parts and Medal on
-the Medarot assembly screen. 
-Just select the part you want
-to change and press right or
-left to swap between them! </v>
+        <v>Loading...</v>
       </c>
       <c r="H108" s="23"/>
     </row>
@@ -60608,7 +60303,7 @@
       <c r="F110" s="27"/>
       <c r="G110" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>=0x600d4</v>
+        <v>Loading...</v>
       </c>
       <c r="H110" s="24" t="s">
         <v>92</v>
@@ -60633,9 +60328,7 @@
       <c r="F111" s="23"/>
       <c r="G111" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Yeah, that's right! 
-There's no way you can beat
-me! </v>
+        <v>Loading...</v>
       </c>
       <c r="H111" s="21"/>
     </row>
@@ -60658,11 +60351,7 @@
       <c r="F112" s="23"/>
       <c r="G112" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Medarots are well and good,
-but isn't today the closing
-ceremony? 
-You should hurry and get to
-school. </v>
+        <v>Loading...</v>
       </c>
       <c r="H112" s="23"/>
     </row>
@@ -60685,7 +60374,7 @@
       <c r="F113" s="27"/>
       <c r="G113" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>=0x600dc</v>
+        <v>Loading...</v>
       </c>
       <c r="H113" s="24" t="s">
         <v>92</v>
@@ -60735,9 +60424,7 @@
       <c r="F115" s="23"/>
       <c r="G115" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>In order to keep winning
-Robottles, it's a good idea to
-try out different parts. </v>
+        <v>Loading...</v>
       </c>
       <c r="H115" s="23"/>
     </row>
@@ -60804,11 +60491,7 @@
       <c r="F118" s="23"/>
       <c r="G118" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>If your Medarot's ◆Legs ◇have
-a high ◆Melee◇ stat, not only will
-it boost its ◆Strike ◇and
-◆Berserk ◇power, but it will
-also defend more often. </v>
+        <v>Loading...</v>
       </c>
       <c r="H118" s="21" t="s">
         <v>87</v>
@@ -60833,7 +60516,7 @@
       <c r="F119" s="23"/>
       <c r="G119" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Ker-chak! </v>
+        <v>Loading...</v>
       </c>
       <c r="H119" s="23"/>
     </row>
@@ -60879,7 +60562,7 @@
       <c r="F121" s="23"/>
       <c r="G121" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Rawr! </v>
+        <v>Loading...</v>
       </c>
       <c r="H121" s="21" t="s">
         <v>87</v>
@@ -60975,9 +60658,7 @@
       <c r="F125" s="23"/>
       <c r="G125" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Beep beeep!! No entry beyond
-this point! 
-Save before you enter. </v>
+        <v>Loading...</v>
       </c>
       <c r="H125" s="21" t="s">
         <v>87</v>
@@ -61027,7 +60708,7 @@
       <c r="F127" s="23"/>
       <c r="G127" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>My vision is fading... </v>
+        <v>Loading...</v>
       </c>
       <c r="H127" s="23"/>
     </row>
@@ -61119,10 +60800,7 @@
       <c r="F131" s="23"/>
       <c r="G131" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Thank you very much. I'm very
-grateful for your help. 
-Let me know when you're
-ready. </v>
+        <v>Loading...</v>
       </c>
       <c r="H131" s="23"/>
     </row>
@@ -61300,12 +60978,7 @@
       <c r="F139" s="23"/>
       <c r="G139" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Thank you so much. 
-You've helped a lot with my
-research. 
-Hey ──────── ...maybe one
-day we could go stargazi... 
-Never mind, it's nothing. </v>
+        <v>Loading...</v>
       </c>
       <c r="H139" s="23"/>
     </row>
@@ -61347,23 +61020,7 @@
       <c r="F141" s="23"/>
       <c r="G141" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>You fixed your Medal? 
-That's great! 
-Have you seen the crazy
-things that have been
-happening in town lately? 
-Everyone's Medarots suddenly
-started running amok. 
-I think I've discovered the
-reason though...  
-Not a single one of the
-Medarots using regular Medals
-have gone berserk. 
-Could this be the Select
-Force's doing?  
-────────, could you go
-check out the Select Force
-HQ? </v>
+        <v>Loading...</v>
       </c>
       <c r="H141" s="23"/>
     </row>
@@ -61405,10 +61062,7 @@
       <c r="F143" s="23"/>
       <c r="G143" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>────────, if something
-were to happen to you, I... 
-Just please be careful. I'll be
-praying for your safety. </v>
+        <v>Loading...</v>
       </c>
       <c r="H143" s="23"/>
     </row>
@@ -61454,11 +61108,7 @@
       <c r="F145" s="23"/>
       <c r="G145" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>That's an interesting looking
-thing you got there. 
-Can I see it real quick? 
-The ◆Medal-Like Coin◇ turned
-into a ◆Chameleon◇ Medal. </v>
+        <v>Loading...</v>
       </c>
       <c r="H145" s="23"/>
     </row>
@@ -61481,9 +61131,7 @@
       <c r="F146" s="23"/>
       <c r="G146" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>If your Medarot's legs get
-destroyed in battle, its speed
-gets halved. Be careful. </v>
+        <v>Loading...</v>
       </c>
       <c r="H146" s="21" t="s">
         <v>84</v>
@@ -61531,8 +61179,7 @@
       <c r="F148" s="23"/>
       <c r="G148" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>I'm Dr. Medarot, the creator
-of Medarots. </v>
+        <v>Loading...</v>
       </c>
       <c r="H148" s="23"/>
     </row>
@@ -61578,7 +61225,7 @@
       <c r="F150" s="23"/>
       <c r="G150" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>My Medarot exploded! </v>
+        <v>Loading...</v>
       </c>
       <c r="H150" s="21" t="s">
         <v>84</v>
@@ -61601,8 +61248,7 @@
       <c r="F151" s="23"/>
       <c r="G151" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>What? It was repaired by
-aliens?! </v>
+        <v>Loading...</v>
       </c>
       <c r="H151" s="23"/>
     </row>
@@ -61690,8 +61336,7 @@
       <c r="F155" s="23"/>
       <c r="G155" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Hurry and collect all of the
-Medals! </v>
+        <v>Loading...</v>
       </c>
       <c r="H155" s="23"/>
     </row>
@@ -61808,9 +61453,7 @@
       <c r="F160" s="23"/>
       <c r="G160" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>If Paddy has a ill-mannered
-boyfriend, it could have a
-negative influence on her. </v>
+        <v>Loading...</v>
       </c>
       <c r="H160" s="21" t="s">
         <v>84</v>
@@ -61835,23 +61478,7 @@
       <c r="F161" s="23"/>
       <c r="G161" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>There's bound to be a lot of
-places in this area that you
-guys have never been to! 
-With that in mind, I thought
-this summer would be a good
-opportunity for you to explore
-the town!  
-How about investigating the
-reports of sharks in the
-waters of Harbor Town, or
-challenging the martial artist
-monkeys on the Mountainside
-to a match? 
-If you head to the Select
-Headquarters, you might even
-meet the esteemed chief of
-the Select Force! </v>
+        <v>Loading...</v>
       </c>
       <c r="H161" s="23"/>
     </row>
@@ -61968,9 +61595,7 @@
       <c r="F166" s="23"/>
       <c r="G166" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Ah, please don't
-misunderstand. It's not what
-you think. </v>
+        <v>Loading...</v>
       </c>
       <c r="H166" s="23"/>
     </row>
@@ -62056,9 +61681,7 @@
       <c r="F170" s="23"/>
       <c r="G170" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Yeah, we love each other but... 
-What exactly does that have
-to do with you? </v>
+        <v>Loading...</v>
       </c>
       <c r="H170" s="23"/>
     </row>
@@ -62125,8 +61748,7 @@
       <c r="F173" s="23"/>
       <c r="G173" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>The number of remaining
-medals is... </v>
+        <v>Loading...</v>
       </c>
       <c r="H173" s="23"/>
     </row>
@@ -62214,20 +61836,7 @@
       <c r="F177" s="23"/>
       <c r="G177" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>There have been rumors of
-unidentified flying objects
-near the ruins, too! 
-You might even get to Robottle
-with aliens! 
-....It could happen! 
-If you get lost, just check the
-◆Town Map◇! 
-Just select it from your item
-screen, and you'll be able to
-see where you are immediately. 
-Well then, I'll look forward to
-seeing everyone's reports in
-the fall! </v>
+        <v>Loading...</v>
       </c>
       <c r="H177" s="23"/>
     </row>
@@ -62273,22 +61882,7 @@
       <c r="F179" s="23"/>
       <c r="G179" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>What's that? 
-────────, don't tell me
-you didn't know that the
-winner gets to take a part
-from the loser. It's a basic
-rule of Robottles! 
-You say we're cheaters? 
-Don't be stupid! 
-It's normal for Robottles to
-be team battles, right? 
-It's your own fault for only
-having one! 
-C'mon ────────, stop
-glaring at us like that. 
-Or do you think you can take
-us on? Huh? </v>
+        <v>Loading...</v>
       </c>
       <c r="H179" s="23"/>
     </row>
@@ -62359,7 +61953,7 @@
       <c r="F182" s="23"/>
       <c r="G182" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Don't go near the crops! </v>
+        <v>Loading...</v>
       </c>
       <c r="H182" s="23"/>
     </row>
@@ -62405,7 +61999,7 @@
       <c r="F184" s="23"/>
       <c r="G184" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>◆Mooo.◇ </v>
+        <v>Loading...</v>
       </c>
       <c r="H184" s="23"/>
     </row>
@@ -62520,10 +62114,7 @@
       <c r="F189" s="23"/>
       <c r="G189" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Long time no see,
-────────. 
-I know this is sudden but...let's
-Robottle! </v>
+        <v>Loading...</v>
       </c>
       <c r="H189" s="23"/>
     </row>
@@ -62546,8 +62137,7 @@
       <c r="F190" s="23"/>
       <c r="G190" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>You're very strong. You beat
-me rather quickly. </v>
+        <v>Loading...</v>
       </c>
       <c r="H190" s="23"/>
     </row>
@@ -62570,8 +62160,7 @@
       <c r="F191" s="23"/>
       <c r="G191" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>When I was a kid, I also used
-to play ninja. </v>
+        <v>Loading...</v>
       </c>
       <c r="H191" s="23"/>
     </row>
@@ -62592,7 +62181,7 @@
       <c r="F192" s="23"/>
       <c r="G192" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>...... </v>
+        <v>Loading...</v>
       </c>
       <c r="H192" s="23"/>
     </row>
@@ -62678,9 +62267,7 @@
       <c r="F196" s="23"/>
       <c r="G196" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Your youth is only just
-beginning, boy. 
-Hohohoh! </v>
+        <v>Loading...</v>
       </c>
       <c r="H196" s="21" t="s">
         <v>84</v>
@@ -62705,13 +62292,7 @@
       <c r="F197" s="23"/>
       <c r="G197" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Ah, you did well to come here. 
-Now, let's quickly start our
-Robottle... 
-Is what I would like to say
-but... 
-I just came out of a Robottle.
-Hohohoo! </v>
+        <v>Loading...</v>
       </c>
       <c r="H197" s="21" t="s">
         <v>84</v>
@@ -62964,9 +62545,7 @@
       <c r="F208" s="23"/>
       <c r="G208" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>They say if you go to the pond
-in the center of the Ruins, you
-might see some weird stuff. </v>
+        <v>Loading...</v>
       </c>
       <c r="H208" s="21" t="s">
         <v>87</v>
@@ -62991,8 +62570,7 @@
       <c r="F209" s="23"/>
       <c r="G209" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>There's a bunch of Medarot
-parts in the junkyard. </v>
+        <v>Loading...</v>
       </c>
       <c r="H209" s="23"/>
     </row>
@@ -63015,11 +62593,7 @@
       <c r="F210" s="23"/>
       <c r="G210" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>I got a counterfeit Medarot... 
-You mean a Medanot? 
-Yup. You think if I hold on to
-it, its value will increase? 
-I don't think so... </v>
+        <v>Loading...</v>
       </c>
       <c r="H210" s="21"/>
     </row>
@@ -63107,8 +62681,7 @@
       <c r="F214" s="23"/>
       <c r="G214" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>In order to repair my Medal, I
-have to leave it in the pond. </v>
+        <v>Loading...</v>
       </c>
       <c r="H214" s="23"/>
     </row>
@@ -63171,22 +62744,7 @@
       <c r="F217" s="23"/>
       <c r="G217" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>▰We are in grave danger... 
-It will awaken soon. 
-▱ 
-Huh? What are you talking
-about? 
-▰ 
-▱▰If you can't stop ▱▰◆it ◇▱▰then...▱ 
-Stop what?! 
-▰This boy will surely... 
-▱ 
-▰Yes...This boy will definitely be
-of help to us.▱ 
-Hey, who are you guys? What
-are you talking about? 
-▰We are your guardians,  
-and you are our only hope.▱ </v>
+        <v>Loading...</v>
       </c>
       <c r="H217" s="23"/>
     </row>
@@ -63278,13 +62836,7 @@
       </c>
       <c r="G221" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>It's hard to read the name
-with these bushes in the way. 
-Hm? 
-Horu...in. Building of World
-Domination. 
-......? 
-Well, I'm sure it's no big deal... </v>
+        <v>Loading...</v>
       </c>
       <c r="H221" s="23"/>
     </row>
@@ -63307,10 +62859,7 @@
       <c r="F222" s="23"/>
       <c r="G222" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>You can take the rail car to
-the Ruins. 
-The boarding spot is right in
-front of you. </v>
+        <v>Loading...</v>
       </c>
       <c r="H222" s="23"/>
     </row>
@@ -63333,11 +62882,7 @@
       <c r="F223" s="23"/>
       <c r="G223" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>The RoboRobo Gang are a bad
-bunch. 
-They're probably stealing
-excavated Medals as we
-speak. </v>
+        <v>Loading...</v>
       </c>
       <c r="H223" s="23"/>
     </row>
@@ -63383,7 +62928,7 @@
       <c r="F225" s="23"/>
       <c r="G225" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>*clank* </v>
+        <v>Loading...</v>
       </c>
       <c r="H225" s="23"/>
     </row>
@@ -63431,7 +62976,7 @@
       <c r="F227" s="23"/>
       <c r="G227" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>You pulled the lever. </v>
+        <v>Loading...</v>
       </c>
       <c r="H227" s="21" t="s">
         <v>87</v>
@@ -63479,10 +63024,7 @@
       <c r="F229" s="23"/>
       <c r="G229" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Ah, it's the RoboRobo Gang! 
-They must be plotting
-something again, I better
-stop them! </v>
+        <v>Loading...</v>
       </c>
       <c r="H229" s="21" t="s">
         <v>87</v>
@@ -63507,7 +63049,7 @@
       <c r="F230" s="27"/>
       <c r="G230" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>=0x601c6</v>
+        <v>Loading...</v>
       </c>
       <c r="H230" s="24" t="s">
         <v>92</v>
@@ -63555,10 +63097,7 @@
       <c r="F232" s="23"/>
       <c r="G232" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Woof Wooof! 
-Ah! Not that dog again, Robo! 
-I-I can't stand dogs, Robooo! 
-Woof woooof! </v>
+        <v>Loading...</v>
       </c>
       <c r="H232" s="23"/>
     </row>
@@ -63604,8 +63143,7 @@
       <c r="F234" s="23"/>
       <c r="G234" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>You'll regret picking a fight
-with the RoboRobo Gang! </v>
+        <v>Loading...</v>
       </c>
       <c r="H234" s="23"/>
     </row>
@@ -63651,7 +63189,7 @@
       <c r="F236" s="23"/>
       <c r="G236" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Thank you for your help. </v>
+        <v>Loading...</v>
       </c>
       <c r="H236" s="23"/>
     </row>
@@ -63672,8 +63210,7 @@
       <c r="F237" s="23"/>
       <c r="G237" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>There's a bunch of rare
-Medals on display. </v>
+        <v>Loading...</v>
       </c>
       <c r="H237" s="23"/>
     </row>
@@ -63784,8 +63321,7 @@
       <c r="F242" s="23"/>
       <c r="G242" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>They sell female parts at the
-Imports shop. </v>
+        <v>Loading...</v>
       </c>
       <c r="H242" s="23"/>
     </row>
@@ -63808,8 +63344,7 @@
       <c r="F243" s="23"/>
       <c r="G243" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Look at me. 
-Aren't I pretty? </v>
+        <v>Loading...</v>
       </c>
       <c r="H243" s="23"/>
     </row>
@@ -63924,7 +63459,7 @@
       <c r="F248" s="23"/>
       <c r="G248" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Ah! It's an ◆Angel ◇Medal! </v>
+        <v>Loading...</v>
       </c>
       <c r="H248" s="23"/>
     </row>
@@ -63993,11 +63528,7 @@
       <c r="F251" s="23"/>
       <c r="G251" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Skills and part compatability
-are important and all but
-choosing parts that match
-your Medal's personality also
-helps. </v>
+        <v>Loading...</v>
       </c>
       <c r="H251" s="23"/>
     </row>
@@ -64162,7 +63693,7 @@
       <c r="F258" s="23"/>
       <c r="G258" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Children are not allowed here! </v>
+        <v>Loading...</v>
       </c>
       <c r="H258" s="23"/>
     </row>
@@ -64183,8 +63714,7 @@
       <c r="F259" s="23"/>
       <c r="G259" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Heey, boy. You can't come in
-here! I'll punish yoou! </v>
+        <v>Loading...</v>
       </c>
       <c r="H259" s="23"/>
     </row>
@@ -64205,7 +63735,7 @@
       <c r="F260" s="23"/>
       <c r="G260" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>All right, but just this once.♥ </v>
+        <v>Loading...</v>
       </c>
       <c r="H260" s="23"/>
     </row>
@@ -64449,7 +63979,7 @@
       <c r="F270" s="27"/>
       <c r="G270" s="23" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>Loading...</v>
       </c>
       <c r="H270" s="24" t="s">
         <v>92</v>
@@ -64474,7 +64004,7 @@
       <c r="F271" s="27"/>
       <c r="G271" s="23" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>Loading...</v>
       </c>
       <c r="H271" s="24" t="s">
         <v>92</v>
@@ -64616,9 +64146,7 @@
       <c r="F277" s="23"/>
       <c r="G277" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Bonaparte? How'd you get
-here?! 
-Woof woof! </v>
+        <v>Loading...</v>
       </c>
       <c r="H277" s="23"/>
     </row>
@@ -64892,7 +64420,7 @@
       <c r="F289" s="23"/>
       <c r="G289" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Meat is pretty cheap. </v>
+        <v>Loading...</v>
       </c>
       <c r="H289" s="23"/>
     </row>
@@ -64936,8 +64464,7 @@
       <c r="F291" s="23"/>
       <c r="G291" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>The vegetables are pretty
-cheap. </v>
+        <v>Loading...</v>
       </c>
       <c r="H291" s="23"/>
     </row>
@@ -65138,15 +64665,7 @@
       <c r="F300" s="23"/>
       <c r="G300" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>If your Medarot's ◆Special
-◇stat is high, its abilities will
-change depending on the
-situation. 
-If you're in a pinch and use
-◆Heal◇ or if you take
-advantage of an opening, your
-Medarot can take control of
-the flow of battle. </v>
+        <v>Loading...</v>
       </c>
       <c r="H300" s="23"/>
     </row>
@@ -65259,10 +64778,7 @@
       <c r="F305" s="23"/>
       <c r="G305" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>You can learn a lot about life
-from studying bugs. 
-I'll show you the power of
-bugs! </v>
+        <v>Loading...</v>
       </c>
       <c r="H305" s="23"/>
     </row>
@@ -65285,8 +64801,7 @@
       <c r="F306" s="23"/>
       <c r="G306" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>You're kidding! That's
-impossible! </v>
+        <v>Loading...</v>
       </c>
       <c r="H306" s="23"/>
     </row>
@@ -65355,7 +64870,7 @@
       <c r="F309" s="23"/>
       <c r="G309" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>What do you want? Waaant? </v>
+        <v>Loading...</v>
       </c>
       <c r="H309" s="23"/>
     </row>
@@ -65472,7 +64987,7 @@
       <c r="F314" s="27"/>
       <c r="G314" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>=0x6026a</v>
+        <v>Loading...</v>
       </c>
       <c r="H314" s="24" t="s">
         <v>92</v>
@@ -65495,7 +65010,7 @@
       <c r="F315" s="23"/>
       <c r="G315" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Make your Medals strong! </v>
+        <v>Loading...</v>
       </c>
       <c r="H315" s="23"/>
     </row>
@@ -65518,8 +65033,7 @@
       <c r="F316" s="23"/>
       <c r="G316" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>The professor caught all of
-the bugs in this area... </v>
+        <v>Loading...</v>
       </c>
       <c r="H316" s="23"/>
     </row>
@@ -65653,7 +65167,7 @@
       <c r="F322" s="23"/>
       <c r="G322" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Ha! Haa! Bullseye! </v>
+        <v>Loading...</v>
       </c>
       <c r="H322" s="23"/>
     </row>
@@ -65674,7 +65188,7 @@
       <c r="F323" s="23"/>
       <c r="G323" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Teyaah!! </v>
+        <v>Loading...</v>
       </c>
       <c r="H323" s="23"/>
     </row>
@@ -65764,7 +65278,7 @@
       <c r="F327" s="23"/>
       <c r="G327" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>3 becomes 4... </v>
+        <v>Loading...</v>
       </c>
       <c r="H327" s="21" t="s">
         <v>87</v>
@@ -65852,7 +65366,7 @@
       <c r="F331" s="23"/>
       <c r="G331" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>The door opened! </v>
+        <v>Loading...</v>
       </c>
       <c r="H331" s="23"/>
     </row>
@@ -65873,7 +65387,7 @@
       <c r="F332" s="23"/>
       <c r="G332" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>It's pitch black in here. </v>
+        <v>Loading...</v>
       </c>
       <c r="H332" s="23"/>
     </row>
@@ -65894,11 +65408,7 @@
       <c r="F333" s="23"/>
       <c r="G333" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Clack! 
-You feel something touching
-your foot. 
-It grabs a hold of it and
-drags you outside! </v>
+        <v>Loading...</v>
       </c>
       <c r="H333" s="21"/>
     </row>
@@ -65919,8 +65429,7 @@
       <c r="F334" s="23"/>
       <c r="G334" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>The scroll turned into a rope
-ladder. </v>
+        <v>Loading...</v>
       </c>
       <c r="H334" s="23"/>
     </row>
@@ -65983,7 +65492,7 @@
       <c r="F337" s="23"/>
       <c r="G337" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>You did well. </v>
+        <v>Loading...</v>
       </c>
       <c r="H337" s="23"/>
     </row>
@@ -66048,7 +65557,7 @@
       <c r="F340" s="23"/>
       <c r="G340" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>You still have much to learn. </v>
+        <v>Loading...</v>
       </c>
       <c r="H340" s="23"/>
     </row>
@@ -66262,7 +65771,7 @@
       <c r="F350" s="23"/>
       <c r="G350" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Wooaah!? </v>
+        <v>Loading...</v>
       </c>
       <c r="H350" s="23"/>
     </row>
@@ -66283,9 +65792,7 @@
       <c r="F351" s="23"/>
       <c r="G351" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Ho ho ho...you did well finding me
-here. 
-Come, my comrades! </v>
+        <v>Loading...</v>
       </c>
       <c r="H351" s="23"/>
     </row>
@@ -66371,7 +65878,7 @@
       <c r="F355" s="23"/>
       <c r="G355" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Hey, Wait! </v>
+        <v>Loading...</v>
       </c>
       <c r="H355" s="23"/>
     </row>
@@ -66392,8 +65899,7 @@
       <c r="F356" s="23"/>
       <c r="G356" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>When will they have female
-Tinpets in store? </v>
+        <v>Loading...</v>
       </c>
       <c r="H356" s="23"/>
     </row>
@@ -66458,7 +65964,7 @@
       <c r="F359" s="27"/>
       <c r="G359" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>=0x602c4</v>
+        <v>Loading...</v>
       </c>
       <c r="H359" s="24" t="s">
         <v>92</v>
@@ -66548,8 +66054,7 @@
       <c r="F363" s="23"/>
       <c r="G363" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>I saw a RoboRobo member put
-on a disguise. </v>
+        <v>Loading...</v>
       </c>
       <c r="H363" s="21"/>
     </row>
@@ -66572,11 +66077,7 @@
       <c r="F364" s="23"/>
       <c r="G364" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>The Medarot Company
-researches a lot of different
-stuff, like new and unusual
-parts, as well as items from
-overseas. </v>
+        <v>Loading...</v>
       </c>
       <c r="H364" s="23"/>
     </row>
@@ -66639,7 +66140,7 @@
       <c r="F367" s="23"/>
       <c r="G367" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>You have a sharp eye. </v>
+        <v>Loading...</v>
       </c>
       <c r="H367" s="23"/>
     </row>
@@ -66771,8 +66272,7 @@
       <c r="F373" s="23"/>
       <c r="G373" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Don't get cocky because you
-won once or twice. </v>
+        <v>Loading...</v>
       </c>
       <c r="H373" s="23"/>
     </row>
@@ -66841,7 +66341,7 @@
       <c r="F376" s="23"/>
       <c r="G376" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Nooo! </v>
+        <v>Loading...</v>
       </c>
       <c r="H376" s="23"/>
     </row>
@@ -66887,8 +66387,7 @@
       <c r="F378" s="23"/>
       <c r="G378" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>You've become very strong! 'Til
-we meet again!♥ </v>
+        <v>Loading...</v>
       </c>
       <c r="H378" s="23"/>
     </row>
@@ -66911,10 +66410,7 @@
       <c r="F379" s="23"/>
       <c r="G379" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>This place is like a garden to
-me.. 
-Which is why, I won't lose to
-you, no matter what! </v>
+        <v>Loading...</v>
       </c>
       <c r="H379" s="21"/>
     </row>
@@ -67098,11 +66594,7 @@
       <c r="F387" s="23"/>
       <c r="G387" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Can you give this part a little
-test run? 
-Huh, it's not here... 
-Could it have gotten lost in
-the delivery?...Ah, oh well. </v>
+        <v>Loading...</v>
       </c>
       <c r="H387" s="23"/>
     </row>
@@ -67169,8 +66661,7 @@
       <c r="F390" s="23"/>
       <c r="G390" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Could you test this item out
-for me? </v>
+        <v>Loading...</v>
       </c>
       <c r="H390" s="23"/>
     </row>
@@ -67241,7 +66732,7 @@
       </c>
       <c r="G393" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Master Yuuki is in his bedroom. </v>
+        <v>Loading...</v>
       </c>
       <c r="H393" s="23"/>
     </row>
@@ -67262,8 +66753,7 @@
       <c r="F394" s="23"/>
       <c r="G394" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Master Yuuki is out at the
-moment. </v>
+        <v>Loading...</v>
       </c>
       <c r="H394" s="23"/>
     </row>
@@ -67286,7 +66776,7 @@
       <c r="F395" s="23"/>
       <c r="G395" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Move, I'm cleaning. </v>
+        <v>Loading...</v>
       </c>
       <c r="H395" s="21" t="s">
         <v>87</v>
@@ -67361,12 +66851,7 @@
       <c r="F398" s="23"/>
       <c r="G398" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>I'm gonna try out a new
-product in the next
-tournament. 
-It's not good to blame your
-parts if you lose. Here, I'll
-give you a set too. </v>
+        <v>Loading...</v>
       </c>
       <c r="H398" s="23"/>
     </row>
@@ -67410,15 +66895,7 @@
       <c r="F400" s="23"/>
       <c r="G400" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>You want to fix a broken
-Medal? 
-Well, a long time ago, my
-grandpa told me a story that
-if you place a Medal in the
-fountain at the Ruins on the
-night of a full moon, the Medal
-will be revived. 
-Isn't tonight a full moon? </v>
+        <v>Loading...</v>
       </c>
       <c r="H400" s="23"/>
     </row>
@@ -67439,10 +66916,7 @@
       <c r="F401" s="23"/>
       <c r="G401" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>You should hurry and fix your
-Medal. 
-It bums me out when you're
-depressed. </v>
+        <v>Loading...</v>
       </c>
       <c r="H401" s="23"/>
     </row>
@@ -67463,11 +66937,7 @@
       <c r="F402" s="23"/>
       <c r="G402" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Your Medarot has grown. 
-... 
-I guess it's expected. 
-Feel free to ask for a match
-anytime. </v>
+        <v>Loading...</v>
       </c>
       <c r="H402" s="23"/>
     </row>
@@ -67509,8 +66979,7 @@
       <c r="F404" s="23"/>
       <c r="G404" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Don't make me regret calling
-you my rival. </v>
+        <v>Loading...</v>
       </c>
       <c r="H404" s="23"/>
     </row>
@@ -67669,11 +67138,7 @@
       <c r="F411" s="23"/>
       <c r="G411" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>If you pay attention to the
-◆Charge ◇and ◆Cooldown ◇on
-your parts, you can shorten
-the gaps between your actions
-or strengthen their effects. </v>
+        <v>Loading...</v>
       </c>
       <c r="H411" s="23"/>
     </row>
@@ -67857,7 +67322,7 @@
       <c r="F419" s="23"/>
       <c r="G419" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Y-you saw right through me! </v>
+        <v>Loading...</v>
       </c>
       <c r="H419" s="21" t="s">
         <v>84</v>
@@ -67955,7 +67420,7 @@
       <c r="F423" s="23"/>
       <c r="G423" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>I'll remember this!! </v>
+        <v>Loading...</v>
       </c>
       <c r="H423" s="23"/>
     </row>
@@ -67980,7 +67445,7 @@
       </c>
       <c r="G424" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>The door is locked. </v>
+        <v>Loading...</v>
       </c>
       <c r="H424" s="23"/>
     </row>
@@ -68028,7 +67493,7 @@
       <c r="F426" s="27"/>
       <c r="G426" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>=0x60348</v>
+        <v>Loading...</v>
       </c>
       <c r="H426" s="24" t="s">
         <v>92</v>
@@ -68078,7 +67543,7 @@
       <c r="F428" s="27"/>
       <c r="G428" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>=0x60348</v>
+        <v>Loading...</v>
       </c>
       <c r="H428" s="24" t="s">
         <v>92</v>
@@ -68145,8 +67610,7 @@
       <c r="F431" s="23"/>
       <c r="G431" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Man, I'm not doing so hot
-today... </v>
+        <v>Loading...</v>
       </c>
       <c r="H431" s="21"/>
     </row>
@@ -68169,8 +67633,7 @@
       <c r="F432" s="23"/>
       <c r="G432" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>The RoboRobo Gang must enjoy
-causing trouble for everyone. </v>
+        <v>Loading...</v>
       </c>
       <c r="H432" s="23"/>
     </row>
@@ -68243,7 +67706,7 @@
       <c r="F435" s="27"/>
       <c r="G435" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>=0x60358</v>
+        <v>Loading...</v>
       </c>
       <c r="H435" s="24" t="s">
         <v>92</v>
@@ -68318,7 +67781,7 @@
       <c r="F438" s="27"/>
       <c r="G438" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>=0x60358</v>
+        <v>Loading...</v>
       </c>
       <c r="H438" s="24" t="s">
         <v>92</v>
@@ -68368,9 +67831,7 @@
       </c>
       <c r="G440" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>I personally like the blue ones. 
-It's like they're a sign of
-happiness. </v>
+        <v>Loading...</v>
       </c>
       <c r="H440" s="21"/>
     </row>
@@ -68414,8 +67875,7 @@
       <c r="F442" s="23"/>
       <c r="G442" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>The Antiques shop is always
-closed. </v>
+        <v>Loading...</v>
       </c>
       <c r="H442" s="21" t="s">
         <v>87</v>
@@ -68461,9 +67921,7 @@
       <c r="F444" s="23"/>
       <c r="G444" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>You should probably try using
-parts compatible with your
-Medal's attribute. </v>
+        <v>Loading...</v>
       </c>
       <c r="H444" s="23"/>
     </row>
@@ -68486,8 +67944,7 @@
       <c r="F445" s="23"/>
       <c r="G445" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Yaaay, summer vacation is
-here! </v>
+        <v>Loading...</v>
       </c>
       <c r="H445" s="23"/>
     </row>
@@ -68638,9 +68095,7 @@
       <c r="F452" s="23"/>
       <c r="G452" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>It's using a Medal with a
-Select mark. So why's it still
-going berserk!? </v>
+        <v>Loading...</v>
       </c>
       <c r="H452" s="23"/>
     </row>
@@ -68661,9 +68116,7 @@
       <c r="F453" s="23"/>
       <c r="G453" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>The RoboRobo Gang is gone, so
-we don't really need the Select
-Force anymore. </v>
+        <v>Loading...</v>
       </c>
       <c r="H453" s="23"/>
     </row>
@@ -68772,7 +68225,7 @@
       <c r="F458" s="27"/>
       <c r="G458" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>=0x6038a</v>
+        <v>Loading...</v>
       </c>
       <c r="H458" s="24" t="s">
         <v>92</v>
@@ -68797,10 +68250,7 @@
       <c r="F459" s="23"/>
       <c r="G459" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Must be nice to be a kid and
-still get summer vacation... 
-What? No, I didn't come here
-to slack off or anything! </v>
+        <v>Loading...</v>
       </c>
       <c r="H459" s="23"/>
     </row>
@@ -68823,7 +68273,7 @@
       <c r="F460" s="23"/>
       <c r="G460" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Oh cool, a ¥10 coin. </v>
+        <v>Loading...</v>
       </c>
       <c r="H460" s="23"/>
     </row>
@@ -68844,7 +68294,7 @@
       <c r="F461" s="23"/>
       <c r="G461" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Hm? This is a Medal! </v>
+        <v>Loading...</v>
       </c>
       <c r="H461" s="23"/>
     </row>
@@ -68886,7 +68336,7 @@
       <c r="F463" s="23"/>
       <c r="G463" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Thank you. I will pay you back. </v>
+        <v>Loading...</v>
       </c>
       <c r="H463" s="23"/>
     </row>
@@ -68907,7 +68357,7 @@
       <c r="F464" s="23"/>
       <c r="G464" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>It's no use! Give up! </v>
+        <v>Loading...</v>
       </c>
       <c r="H464" s="23"/>
     </row>
@@ -68991,8 +68441,7 @@
       <c r="F468" s="23"/>
       <c r="G468" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>When I grow up, I will also be a
-Medarotter! </v>
+        <v>Loading...</v>
       </c>
       <c r="H468" s="23"/>
     </row>
@@ -69038,12 +68487,7 @@
       <c r="F470" s="23"/>
       <c r="G470" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Aren't those the RoboRobo
-Gang's clothes? 
-Woof! Woof! 
-Did you pick it up after the
-battle with the RoboRobo Gang
-at the excavation site? </v>
+        <v>Loading...</v>
       </c>
       <c r="H470" s="23"/>
     </row>
@@ -69114,7 +68558,7 @@
       <c r="F473" s="23"/>
       <c r="G473" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Ouch! </v>
+        <v>Loading...</v>
       </c>
       <c r="H473" s="23"/>
     </row>
@@ -69183,14 +68627,7 @@
       <c r="F476" s="23"/>
       <c r="G476" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Wait, ────────! 
-You haven't Robottled before,
-have you? 
-Heh! We won't go easy on you
-just because you're a
-beginner! 
-C'mon, let's get this Robottle
-started! </v>
+        <v>Loading...</v>
       </c>
       <c r="H476" s="23"/>
     </row>
@@ -69213,14 +68650,7 @@
       <c r="F477" s="23"/>
       <c r="G477" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Oh, what's that? Little baby's
-changed his mind? 
-Heh heh! Just what I thought,
-this guy's afraid of losing too! 
-────────! You'll lose if
-you let them get to you! 
-C'mon, let's get this Robottle
-started! </v>
+        <v>Loading...</v>
       </c>
       <c r="H477" s="23"/>
     </row>
@@ -69412,7 +68842,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C303733D-C89D-44DD-A8FF-D92EBEA68217}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{5541889B-722A-477F-8893-DD2AE6BE8524}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$1:$H$485">
         <filterColumn colId="3">
           <customFilters>
@@ -69421,7 +68851,7 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{8965EAC8-BDD4-47FB-B5E5-FE9CD8CE2B54}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{BA7D1C37-B08B-41D7-B0CE-9DB053B91EDD}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$1:$H$485">
         <sortState ref="B1:H485">
           <sortCondition ref="E1:E485"/>
@@ -69615,9 +69045,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>From here on out, I'll try my
-best to build a new Select
-Force. </v>
+        <v>Loading...</v>
       </c>
       <c r="H6" s="23"/>
     </row>
@@ -69709,7 +69137,7 @@
       <c r="F10" s="27"/>
       <c r="G10" s="21" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>Loading...</v>
       </c>
       <c r="H10" s="24" t="s">
         <v>92</v>
@@ -69834,14 +69262,7 @@
       <c r="F15" s="23"/>
       <c r="G15" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Hey, ────────, check it
-out! You're in the newspaper! 
-"Young heroic boy trumps the
-RoboRobo Gang!!". 
-You've grown so much, I'd
-expect no less from my son. 
-You'd make a great leader in
-the Select Force! </v>
+        <v>Loading...</v>
       </c>
       <c r="H15" s="21" t="s">
         <v>87</v>
@@ -69866,9 +69287,7 @@
       <c r="F16" s="23"/>
       <c r="G16" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>If I was a bit younger, I
-would have joined the Select
-Force myself. </v>
+        <v>Loading...</v>
       </c>
       <c r="H16" s="23"/>
     </row>
@@ -69916,8 +69335,7 @@
       <c r="F18" s="23"/>
       <c r="G18" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Be sure not to forget to do
-your homework. </v>
+        <v>Loading...</v>
       </c>
       <c r="H18" s="21" t="s">
         <v>87</v>
@@ -69961,10 +69379,7 @@
       <c r="F20" s="23"/>
       <c r="G20" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>I saw Kirara come by a while
-ago. 
-It looks like she went to go
-look for you at the beach. </v>
+        <v>Loading...</v>
       </c>
       <c r="H20" s="23"/>
     </row>
@@ -69985,9 +69400,7 @@
       <c r="F21" s="23"/>
       <c r="G21" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Calm down Beisuke. 
-You're making ────────
-nervous. </v>
+        <v>Loading...</v>
       </c>
       <c r="H21" s="23"/>
     </row>
@@ -70008,8 +69421,7 @@
       <c r="F22" s="23"/>
       <c r="G22" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>I'm really glad you're safe,
-────────. </v>
+        <v>Loading...</v>
       </c>
       <c r="H22" s="23"/>
     </row>
@@ -70059,22 +69471,7 @@
       </c>
       <c r="G24" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Here, I'll show you how you put
-it together... 
-Press ◆B◇ to open your ◆Info
-Pad◇ menu 
-You can find lots of useful
-information on your Medarot
-there. 
-Hmmm... But since you only have
-one set right now, you won't
-know how much fun it is to
-swap in different parts! 
-Here, I'll give you some extra
-allowance.  
-Use this to buy some extra
-parts for your new Medarot! 
-Got ¥5000 from dad. </v>
+        <v>Loading...</v>
       </c>
       <c r="H24" s="21" t="s">
         <v>84</v>
@@ -70218,11 +69615,7 @@
       <c r="F30" s="23"/>
       <c r="G30" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Zzzz zzzz 
-Well done, Select! 
-Zzzz zzz... 
-Watch out for the RoboRobos.. 
-Zzzz zzz... </v>
+        <v>Loading...</v>
       </c>
       <c r="H30" s="21" t="s">
         <v>84</v>
@@ -70245,10 +69638,7 @@
       <c r="F31" s="23"/>
       <c r="G31" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>────────! 
-You have school tomorrow, you
-need to get some rest. 
-Okay. </v>
+        <v>Loading...</v>
       </c>
       <c r="H31" s="23"/>
     </row>
@@ -70313,7 +69703,7 @@
       <c r="F34" s="23"/>
       <c r="G34" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>*wah wah wahhh* </v>
+        <v>Loading...</v>
       </c>
       <c r="H34" s="21" t="s">
         <v>84</v>
@@ -70336,7 +69726,7 @@
       <c r="F35" s="23"/>
       <c r="G35" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>I came to play! </v>
+        <v>Loading...</v>
       </c>
       <c r="H35" s="21" t="s">
         <v>84</v>
@@ -70428,7 +69818,7 @@
       <c r="F39" s="23"/>
       <c r="G39" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>I'll stop by again sometime. </v>
+        <v>Loading...</v>
       </c>
       <c r="H39" s="21" t="s">
         <v>84</v>
@@ -70453,12 +69843,7 @@
       <c r="F40" s="23"/>
       <c r="G40" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Oh, hello ────────. 
-How are you? 
-Have you started getting into
-Medarots? 
-I'm sure Kirara will be happy
-to hear that. </v>
+        <v>Loading...</v>
       </c>
       <c r="H40" s="21" t="s">
         <v>87</v>
@@ -70481,10 +69866,7 @@
       <c r="F41" s="23"/>
       <c r="G41" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Kirara went to play at her
-grandma's house. 
-She won't be back for at
-least a week. </v>
+        <v>Loading...</v>
       </c>
       <c r="H41" s="23"/>
     </row>
@@ -70597,10 +69979,7 @@
       <c r="F46" s="23"/>
       <c r="G46" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Wh-what do you want? 
-Don't just waltz into other
-people's houses. 
-Try asking first... </v>
+        <v>Loading...</v>
       </c>
       <c r="H46" s="21" t="s">
         <v>84</v>
@@ -70648,7 +70027,7 @@
       <c r="F48" s="27"/>
       <c r="G48" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>=0x6805a</v>
+        <v>Loading...</v>
       </c>
       <c r="H48" s="24" t="s">
         <v>92</v>
@@ -70698,7 +70077,7 @@
       <c r="F50" s="27"/>
       <c r="G50" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>=0x6805a</v>
+        <v>Loading...</v>
       </c>
       <c r="H50" s="24" t="s">
         <v>92</v>
@@ -70748,8 +70127,7 @@
       <c r="F52" s="23"/>
       <c r="G52" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>I'm training right now, don't
-come in here. </v>
+        <v>Loading...</v>
       </c>
       <c r="H52" s="21" t="s">
         <v>87</v>
@@ -70872,9 +70250,7 @@
       <c r="F57" s="23"/>
       <c r="G57" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>If your Medal's ◆Defense
-◇stat is high, it'll aim for enemy
-weak spots more often. </v>
+        <v>Loading...</v>
       </c>
       <c r="H57" s="21" t="s">
         <v>87</v>
@@ -70899,8 +70275,7 @@
       <c r="F58" s="23"/>
       <c r="G58" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>I saw a Medarot climbing the
-stairs. </v>
+        <v>Loading...</v>
       </c>
       <c r="H58" s="23"/>
     </row>
@@ -70969,7 +70344,7 @@
       <c r="F61" s="27"/>
       <c r="G61" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>=0x68074</v>
+        <v>Loading...</v>
       </c>
       <c r="H61" s="24" t="s">
         <v>92</v>
@@ -70994,8 +70369,7 @@
       <c r="F62" s="23"/>
       <c r="G62" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>They say this school is
-haunted... </v>
+        <v>Loading...</v>
       </c>
       <c r="H62" s="23"/>
     </row>
@@ -71016,8 +70390,7 @@
       <c r="F63" s="23"/>
       <c r="G63" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>The teacher's conductor's
-stick looks a little... off. </v>
+        <v>Loading...</v>
       </c>
       <c r="H63" s="23"/>
     </row>
@@ -71061,11 +70434,7 @@
       <c r="F65" s="23"/>
       <c r="G65" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>What?! 
-This whole time I've been
-waving around a Medarot
-part!? 
-Oh, the humiliation! </v>
+        <v>Loading...</v>
       </c>
       <c r="H65" s="23"/>
     </row>
@@ -71107,8 +70476,7 @@
       <c r="F67" s="23"/>
       <c r="G67" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Now I can conduct much more
-efficiently! </v>
+        <v>Loading...</v>
       </c>
       <c r="H67" s="23"/>
     </row>
@@ -71152,7 +70520,7 @@
       <c r="F69" s="23"/>
       <c r="G69" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Has your Medal evolved yet? </v>
+        <v>Loading...</v>
       </c>
       <c r="H69" s="23"/>
     </row>
@@ -71173,7 +70541,7 @@
       <c r="F70" s="23"/>
       <c r="G70" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>..... </v>
+        <v>Loading...</v>
       </c>
       <c r="H70" s="23"/>
     </row>
@@ -71215,9 +70583,7 @@
       <c r="F72" s="23"/>
       <c r="G72" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Hm? Was there always this
-much smoke? 
-*cough* </v>
+        <v>Loading...</v>
       </c>
       <c r="H72" s="23"/>
     </row>
@@ -71238,7 +70604,7 @@
       <c r="F73" s="23"/>
       <c r="G73" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Aah! I failed! </v>
+        <v>Loading...</v>
       </c>
       <c r="H73" s="23"/>
     </row>
@@ -71456,9 +70822,7 @@
       <c r="F83" s="23"/>
       <c r="G83" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>With this, I can make a
-Medarot that eats other
-Medarots. </v>
+        <v>Loading...</v>
       </c>
       <c r="H83" s="23"/>
     </row>
@@ -71479,8 +70843,7 @@
       <c r="F84" s="23"/>
       <c r="G84" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>It can't be helped. I'll just
-make do with other parts. </v>
+        <v>Loading...</v>
       </c>
       <c r="H84" s="23"/>
     </row>
@@ -71501,8 +70864,7 @@
       <c r="F85" s="23"/>
       <c r="G85" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>If I connect this part and
-this part together... </v>
+        <v>Loading...</v>
       </c>
       <c r="H85" s="23"/>
     </row>
@@ -71617,14 +70979,7 @@
       <c r="F90" s="23"/>
       <c r="G90" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>You may not have guessed it,
-but even I have a Medarot of
-my own. 
-She's a real cutie! ♥ 
-My Medarot is a type that
-specializes in repairs. 
-Perhaps I'll bring her in
-sometime? </v>
+        <v>Loading...</v>
       </c>
       <c r="H90" s="23"/>
     </row>
@@ -71693,10 +71048,7 @@
       <c r="F93" s="23"/>
       <c r="G93" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>If you like, I could lend you my
-Medal. 
-But don't do anything reckless
-with it! </v>
+        <v>Loading...</v>
       </c>
       <c r="H93" s="23"/>
     </row>
@@ -71740,7 +71092,7 @@
       <c r="F95" s="27"/>
       <c r="G95" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>=0x680b8</v>
+        <v>Loading...</v>
       </c>
       <c r="H95" s="24" t="s">
         <v>92</v>
@@ -71763,8 +71115,7 @@
       <c r="F96" s="23"/>
       <c r="G96" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>With this, I can protect the
-students! </v>
+        <v>Loading...</v>
       </c>
       <c r="H96" s="23"/>
     </row>
@@ -71785,7 +71136,7 @@
       <c r="F97" s="23"/>
       <c r="G97" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Oh well. I'll ask someone else. </v>
+        <v>Loading...</v>
       </c>
       <c r="H97" s="23"/>
     </row>
@@ -71894,8 +71245,7 @@
       <c r="F102" s="23"/>
       <c r="G102" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Come to think of it, I might
-have told you. </v>
+        <v>Loading...</v>
       </c>
       <c r="H102" s="23"/>
     </row>
@@ -72054,7 +71404,7 @@
       <c r="F109" s="23"/>
       <c r="G109" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>I'm sad now... </v>
+        <v>Loading...</v>
       </c>
       <c r="H109" s="23"/>
     </row>
@@ -72169,7 +71519,7 @@
       <c r="F114" s="27"/>
       <c r="G114" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>=0x680dc</v>
+        <v>Loading...</v>
       </c>
       <c r="H114" s="24" t="s">
         <v>92</v>
@@ -72244,7 +71594,7 @@
       <c r="F117" s="27"/>
       <c r="G117" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>=0x680dc</v>
+        <v>Loading...</v>
       </c>
       <c r="H117" s="24" t="s">
         <v>92</v>
@@ -72388,7 +71738,7 @@
       <c r="F123" s="23"/>
       <c r="G123" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Eeeek!! </v>
+        <v>Loading...</v>
       </c>
       <c r="H123" s="23"/>
     </row>
@@ -72411,20 +71761,7 @@
       <c r="F124" s="23"/>
       <c r="G124" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Good morning, ────────! 
-Whoa! Don't startle me like
-that, Kirara. 
-Hey... Isn't that a Medal? 
-You were just saying a few
-days ago that Medarots were
-sooo lame! 
-(Ugh... I can't just say I
-picked it up because of her...) 
-Hey, did you just say
-something? 
-N-no, nothing. 
-You totally did!  
-Could you repeat that again? </v>
+        <v>Loading...</v>
       </c>
       <c r="H124" s="21" t="s">
         <v>84</v>
@@ -72520,9 +71857,7 @@
       <c r="F128" s="23"/>
       <c r="G128" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>By this time tomorrow, I'll be
-on a plane to the southern
-island of Java... </v>
+        <v>Loading...</v>
       </c>
       <c r="H128" s="23"/>
     </row>
@@ -72568,8 +71903,7 @@
       <c r="F130" s="23"/>
       <c r="G130" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Now that school's out, we can
-play with Medarots every day. </v>
+        <v>Loading...</v>
       </c>
       <c r="H130" s="23"/>
     </row>
@@ -72592,9 +71926,7 @@
       <c r="F131" s="23"/>
       <c r="G131" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Kubota! We're going to
-Robottle at the park after
-school! </v>
+        <v>Loading...</v>
       </c>
       <c r="H131" s="23"/>
     </row>
@@ -72617,9 +71949,7 @@
       <c r="F132" s="23"/>
       <c r="G132" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>I guess this is farewell. 
-I hope you won't forget about
-lil' old me. </v>
+        <v>Loading...</v>
       </c>
       <c r="H132" s="23"/>
     </row>
@@ -72713,14 +72043,7 @@
       <c r="F136" s="23"/>
       <c r="G136" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>You were mentioned in the
-newspaper. 
-The RoboRobo Gang was right
-to stay in hiding while I was in
-town.  
-If they had tried to fight me,
-they wouldn't have stood a
-chance. </v>
+        <v>Loading...</v>
       </c>
       <c r="H136" s="23"/>
     </row>
@@ -72791,9 +72114,7 @@
       <c r="F139" s="23"/>
       <c r="G139" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>...Hmph.  
-I'll beat you to a pulp in the
-town tournament. </v>
+        <v>Loading...</v>
       </c>
       <c r="H139" s="23"/>
     </row>
@@ -72841,8 +72162,7 @@
       <c r="F141" s="23"/>
       <c r="G141" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Is everyone happy!? I'm
-happy!! </v>
+        <v>Loading...</v>
       </c>
       <c r="H141" s="21" t="s">
         <v>87</v>
@@ -72865,9 +72185,7 @@
       <c r="F142" s="23"/>
       <c r="G142" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>This is terrible. Look at the
-Medarots! 
-Look at MY Medarot! </v>
+        <v>Loading...</v>
       </c>
       <c r="H142" s="23"/>
     </row>
@@ -72930,13 +72248,7 @@
       <c r="F145" s="23"/>
       <c r="G145" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Are you okay!? 
-The Medarots have suddenly
-gone haywire. I'm worried
-about the kids! 
-Try not to go outside if that's
-possible, do you understand
-me!? </v>
+        <v>Loading...</v>
       </c>
       <c r="H145" s="23"/>
     </row>
@@ -72978,7 +72290,7 @@
       <c r="F147" s="23"/>
       <c r="G147" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Ah... </v>
+        <v>Loading...</v>
       </c>
       <c r="H147" s="23"/>
     </row>
@@ -72999,8 +72311,7 @@
       <c r="F148" s="23"/>
       <c r="G148" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Would you like to go out and
-play today? </v>
+        <v>Loading...</v>
       </c>
       <c r="H148" s="23"/>
     </row>
@@ -73023,10 +72334,7 @@
       <c r="F149" s="23"/>
       <c r="G149" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>There are 4 part types:  
-Head, Right Arm, Left Arm,
-and Legs. 
-Try not to get them mixed up! </v>
+        <v>Loading...</v>
       </c>
       <c r="H149" s="23"/>
     </row>
@@ -73074,11 +72382,7 @@
       <c r="F151" s="23"/>
       <c r="G151" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Yes, I have a Medarot of my
-own, too. 
-I'm not terribly fond of
-breaking things though, so my
-Medarot is a support type. </v>
+        <v>Loading...</v>
       </c>
       <c r="H151" s="23"/>
     </row>
@@ -73101,8 +72405,7 @@
       <c r="F152" s="23"/>
       <c r="G152" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>I lost my book. Oh, whatever
-shall I do? </v>
+        <v>Loading...</v>
       </c>
       <c r="H152" s="21" t="s">
         <v>87</v>
@@ -73213,7 +72516,7 @@
       <c r="F157" s="23"/>
       <c r="G157" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Reading is great. </v>
+        <v>Loading...</v>
       </c>
       <c r="H157" s="23"/>
     </row>
@@ -73236,7 +72539,7 @@
       <c r="F158" s="27"/>
       <c r="G158" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>=0x68136</v>
+        <v>Loading...</v>
       </c>
       <c r="H158" s="24" t="s">
         <v>92</v>
@@ -73531,7 +72834,7 @@
       <c r="F171" s="23"/>
       <c r="G171" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Hey, check it out! </v>
+        <v>Loading...</v>
       </c>
       <c r="H171" s="21" t="s">
         <v>89</v>
@@ -73625,7 +72928,7 @@
       <c r="F175" s="27"/>
       <c r="G175" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>=0x68158</v>
+        <v>Loading...</v>
       </c>
       <c r="H175" s="24" t="s">
         <v>92</v>
@@ -73694,12 +72997,7 @@
       <c r="F178" s="23"/>
       <c r="G178" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>It appears that if you
-combine two special Medals
-together, they will transform. 
-However, it seems there's
-more to it than simply putting
-them together. </v>
+        <v>Loading...</v>
       </c>
       <c r="H178" s="23"/>
     </row>
@@ -73720,7 +73018,7 @@
       <c r="F179" s="23"/>
       <c r="G179" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>How is it? </v>
+        <v>Loading...</v>
       </c>
       <c r="H179" s="23"/>
     </row>
@@ -73766,7 +73064,7 @@
       <c r="F181" s="27"/>
       <c r="G181" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>=0x68164</v>
+        <v>Loading...</v>
       </c>
       <c r="H181" s="24" t="s">
         <v>92</v>
@@ -73816,7 +73114,7 @@
       <c r="F183" s="27"/>
       <c r="G183" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>=0x68168</v>
+        <v>Loading...</v>
       </c>
       <c r="H183" s="24" t="s">
         <v>92</v>
@@ -73841,7 +73139,7 @@
       <c r="F184" s="23"/>
       <c r="G184" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Cotton candy is really light. </v>
+        <v>Loading...</v>
       </c>
       <c r="H184" s="21" t="s">
         <v>84</v>
@@ -73981,10 +73279,7 @@
       <c r="F190" s="23"/>
       <c r="G190" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Those who have faith will be
-saved. 
-Will you please donate ¥50 as
-an offering? </v>
+        <v>Loading...</v>
       </c>
       <c r="H190" s="23"/>
     </row>
@@ -74030,7 +73325,7 @@
       <c r="F192" s="27"/>
       <c r="G192" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>=0x6817a</v>
+        <v>Loading...</v>
       </c>
       <c r="H192" s="24" t="s">
         <v>92</v>
@@ -74103,8 +73398,7 @@
       <c r="F195" s="23"/>
       <c r="G195" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Show yourself, you coward! 
-I won't lose like this! </v>
+        <v>Loading...</v>
       </c>
       <c r="H195" s="23"/>
     </row>
@@ -74150,7 +73444,7 @@
       <c r="F197" s="23"/>
       <c r="G197" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Tch, you just got lucky. </v>
+        <v>Loading...</v>
       </c>
       <c r="H197" s="23"/>
     </row>
@@ -74196,7 +73490,7 @@
       <c r="F199" s="23"/>
       <c r="G199" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>I lost again... </v>
+        <v>Loading...</v>
       </c>
       <c r="H199" s="23"/>
     </row>
@@ -74347,7 +73641,7 @@
       <c r="F206" s="23"/>
       <c r="G206" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>*rumble* *rumble* *rumble* </v>
+        <v>Loading...</v>
       </c>
       <c r="H206" s="23"/>
     </row>
@@ -74416,11 +73710,7 @@
       <c r="F209" s="23"/>
       <c r="G209" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Have your Robottle skills
-improved? 
-I've got a bunch of parts on
-discount, so come on and buy
-them! </v>
+        <v>Loading...</v>
       </c>
       <c r="H209" s="21" t="s">
         <v>87</v>
@@ -74445,11 +73735,7 @@
       <c r="F210" s="23"/>
       <c r="G210" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>I'm overstocked so feel free
-to buy from me. 
-¥500, how 'bout it? 
-What should I do...? 
-All right! I'll buy it! </v>
+        <v>Loading...</v>
       </c>
       <c r="H210" s="21" t="s">
         <v>87</v>
@@ -74514,8 +73800,7 @@
       <c r="F213" s="23"/>
       <c r="G213" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Hurry and proceed to the
-stage, robo. </v>
+        <v>Loading...</v>
       </c>
       <c r="H213" s="23"/>
     </row>
@@ -74557,13 +73842,7 @@
       <c r="F215" s="23"/>
       <c r="G215" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Now... 
-It's time for the ◆62nd
-RoboRobo Gang's
-Strongest Competition◇! 
-Yeah!! Yeah!! Yeah!! 
-Our first battle will be Member
-A versus Member B! </v>
+        <v>Loading...</v>
       </c>
       <c r="H215" s="23"/>
     </row>
@@ -74752,8 +74031,7 @@
       <c r="F224" s="23"/>
       <c r="G224" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Fufufu, prepare yourself,
-robo. </v>
+        <v>Loading...</v>
       </c>
       <c r="H224" s="23"/>
     </row>
@@ -74837,7 +74115,7 @@
       <c r="F228" s="23"/>
       <c r="G228" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Are you pulling my leg, robo? </v>
+        <v>Loading...</v>
       </c>
       <c r="H228" s="23"/>
     </row>
@@ -74963,8 +74241,7 @@
       <c r="F234" s="23"/>
       <c r="G234" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Ah that's right. Give this card
-to the boss, robo. </v>
+        <v>Loading...</v>
       </c>
       <c r="H234" s="23"/>
     </row>
@@ -75027,9 +74304,7 @@
       <c r="F237" s="23"/>
       <c r="G237" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Did you put on the badge,
-robo? 
-All right, you can pass, robo. </v>
+        <v>Loading...</v>
       </c>
       <c r="H237" s="23"/>
     </row>
@@ -75073,10 +74348,7 @@
       <c r="F239" s="23"/>
       <c r="G239" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>There's a fisherman on the
-outskirts of town. Sometimes
-he'll give people what he
-catches. </v>
+        <v>Loading...</v>
       </c>
       <c r="H239" s="23"/>
     </row>
@@ -75124,7 +74396,7 @@
       <c r="F241" s="27"/>
       <c r="G241" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>=0x681da</v>
+        <v>Loading...</v>
       </c>
       <c r="H241" s="24" t="s">
         <v>92</v>
@@ -75406,7 +74678,7 @@
       <c r="F253" s="23"/>
       <c r="G253" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Heave-ho! Heave-ho! </v>
+        <v>Loading...</v>
       </c>
       <c r="H253" s="23"/>
     </row>
@@ -75670,10 +74942,7 @@
       <c r="F265" s="23"/>
       <c r="G265" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>I wanted to give you
-something for saving me, could
-you close your eyes for a
-second? </v>
+        <v>Loading...</v>
       </c>
       <c r="H265" s="23"/>
     </row>
@@ -75715,15 +74984,7 @@
       <c r="F267" s="23"/>
       <c r="G267" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>I wanted to thank Bonaparte,
-he's the one who let you know
-I was in trouble after all. 
-Woof woof! 
-Y-you tricked me! 
-Don't say that,
-────────! 
-I did want you to come after
-all. </v>
+        <v>Loading...</v>
       </c>
       <c r="H267" s="23"/>
     </row>
@@ -75769,7 +75030,7 @@
       <c r="F269" s="27"/>
       <c r="G269" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>=0x68214</v>
+        <v>Loading...</v>
       </c>
       <c r="H269" s="24" t="s">
         <v>92</v>
@@ -75813,8 +75074,7 @@
       <c r="F271" s="23"/>
       <c r="G271" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>I saw a girl waiting for you
-back there. </v>
+        <v>Loading...</v>
       </c>
       <c r="H271" s="23"/>
     </row>
@@ -75835,8 +75095,7 @@
       <c r="F272" s="23"/>
       <c r="G272" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>It's always the biggest fish
-that gets away. </v>
+        <v>Loading...</v>
       </c>
       <c r="H272" s="23"/>
     </row>
@@ -75859,8 +75118,7 @@
       <c r="F273" s="23"/>
       <c r="G273" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Do they sell any swim rings,
-robo? </v>
+        <v>Loading...</v>
       </c>
       <c r="H273" s="21"/>
     </row>
@@ -75908,7 +75166,7 @@
       <c r="F275" s="23"/>
       <c r="G275" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>I-I'll remember this, robo! </v>
+        <v>Loading...</v>
       </c>
       <c r="H275" s="21"/>
     </row>
@@ -75931,7 +75189,7 @@
       </c>
       <c r="G276" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>S-swim riiing! </v>
+        <v>Loading...</v>
       </c>
       <c r="H276" s="23"/>
     </row>
@@ -75954,8 +75212,7 @@
       <c r="F277" s="23"/>
       <c r="G277" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Boss lost because there were
-no swim rings, robo! </v>
+        <v>Loading...</v>
       </c>
       <c r="H277" s="23"/>
     </row>
@@ -76045,9 +75302,7 @@
       <c r="F281" s="23"/>
       <c r="G281" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Hey, let's spend some quality
-time, octo. 
-No means no! </v>
+        <v>Loading...</v>
       </c>
       <c r="H281" s="23"/>
     </row>
@@ -76089,7 +75344,7 @@
       <c r="F283" s="23"/>
       <c r="G283" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Y-you'll regret this, octo! </v>
+        <v>Loading...</v>
       </c>
       <c r="H283" s="23"/>
     </row>
@@ -76152,7 +75407,7 @@
       <c r="F286" s="23"/>
       <c r="G286" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>There were parts inside. </v>
+        <v>Loading...</v>
       </c>
       <c r="H286" s="23"/>
     </row>
@@ -76194,7 +75449,7 @@
       <c r="F288" s="23"/>
       <c r="G288" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Something fell at your feet. </v>
+        <v>Loading...</v>
       </c>
       <c r="H288" s="23"/>
     </row>
@@ -76309,7 +75564,7 @@
       <c r="F293" s="23"/>
       <c r="G293" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>This is one large building. </v>
+        <v>Loading...</v>
       </c>
       <c r="H293" s="23"/>
     </row>
@@ -76330,15 +75585,7 @@
       <c r="F294" s="23"/>
       <c r="G294" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Are you okay, boy? 
-Huh? You're the chick seller. 
-It's a miracle you came out of
-there unscathed. 
-Hey, old man. 
-What are you doing here
-anyway? 
-And are there really aliens? 
-...Why do you know about that? </v>
+        <v>Loading...</v>
       </c>
       <c r="H294" s="23"/>
     </row>
@@ -76428,7 +75675,7 @@
       <c r="F298" s="23"/>
       <c r="G298" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Hey! Quit fooling around! </v>
+        <v>Loading...</v>
       </c>
       <c r="H298" s="23"/>
     </row>
@@ -76470,7 +75717,7 @@
       <c r="F300" s="23"/>
       <c r="G300" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>The barrier's in the way! </v>
+        <v>Loading...</v>
       </c>
       <c r="H300" s="23"/>
     </row>
@@ -76556,8 +75803,7 @@
       <c r="F304" s="23"/>
       <c r="G304" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>The rice around here has
-gotten better lately. </v>
+        <v>Loading...</v>
       </c>
       <c r="H304" s="23"/>
     </row>
@@ -76578,8 +75824,7 @@
       <c r="F305" s="23"/>
       <c r="G305" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>The Select Force have reaped
-some rice already. </v>
+        <v>Loading...</v>
       </c>
       <c r="H305" s="21"/>
     </row>
@@ -76646,9 +75891,7 @@
       <c r="F308" s="23"/>
       <c r="G308" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>I won a ticket to Shinobic
-Park from the lottery. What
-are the odds? </v>
+        <v>Loading...</v>
       </c>
       <c r="H308" s="23"/>
     </row>
@@ -76694,8 +75937,7 @@
       <c r="F310" s="23"/>
       <c r="G310" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Are you ────────? Your
-father is on the roof. </v>
+        <v>Loading...</v>
       </c>
       <c r="H310" s="23"/>
     </row>
@@ -76787,9 +76029,7 @@
       <c r="F314" s="23"/>
       <c r="G314" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>When an enemy suddenly
-appears, it's best not to fight
-recklessly. </v>
+        <v>Loading...</v>
       </c>
       <c r="H314" s="23"/>
     </row>
@@ -76881,9 +76121,7 @@
       <c r="F318" s="23"/>
       <c r="G318" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Roaming around buildings that
-are under construction is
-dangerous. </v>
+        <v>Loading...</v>
       </c>
       <c r="H318" s="23"/>
     </row>
@@ -76952,8 +76190,7 @@
       <c r="F321" s="23"/>
       <c r="G321" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Medarots are power! 
-Don't you think so too? </v>
+        <v>Loading...</v>
       </c>
       <c r="H321" s="23"/>
     </row>
@@ -77095,8 +76332,7 @@
       <c r="F327" s="23"/>
       <c r="G327" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Thanks, Dad. 
-Be careful going back home. </v>
+        <v>Loading...</v>
       </c>
       <c r="H327" s="23"/>
     </row>
@@ -77121,8 +76357,7 @@
       </c>
       <c r="G328" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Hm, wanna battle me? Caw
-caw! </v>
+        <v>Loading...</v>
       </c>
       <c r="H328" s="21" t="s">
         <v>84</v>
@@ -77191,7 +76426,7 @@
       <c r="F331" s="23"/>
       <c r="G331" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>How did you get in here, robo!? </v>
+        <v>Loading...</v>
       </c>
       <c r="H331" s="23"/>
     </row>
@@ -77233,12 +76468,7 @@
       <c r="F333" s="23"/>
       <c r="G333" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>There should be a computer
-somewhere in this building
-that's causing the Medarots
-to go berserk. 
-Hurry and stop it before it
-gets out of hand. </v>
+        <v>Loading...</v>
       </c>
       <c r="H333" s="23"/>
     </row>
@@ -77259,10 +76489,7 @@
       <c r="F334" s="23"/>
       <c r="G334" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>We're being forced to create
-new Medarots. 
-I don't want to make a
-harmful Medarot... </v>
+        <v>Loading...</v>
       </c>
       <c r="H334" s="23"/>
     </row>
@@ -77283,8 +76510,7 @@
       <c r="F335" s="23"/>
       <c r="G335" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Something is crawling around
-inside. </v>
+        <v>Loading...</v>
       </c>
       <c r="H335" s="23"/>
     </row>
@@ -77412,7 +76638,7 @@
       <c r="F341" s="27"/>
       <c r="G341" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>=0x682a4</v>
+        <v>Loading...</v>
       </c>
       <c r="H341" s="24" t="s">
         <v>92</v>
@@ -77498,9 +76724,7 @@
       <c r="F345" s="23"/>
       <c r="G345" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Ho ho ho. I won't let you pass
-beyond this point. 
-Hold it!! </v>
+        <v>Loading...</v>
       </c>
       <c r="H345" s="23"/>
     </row>
@@ -77565,8 +76789,7 @@
       <c r="F348" s="23"/>
       <c r="G348" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>We'll leave the rest to you! 
-...What is a "small fry"?! </v>
+        <v>Loading...</v>
       </c>
       <c r="H348" s="21" t="s">
         <v>84</v>
@@ -77652,12 +76875,7 @@
       <c r="F352" s="23"/>
       <c r="G352" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>What's this? This is the one
-who bullied my Yuuki? 
-Time for some punishment. 
-I'm not a coward! 
-I was somewhere else during
-that time... </v>
+        <v>Loading...</v>
       </c>
       <c r="H352" s="23"/>
     </row>
@@ -77678,7 +76896,7 @@
       <c r="F353" s="23"/>
       <c r="G353" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Here!! </v>
+        <v>Loading...</v>
       </c>
       <c r="H353" s="23"/>
     </row>
@@ -77762,7 +76980,7 @@
       <c r="F357" s="23"/>
       <c r="G357" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Hey, you satisfied? </v>
+        <v>Loading...</v>
       </c>
       <c r="H357" s="23"/>
     </row>
@@ -77783,8 +77001,7 @@
       <c r="F358" s="23"/>
       <c r="G358" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>I'll leave the rest to you. Good
-luck! </v>
+        <v>Loading...</v>
       </c>
       <c r="H358" s="23"/>
     </row>
@@ -77805,9 +77022,7 @@
       <c r="F359" s="23"/>
       <c r="G359" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Why did they all come here...? I
-was doing all the fighting
-anyway... </v>
+        <v>Loading...</v>
       </c>
       <c r="H359" s="23"/>
     </row>
@@ -77849,7 +77064,7 @@
       <c r="F361" s="23"/>
       <c r="G361" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>◆Bloom, flower of justice...◇ </v>
+        <v>Loading...</v>
       </c>
       <c r="H361" s="23"/>
     </row>
@@ -77912,7 +77127,7 @@
       <c r="F364" s="23"/>
       <c r="G364" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>◆On the scene!!◇ </v>
+        <v>Loading...</v>
       </c>
       <c r="H364" s="23"/>
     </row>
@@ -77975,7 +77190,7 @@
       <c r="F367" s="23"/>
       <c r="G367" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Roborobo roborobo. </v>
+        <v>Loading...</v>
       </c>
       <c r="H367" s="23"/>
     </row>
@@ -78038,7 +77253,7 @@
       <c r="F370" s="23"/>
       <c r="G370" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Good job♥ </v>
+        <v>Loading...</v>
       </c>
       <c r="H370" s="23"/>
     </row>
@@ -78080,7 +77295,7 @@
       <c r="F372" s="23"/>
       <c r="G372" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>The world is mine!! </v>
+        <v>Loading...</v>
       </c>
       <c r="H372" s="23"/>
     </row>
@@ -78101,9 +77316,7 @@
       <c r="F373" s="23"/>
       <c r="G373" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>What is this?! Me? Defeated?
-For the second time?! 
-Uuoooh!! </v>
+        <v>Loading...</v>
       </c>
       <c r="H373" s="23"/>
     </row>
@@ -78124,9 +77337,7 @@
       <c r="F374" s="23"/>
       <c r="G374" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>What is this quake? 
-No! Impossible! It shouldn't be
-complete yet!! </v>
+        <v>Loading...</v>
       </c>
       <c r="H374" s="23"/>
     </row>
@@ -78147,17 +77358,7 @@
       <c r="F375" s="23"/>
       <c r="G375" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Whatever, I don't care at
-this point! Attack! 
-I REFUSE TO FOLLOW YOUR
-ORDERS. 
-You dare to disobey me!? 
-I EXIST ONLY TO DESTROY. 
-I WILL DESTROY
-EVERYTHING!! 
-Ah, the usual boss after final
-boss pattern, I see. 
-Let's go! Robottle! </v>
+        <v>Loading...</v>
       </c>
       <c r="H375" s="23"/>
     </row>
@@ -78178,8 +77379,7 @@
       <c r="F376" s="23"/>
       <c r="G376" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>DESTROY!! DESTROY!!
-DESTROY!! </v>
+        <v>Loading...</v>
       </c>
       <c r="H376" s="23"/>
     </row>
@@ -78200,9 +77400,7 @@
       <c r="F377" s="23"/>
       <c r="G377" s="21" t="str">
         <f t="shared" si="1"/>
-        <v> DESTROY... DEST... ROY...
-DEST... 
- ... </v>
+        <v>Loading...</v>
       </c>
       <c r="H377" s="23"/>
     </row>
@@ -78223,7 +77421,7 @@
       <c r="F378" s="23"/>
       <c r="G378" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Th-the building is collapsing! </v>
+        <v>Loading...</v>
       </c>
       <c r="H378" s="23"/>
     </row>
@@ -78265,12 +77463,7 @@
       <c r="F380" s="23"/>
       <c r="G380" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Select Force Chief Taiyou,
-you're under arrest for
-disturbing the peace, the
-abuse of Medarots, destroying
-the Select Building and many
-other offenses! </v>
+        <v>Loading...</v>
       </c>
       <c r="H380" s="23"/>
     </row>
@@ -78358,9 +77551,7 @@
       <c r="F384" s="23"/>
       <c r="G384" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Crows like shiny things. 
-They have a bunch of stuff
-stockpiled in their nests. </v>
+        <v>Loading...</v>
       </c>
       <c r="H384" s="23"/>
     </row>
@@ -78450,8 +77641,7 @@
       <c r="F388" s="23"/>
       <c r="G388" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Hey boy, let's Robottle... 
-A-Awoooooo! </v>
+        <v>Loading...</v>
       </c>
       <c r="H388" s="23"/>
     </row>
@@ -78514,10 +77704,7 @@
       <c r="F391" s="23"/>
       <c r="G391" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>So you finally became a decent
-human being again? 
-Hm? Did I say something
-wrong? </v>
+        <v>Loading...</v>
       </c>
       <c r="H391" s="23"/>
     </row>
@@ -78561,8 +77748,7 @@
       <c r="F393" s="23"/>
       <c r="G393" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Nothing like a cold one after
-work! </v>
+        <v>Loading...</v>
       </c>
       <c r="H393" s="23"/>
     </row>
@@ -78654,9 +77840,7 @@
       <c r="F397" s="23"/>
       <c r="G397" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Let me see the earthenware... 
-This isn't earthenware! 
-*crash*! </v>
+        <v>Loading...</v>
       </c>
       <c r="H397" s="23"/>
     </row>
@@ -78679,8 +77863,7 @@
       <c r="F398" s="23"/>
       <c r="G398" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>The only thing I'm skilled at is
-earthenware. </v>
+        <v>Loading...</v>
       </c>
       <c r="H398" s="23"/>
     </row>
@@ -78726,8 +77909,7 @@
       <c r="F400" s="23"/>
       <c r="G400" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Kintarou sumo wrestled a bear
-on the mountain. </v>
+        <v>Loading...</v>
       </c>
       <c r="H400" s="23"/>
     </row>
@@ -78750,7 +77932,7 @@
       <c r="F401" s="27"/>
       <c r="G401" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>=0x6831c</v>
+        <v>Loading...</v>
       </c>
       <c r="H401" s="24" t="s">
         <v>92</v>
@@ -78775,8 +77957,7 @@
       <c r="F402" s="23"/>
       <c r="G402" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Kintarou flung a bear on the
-mountain. </v>
+        <v>Loading...</v>
       </c>
       <c r="H402" s="23"/>
     </row>
@@ -78950,8 +78131,7 @@
       <c r="F410" s="23"/>
       <c r="G410" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Is nothing getting caught in
-my lure? </v>
+        <v>Loading...</v>
       </c>
       <c r="H410" s="23"/>
     </row>
@@ -79089,7 +78269,7 @@
       <c r="F416" s="27"/>
       <c r="G416" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>=0x68338</v>
+        <v>Loading...</v>
       </c>
       <c r="H416" s="24" t="s">
         <v>92</v>
@@ -79204,7 +78384,7 @@
       <c r="F421" s="23"/>
       <c r="G421" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>I'll take your soul!! </v>
+        <v>Loading...</v>
       </c>
       <c r="H421" s="23"/>
     </row>
@@ -79292,7 +78472,7 @@
       <c r="F425" s="23"/>
       <c r="G425" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Aah, a Tsuchinoko!? </v>
+        <v>Loading...</v>
       </c>
       <c r="H425" s="23"/>
     </row>
@@ -79336,7 +78516,7 @@
       <c r="F427" s="23"/>
       <c r="G427" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>The water is great, ukiii! </v>
+        <v>Loading...</v>
       </c>
       <c r="H427" s="23"/>
     </row>
@@ -79359,8 +78539,7 @@
       <c r="F428" s="23"/>
       <c r="G428" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>I wonder if the clay around
-here would work? </v>
+        <v>Loading...</v>
       </c>
       <c r="H428" s="23"/>
     </row>
@@ -79534,7 +78713,7 @@
       <c r="F436" s="23"/>
       <c r="G436" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Yo yo... </v>
+        <v>Loading...</v>
       </c>
       <c r="H436" s="23"/>
     </row>
@@ -79580,7 +78759,7 @@
       <c r="F438" s="23"/>
       <c r="G438" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>The Medal-like coin is gone. </v>
+        <v>Loading...</v>
       </c>
       <c r="H438" s="23"/>
     </row>
@@ -79603,8 +78782,7 @@
       <c r="F439" s="23"/>
       <c r="G439" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Will you place the Medal-like
-coin back?  </v>
+        <v>Loading...</v>
       </c>
       <c r="H439" s="21" t="s">
         <v>87</v>
@@ -79652,7 +78830,7 @@
       <c r="F441" s="23"/>
       <c r="G441" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Hey, cut it out, will you?! </v>
+        <v>Loading...</v>
       </c>
       <c r="H441" s="23"/>
     </row>
@@ -79696,9 +78874,7 @@
       <c r="F443" s="23"/>
       <c r="G443" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>The floor is giving off an odd
-glow. 
-It's luminous moss. </v>
+        <v>Loading...</v>
       </c>
       <c r="H443" s="23"/>
     </row>
@@ -79719,7 +78895,7 @@
       <c r="F444" s="23"/>
       <c r="G444" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Uwaah! </v>
+        <v>Loading...</v>
       </c>
       <c r="H444" s="23"/>
     </row>
@@ -79740,8 +78916,7 @@
       <c r="F445" s="23"/>
       <c r="G445" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>There's a toy fish laying
-around. </v>
+        <v>Loading...</v>
       </c>
       <c r="H445" s="23"/>
     </row>
@@ -79812,9 +78987,7 @@
       <c r="F448" s="23"/>
       <c r="G448" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>You can sell parts that you
-win from Robottles at the
-store. </v>
+        <v>Loading...</v>
       </c>
       <c r="H448" s="23"/>
     </row>
@@ -79835,9 +79008,7 @@
       <c r="F449" s="23"/>
       <c r="G449" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>The Select Force protects the
-Earth from the RoboRobo
-Gang. </v>
+        <v>Loading...</v>
       </c>
       <c r="H449" s="23"/>
     </row>
@@ -79952,9 +79123,7 @@
       <c r="F454" s="23"/>
       <c r="G454" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>It seems there is some kind of
-treasure hidden within the sea
-cave. </v>
+        <v>Loading...</v>
       </c>
       <c r="H454" s="23"/>
     </row>
@@ -79975,8 +79144,7 @@
       <c r="F455" s="23"/>
       <c r="G455" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Oh, are you ────────? 
-Can I have your autograph? </v>
+        <v>Loading...</v>
       </c>
       <c r="H455" s="23"/>
     </row>
@@ -80022,7 +79190,7 @@
       <c r="F457" s="23"/>
       <c r="G457" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Go play somewhere else, kid. </v>
+        <v>Loading...</v>
       </c>
       <c r="H457" s="23"/>
     </row>
@@ -80045,7 +79213,7 @@
       <c r="F458" s="23"/>
       <c r="G458" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>I want to play with Medarots. </v>
+        <v>Loading...</v>
       </c>
       <c r="H458" s="23"/>
     </row>
@@ -80141,7 +79309,7 @@
       <c r="F462" s="27"/>
       <c r="G462" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>=0x68390</v>
+        <v>Loading...</v>
       </c>
       <c r="H462" s="24" t="s">
         <v>92</v>
@@ -80335,7 +79503,7 @@
       <c r="F470" s="27"/>
       <c r="G470" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>=0x683a4</v>
+        <v>Loading...</v>
       </c>
       <c r="H470" s="24" t="s">
         <v>92</v>
@@ -80383,8 +79551,7 @@
       </c>
       <c r="G472" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Obtained ──────── part 
-◆────────◇! </v>
+        <v>Loading...</v>
       </c>
       <c r="H472" s="21" t="s">
         <v>84</v>
@@ -80409,7 +79576,7 @@
       <c r="F473" s="21"/>
       <c r="G473" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Obtained ◆────────◇ Medal! </v>
+        <v>Loading...</v>
       </c>
       <c r="H473" s="23"/>
     </row>
@@ -80454,7 +79621,7 @@
       </c>
       <c r="G475" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Obtained◆ ────────◇. </v>
+        <v>Loading...</v>
       </c>
       <c r="H475" s="23"/>
     </row>
@@ -80525,7 +79692,7 @@
       <c r="F478" s="21"/>
       <c r="G478" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Lost ◆────────◇. </v>
+        <v>Loading...</v>
       </c>
       <c r="H478" s="23"/>
     </row>
@@ -80571,7 +79738,7 @@
       <c r="F480" s="21"/>
       <c r="G480" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>What type of part? </v>
+        <v>Loading...</v>
       </c>
       <c r="H480" s="23"/>
     </row>
@@ -80640,9 +79807,7 @@
       <c r="F483" s="21"/>
       <c r="G483" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>You can't carry any more. 
-Try selling some old parts
-first. </v>
+        <v>Loading...</v>
       </c>
       <c r="H483" s="23"/>
     </row>
@@ -80711,13 +79876,7 @@
       <c r="F486" s="23"/>
       <c r="G486" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>That's right, today's the last
-day of school. 
-I guess I'll be free tomorrow... 
-I wonder what I should do... 
-What do you think,
-Bonaparte? 
-Woof! Woof! </v>
+        <v>Loading...</v>
       </c>
       <c r="H486" s="23"/>
     </row>
@@ -80786,8 +79945,7 @@
       <c r="F489" s="23"/>
       <c r="G489" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>────────! Hurry
-downstairs! </v>
+        <v>Loading...</v>
       </c>
       <c r="H489" s="23"/>
     </row>
@@ -80808,9 +79966,7 @@
       <c r="F490" s="23"/>
       <c r="G490" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>If you there's something you
-don't understand, you could
-always ask me. </v>
+        <v>Loading...</v>
       </c>
       <c r="H490" s="23"/>
     </row>
@@ -80833,7 +79989,7 @@
       <c r="F491" s="27"/>
       <c r="G491" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>=0x683ce</v>
+        <v>Loading...</v>
       </c>
       <c r="H491" s="24" t="s">
         <v>92</v>
@@ -80908,7 +80064,7 @@
       <c r="F494" s="27"/>
       <c r="G494" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>=0x683ce</v>
+        <v>Loading...</v>
       </c>
       <c r="H494" s="24" t="s">
         <v>92</v>
@@ -80933,7 +80089,7 @@
       <c r="F495" s="27"/>
       <c r="G495" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>=0x683ce</v>
+        <v>Loading...</v>
       </c>
       <c r="H495" s="24" t="s">
         <v>92</v>
@@ -81029,8 +80185,7 @@
       <c r="F499" s="23"/>
       <c r="G499" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>If you thought it was over,
-then you are sadly mistaken. </v>
+        <v>Loading...</v>
       </c>
       <c r="H499" s="23"/>
     </row>
@@ -81122,9 +80277,7 @@
       <c r="F503" s="23"/>
       <c r="G503" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>So you only have 1 Medarot? 
-They say you can keep as
-many as 9. </v>
+        <v>Loading...</v>
       </c>
       <c r="H503" s="23"/>
     </row>
@@ -81145,8 +80298,7 @@
       <c r="F504" s="23"/>
       <c r="G504" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>How's that? Are you finally
-beginning to understand? </v>
+        <v>Loading...</v>
       </c>
       <c r="H504" s="23"/>
     </row>
@@ -81169,10 +80321,7 @@
       <c r="F505" s="23"/>
       <c r="G505" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>You can exchange one of the
-lottery tickets from the store
-for a single prize at the
-lottery. </v>
+        <v>Loading...</v>
       </c>
       <c r="H505" s="23"/>
     </row>
@@ -81289,7 +80438,7 @@
       <c r="F510" s="23"/>
       <c r="G510" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Eeeeeek! I surrender! </v>
+        <v>Loading...</v>
       </c>
       <c r="H510" s="23"/>
     </row>
@@ -81312,8 +80461,7 @@
       <c r="F511" s="23"/>
       <c r="G511" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>That's right, I knew you'd be
-too scared to face me! </v>
+        <v>Loading...</v>
       </c>
       <c r="H511" s="23"/>
     </row>
@@ -81474,20 +80622,7 @@
       <c r="F518" s="23"/>
       <c r="G518" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Huh...? Who are you? 
-I am Yuuki Nimousaku and I
-am your rival! 
-The Robottle Tournament is
-made up of three smaller
-tournaments: 
-The ◆City Tournament◇, 
-the ◆Regional Tournament◇, 
-and the ◆Main Tournament◇. 
-If you progress through one
-tournament, you can move on
-to the next. 
-Try to learn from watching me
-fight. </v>
+        <v>Loading...</v>
       </c>
       <c r="H518" s="23"/>
     </row>
@@ -81508,8 +80643,7 @@
       <c r="F519" s="23"/>
       <c r="G519" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Your father left for work to
-the Select Building. </v>
+        <v>Loading...</v>
       </c>
       <c r="H519" s="23"/>
     </row>
@@ -81530,9 +80664,7 @@
       <c r="F520" s="23"/>
       <c r="G520" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Huh? You saw the Select
-Force Chief? 
-No one came over here. </v>
+        <v>Loading...</v>
       </c>
       <c r="H520" s="23"/>
     </row>
@@ -81641,11 +80773,7 @@
       <c r="F525" s="23"/>
       <c r="G525" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>This has to be joke... The
-RoboRobo Gang was the Select
-Force the whole time... 
-I don't know who to trust
-anymore. </v>
+        <v>Loading...</v>
       </c>
       <c r="H525" s="21"/>
     </row>
@@ -81708,7 +80836,7 @@
       <c r="F528" s="23"/>
       <c r="G528" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>I guess I'll play alone today... </v>
+        <v>Loading...</v>
       </c>
       <c r="H528" s="23"/>
     </row>
@@ -81729,9 +80857,7 @@
       <c r="F529" s="23"/>
       <c r="G529" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Oh, ────────... 
-Hey, wanna Robottle? 
-Let's do it! </v>
+        <v>Loading...</v>
       </c>
       <c r="H529" s="23"/>
     </row>
@@ -81802,7 +80928,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{8965EAC8-BDD4-47FB-B5E5-FE9CD8CE2B54}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{BA7D1C37-B08B-41D7-B0CE-9DB053B91EDD}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$1:$H$532">
         <sortState ref="B1:H532">
           <sortCondition ref="E1:E532"/>
@@ -81950,9 +81076,7 @@
       <c r="F4" s="23"/>
       <c r="G4" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>The RoboRobo Gang have a
-base at the back of the
-Shrine. </v>
+        <v>Loading...</v>
       </c>
       <c r="H4" s="23"/>
     </row>
@@ -81973,7 +81097,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>The RoboRobo base is gone. </v>
+        <v>Loading...</v>
       </c>
       <c r="H5" s="23"/>
     </row>
@@ -82021,7 +81145,7 @@
       <c r="F7" s="23"/>
       <c r="G7" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>The stairs end halfway. </v>
+        <v>Loading...</v>
       </c>
       <c r="H7" s="23"/>
     </row>
@@ -82109,8 +81233,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Not bad! You're doing pretty
-good. </v>
+        <v>Loading...</v>
       </c>
       <c r="H11" s="23"/>
     </row>
@@ -82226,8 +81349,7 @@
       <c r="F16" s="23"/>
       <c r="G16" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Welcome to the Shinobic Park. 
-Come on in! </v>
+        <v>Loading...</v>
       </c>
       <c r="H16" s="23"/>
     </row>
@@ -82250,8 +81372,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>The sign reads "No
-Trespassing". </v>
+        <v>Loading...</v>
       </c>
       <c r="H17" s="23"/>
     </row>
@@ -82443,7 +81564,7 @@
       <c r="F25" s="27"/>
       <c r="G25" s="21" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>Loading...</v>
       </c>
       <c r="H25" s="24" t="s">
         <v>92</v>
@@ -82493,7 +81614,7 @@
       <c r="F27" s="27"/>
       <c r="G27" s="21" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>Loading...</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>92</v>
@@ -82518,7 +81639,7 @@
       <c r="F28" s="27"/>
       <c r="G28" s="21" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>Loading...</v>
       </c>
       <c r="H28" s="24" t="s">
         <v>92</v>
@@ -82543,7 +81664,7 @@
       <c r="F29" s="27"/>
       <c r="G29" s="21" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>Loading...</v>
       </c>
       <c r="H29" s="24" t="s">
         <v>92</v>
@@ -82618,7 +81739,7 @@
       <c r="F32" s="27"/>
       <c r="G32" s="21" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>Loading...</v>
       </c>
       <c r="H32" s="24" t="s">
         <v>92</v>
@@ -82690,7 +81811,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{8965EAC8-BDD4-47FB-B5E5-FE9CD8CE2B54}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{BA7D1C37-B08B-41D7-B0CE-9DB053B91EDD}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$1:$H$35">
         <sortState ref="B1:H35">
           <sortCondition ref="E1:E35"/>
@@ -82840,7 +81961,7 @@
       <c r="F4" s="27"/>
       <c r="G4" s="23" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>Loading...</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>92</v>
@@ -82913,7 +82034,7 @@
       <c r="F7" s="23"/>
       <c r="G7" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>That was a good fight. </v>
+        <v>Loading...</v>
       </c>
       <c r="H7" s="23"/>
     </row>
@@ -83236,7 +82357,7 @@
       <c r="F7" s="23"/>
       <c r="G7" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>It took my money! </v>
+        <v>Loading...</v>
       </c>
       <c r="H7" s="23"/>
     </row>
@@ -83284,16 +82405,7 @@
       <c r="F9" s="23"/>
       <c r="G9" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Hey, ────────. Your
-father helps with work on the
-construction of the Select
-building, doesn't he? 
-How about paying him a
-surprise visit? 
-Huh? 
-◆ 
-◇I mean I'm not saying that
-you HAVE to go but.... </v>
+        <v>Loading...</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>89</v>
@@ -83341,7 +82453,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>The rope ladder disappeared. </v>
+        <v>Loading...</v>
       </c>
       <c r="H11" s="23"/>
     </row>
@@ -83513,10 +82625,7 @@
       <c r="F3" s="23"/>
       <c r="G3" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>The winner is ────────
-Agata! 
-The runner-up, Yuuki
-Nimousaku! </v>
+        <v>Loading...</v>
       </c>
       <c r="H3" s="23"/>
     </row>
@@ -83539,9 +82648,7 @@
       <c r="F4" s="23"/>
       <c r="G4" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>The winner is Yuuki Nimousaku! 
-The runner-up, ────────
-Agata! </v>
+        <v>Loading...</v>
       </c>
       <c r="H4" s="23"/>
     </row>
@@ -83767,10 +82874,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>No- no way! 
-You guys are... 
-aliens!? 
-▰You....!▱ </v>
+        <v>Loading...</v>
       </c>
       <c r="H5" s="23"/>
     </row>
@@ -83854,7 +82958,7 @@
       <c r="F9" s="23"/>
       <c r="G9" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>Lighten up! </v>
+        <v>Loading...</v>
       </c>
       <c r="H9" s="23"/>
     </row>
@@ -83875,7 +82979,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>The foreigners went home... </v>
+        <v>Loading...</v>
       </c>
       <c r="H10" s="23"/>
     </row>
@@ -84023,7 +83127,7 @@
       <c r="F16" s="23"/>
       <c r="G16" s="23" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>Loading...</v>
       </c>
       <c r="H16" s="21" t="s">
         <v>92</v>
